--- a/src/main/resources/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
+++ b/src/main/resources/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
@@ -4263,11 +4263,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -4393,27 +4393,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="等线 Light"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4423,8 +4405,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4446,66 +4436,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4513,17 +4443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4546,6 +4468,35 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -4553,8 +4504,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4659,7 +4648,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4671,7 +4744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4683,37 +4762,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4725,121 +4816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5643,39 +5632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5726,6 +5682,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5740,160 +5714,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="72" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6379,13 +6368,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="63" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6397,13 +6386,19 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="64" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6426,9 +6421,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6448,10 +6440,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6477,13 +6469,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7324,8 +7316,8 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -7560,21 +7552,21 @@
       <c r="L3" s="161"/>
       <c r="M3" s="161"/>
       <c r="N3" s="161"/>
-      <c r="O3" s="187" t="s">
+      <c r="O3" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="189"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="189"/>
       <c r="AB3" s="161" t="s">
         <v>5</v>
       </c>
@@ -7641,7 +7633,7 @@
       <c r="BY3" s="161"/>
       <c r="BZ3" s="161"/>
       <c r="CA3" s="161"/>
-      <c r="CB3" s="209"/>
+      <c r="CB3" s="210"/>
     </row>
     <row r="4" ht="29.25" customHeight="1" spans="1:80">
       <c r="A4" s="160"/>
@@ -7734,23 +7726,23 @@
       <c r="AH4" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="189" t="s">
+      <c r="AI4" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="194" t="s">
+      <c r="AJ4" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="194" t="s">
+      <c r="AK4" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="194"/>
-      <c r="AM4" s="194" t="s">
+      <c r="AL4" s="195"/>
+      <c r="AM4" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="AN4" s="194" t="s">
+      <c r="AN4" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="194"/>
+      <c r="AO4" s="195"/>
       <c r="AP4" s="165" t="s">
         <v>45</v>
       </c>
@@ -7816,16 +7808,16 @@
       <c r="BP4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="BQ4" s="205" t="s">
+      <c r="BQ4" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="BR4" s="205" t="s">
+      <c r="BR4" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="BS4" s="205" t="s">
+      <c r="BS4" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="BT4" s="205" t="s">
+      <c r="BT4" s="206" t="s">
         <v>65</v>
       </c>
       <c r="BU4" s="165" t="s">
@@ -7849,7 +7841,7 @@
       <c r="CA4" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="CB4" s="210" t="s">
+      <c r="CB4" s="211" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7888,13 +7880,13 @@
       <c r="AF5" s="165"/>
       <c r="AG5" s="165"/>
       <c r="AH5" s="165"/>
-      <c r="AI5" s="195"/>
+      <c r="AI5" s="196"/>
       <c r="AJ5" s="165"/>
-      <c r="AK5" s="194"/>
-      <c r="AL5" s="194"/>
+      <c r="AK5" s="195"/>
+      <c r="AL5" s="195"/>
       <c r="AM5" s="165"/>
-      <c r="AN5" s="194"/>
-      <c r="AO5" s="194"/>
+      <c r="AN5" s="195"/>
+      <c r="AO5" s="195"/>
       <c r="AP5" s="165"/>
       <c r="AQ5" s="165"/>
       <c r="AR5" s="165"/>
@@ -7902,7 +7894,7 @@
       <c r="AT5" s="165"/>
       <c r="AU5" s="165"/>
       <c r="AV5" s="165"/>
-      <c r="AW5" s="205"/>
+      <c r="AW5" s="206"/>
       <c r="AX5" s="165"/>
       <c r="AY5" s="165"/>
       <c r="AZ5" s="165"/>
@@ -7922,18 +7914,18 @@
       <c r="BN5" s="165"/>
       <c r="BO5" s="165"/>
       <c r="BP5" s="165"/>
-      <c r="BQ5" s="205"/>
-      <c r="BR5" s="205"/>
-      <c r="BS5" s="205"/>
-      <c r="BT5" s="205"/>
-      <c r="BU5" s="194"/>
+      <c r="BQ5" s="206"/>
+      <c r="BR5" s="206"/>
+      <c r="BS5" s="206"/>
+      <c r="BT5" s="206"/>
+      <c r="BU5" s="195"/>
       <c r="BV5" s="165"/>
       <c r="BW5" s="165"/>
       <c r="BX5" s="165"/>
       <c r="BY5" s="165"/>
       <c r="BZ5" s="165"/>
       <c r="CA5" s="165"/>
-      <c r="CB5" s="210"/>
+      <c r="CB5" s="211"/>
     </row>
     <row r="6" ht="54" customHeight="1" spans="1:80">
       <c r="A6" s="160"/>
@@ -7986,7 +7978,7 @@
       <c r="AF6" s="165"/>
       <c r="AG6" s="165"/>
       <c r="AH6" s="165"/>
-      <c r="AI6" s="196"/>
+      <c r="AI6" s="197"/>
       <c r="AJ6" s="165"/>
       <c r="AK6" s="4" t="s">
         <v>76</v>
@@ -8014,7 +8006,7 @@
       <c r="AV6" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="AW6" s="205"/>
+      <c r="AW6" s="206"/>
       <c r="AX6" s="165"/>
       <c r="AY6" s="165"/>
       <c r="AZ6" s="165"/>
@@ -8058,18 +8050,18 @@
       </c>
       <c r="BO6" s="165"/>
       <c r="BP6" s="165"/>
-      <c r="BQ6" s="205"/>
-      <c r="BR6" s="205"/>
-      <c r="BS6" s="205"/>
-      <c r="BT6" s="205"/>
-      <c r="BU6" s="194"/>
+      <c r="BQ6" s="206"/>
+      <c r="BR6" s="206"/>
+      <c r="BS6" s="206"/>
+      <c r="BT6" s="206"/>
+      <c r="BU6" s="195"/>
       <c r="BV6" s="165"/>
       <c r="BW6" s="165"/>
       <c r="BX6" s="165"/>
       <c r="BY6" s="165"/>
       <c r="BZ6" s="165"/>
       <c r="CA6" s="165"/>
-      <c r="CB6" s="210"/>
+      <c r="CB6" s="211"/>
     </row>
     <row r="7" s="155" customFormat="1" ht="44.45" hidden="1" customHeight="1" spans="1:80">
       <c r="A7" s="160"/>
@@ -8131,7 +8123,7 @@
       <c r="AA7" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="193" t="s">
+      <c r="AB7" s="194" t="s">
         <v>99</v>
       </c>
       <c r="AC7" s="171" t="s">
@@ -8147,103 +8139,103 @@
       <c r="AI7" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="AJ7" s="193" t="s">
+      <c r="AJ7" s="194" t="s">
         <v>102</v>
       </c>
       <c r="AK7" s="171" t="s">
         <v>103</v>
       </c>
       <c r="AL7" s="171"/>
-      <c r="AM7" s="193" t="s">
+      <c r="AM7" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="193"/>
+      <c r="AN7" s="194"/>
       <c r="AO7" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="AP7" s="200" t="s">
+      <c r="AP7" s="201" t="s">
         <v>106</v>
       </c>
-      <c r="AQ7" s="200" t="s">
+      <c r="AQ7" s="201" t="s">
         <v>106</v>
       </c>
-      <c r="AR7" s="201" t="s">
+      <c r="AR7" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="AS7" s="201" t="s">
+      <c r="AS7" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="AT7" s="201" t="s">
+      <c r="AT7" s="202" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="201"/>
-      <c r="AV7" s="201"/>
-      <c r="AW7" s="201" t="s">
+      <c r="AU7" s="202"/>
+      <c r="AV7" s="202"/>
+      <c r="AW7" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="AX7" s="201" t="s">
+      <c r="AX7" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="AY7" s="201" t="s">
+      <c r="AY7" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="AZ7" s="201" t="s">
+      <c r="AZ7" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="BA7" s="201" t="s">
+      <c r="BA7" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="BB7" s="201"/>
-      <c r="BC7" s="201" t="s">
+      <c r="BB7" s="202"/>
+      <c r="BC7" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="BD7" s="201" t="s">
+      <c r="BD7" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="BE7" s="201"/>
-      <c r="BF7" s="201" t="s">
+      <c r="BE7" s="202"/>
+      <c r="BF7" s="202" t="s">
         <v>115</v>
       </c>
-      <c r="BG7" s="201"/>
-      <c r="BH7" s="201" t="s">
+      <c r="BG7" s="202"/>
+      <c r="BH7" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="BI7" s="201" t="s">
+      <c r="BI7" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="BJ7" s="201"/>
-      <c r="BK7" s="201"/>
-      <c r="BL7" s="201"/>
-      <c r="BM7" s="201"/>
-      <c r="BN7" s="201"/>
-      <c r="BO7" s="201" t="s">
+      <c r="BJ7" s="202"/>
+      <c r="BK7" s="202"/>
+      <c r="BL7" s="202"/>
+      <c r="BM7" s="202"/>
+      <c r="BN7" s="202"/>
+      <c r="BO7" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="BP7" s="201" t="s">
+      <c r="BP7" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="BQ7" s="201" t="s">
+      <c r="BQ7" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="BR7" s="201" t="s">
+      <c r="BR7" s="202" t="s">
         <v>120</v>
       </c>
-      <c r="BS7" s="201" t="s">
+      <c r="BS7" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="BT7" s="201" t="s">
+      <c r="BT7" s="202" t="s">
         <v>122</v>
       </c>
-      <c r="BU7" s="201"/>
-      <c r="BV7" s="201"/>
-      <c r="BW7" s="200" t="s">
+      <c r="BU7" s="202"/>
+      <c r="BV7" s="202"/>
+      <c r="BW7" s="201" t="s">
         <v>123</v>
       </c>
-      <c r="BX7" s="201"/>
-      <c r="BY7" s="200"/>
-      <c r="BZ7" s="201"/>
-      <c r="CA7" s="201"/>
-      <c r="CB7" s="211"/>
+      <c r="BX7" s="202"/>
+      <c r="BY7" s="201"/>
+      <c r="BZ7" s="202"/>
+      <c r="CA7" s="202"/>
+      <c r="CB7" s="212"/>
     </row>
     <row r="8" ht="66" hidden="1" customHeight="1" spans="1:80">
       <c r="A8" s="160"/>
@@ -8275,7 +8267,7 @@
       <c r="K8" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="188" t="s">
+      <c r="L8" s="190" t="s">
         <v>131</v>
       </c>
       <c r="M8" s="173" t="s">
@@ -8287,88 +8279,88 @@
       <c r="O8" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="189" t="s">
+      <c r="P8" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="189" t="s">
+      <c r="Q8" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="189" t="s">
+      <c r="R8" s="191" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="189" t="s">
+      <c r="S8" s="191" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="189" t="s">
+      <c r="T8" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="189" t="s">
+      <c r="U8" s="191" t="s">
         <v>140</v>
       </c>
-      <c r="V8" s="189" t="s">
+      <c r="V8" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="W8" s="188" t="s">
+      <c r="W8" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="X8" s="189" t="s">
+      <c r="X8" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="Y8" s="189" t="s">
+      <c r="Y8" s="191" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" s="188" t="s">
+      <c r="Z8" s="190" t="s">
         <v>145</v>
       </c>
-      <c r="AA8" s="189" t="s">
+      <c r="AA8" s="191" t="s">
         <v>146</v>
       </c>
-      <c r="AB8" s="189" t="s">
+      <c r="AB8" s="191" t="s">
         <v>147</v>
       </c>
-      <c r="AC8" s="189" t="s">
+      <c r="AC8" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="AD8" s="189" t="s">
+      <c r="AD8" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="AE8" s="189" t="s">
+      <c r="AE8" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="189" t="s">
+      <c r="AF8" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="AG8" s="189" t="s">
+      <c r="AG8" s="191" t="s">
         <v>152</v>
       </c>
-      <c r="AH8" s="189" t="s">
+      <c r="AH8" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="AI8" s="189" t="s">
+      <c r="AI8" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="AJ8" s="189" t="s">
+      <c r="AJ8" s="191" t="s">
         <v>155</v>
       </c>
-      <c r="AK8" s="189" t="s">
+      <c r="AK8" s="191" t="s">
         <v>156</v>
       </c>
-      <c r="AL8" s="189" t="s">
+      <c r="AL8" s="191" t="s">
         <v>157</v>
       </c>
-      <c r="AM8" s="189" t="s">
+      <c r="AM8" s="191" t="s">
         <v>158</v>
       </c>
-      <c r="AN8" s="189" t="s">
+      <c r="AN8" s="191" t="s">
         <v>159</v>
       </c>
-      <c r="AO8" s="189" t="s">
+      <c r="AO8" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="AP8" s="202" t="s">
+      <c r="AP8" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="AQ8" s="202" t="s">
+      <c r="AQ8" s="203" t="s">
         <v>162</v>
       </c>
       <c r="AR8" s="173" t="s">
@@ -8479,7 +8471,7 @@
       <c r="CA8" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="CB8" s="212" t="s">
+      <c r="CB8" s="213" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8548,7 +8540,7 @@
       <c r="V9" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="W9" s="192" t="s">
+      <c r="W9" s="152" t="s">
         <v>219</v>
       </c>
       <c r="X9" s="175" t="s">
@@ -8717,7 +8709,7 @@
         <v>274</v>
       </c>
       <c r="CA9" s="175"/>
-      <c r="CB9" s="213"/>
+      <c r="CB9" s="214"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="2:80">
       <c r="B10" s="176">
@@ -8879,11 +8871,11 @@
         <f>IF(_CDQ_day_hour!AM2="","",_CDQ_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP10" s="203" t="str">
+      <c r="AP10" s="204" t="str">
         <f>IF(_CDQ_day_hour!AN2="","",_CDQ_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ10" s="203" t="str">
+      <c r="AQ10" s="204" t="str">
         <f>IF(_CDQ_day_hour!AO2="","",_CDQ_day_hour!AO2)</f>
         <v/>
       </c>
@@ -8927,7 +8919,7 @@
         <f>IF(_CDQ_day_hour!AY2="","",_CDQ_day_hour!AY2)</f>
         <v/>
       </c>
-      <c r="BB10" s="204" t="str">
+      <c r="BB10" s="205" t="str">
         <f>IF(_CDQ_day_hour!AZ2="","",_CDQ_day_hour!AZ2)</f>
         <v/>
       </c>
@@ -8955,27 +8947,27 @@
         <f>IF(_CDQ_day_hour!BF2="","",_CDQ_day_hour!BF2)</f>
         <v/>
       </c>
-      <c r="BI10" s="206" t="str">
+      <c r="BI10" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG2="","",_CDQ_day_hour!BG2)</f>
         <v/>
       </c>
-      <c r="BJ10" s="204" t="str">
+      <c r="BJ10" s="205" t="str">
         <f>IF(_CDQ_day_hour!BH2="","",_CDQ_day_hour!BH2)</f>
         <v/>
       </c>
-      <c r="BK10" s="204" t="str">
+      <c r="BK10" s="205" t="str">
         <f>IF(_CDQ_day_hour!BI2="","",_CDQ_day_hour!BI2)</f>
         <v/>
       </c>
-      <c r="BL10" s="204" t="str">
+      <c r="BL10" s="205" t="str">
         <f>IF(_CDQ_day_hour!BJ2="","",_CDQ_day_hour!BJ2)</f>
         <v/>
       </c>
-      <c r="BM10" s="204" t="str">
+      <c r="BM10" s="205" t="str">
         <f>IF(_CDQ_day_hour!BK2="","",_CDQ_day_hour!BK2)</f>
         <v/>
       </c>
-      <c r="BN10" s="204" t="str">
+      <c r="BN10" s="205" t="str">
         <f>IF(_CDQ_day_hour!BL2="","",_CDQ_day_hour!BL2)</f>
         <v/>
       </c>
@@ -9031,7 +9023,7 @@
         <f>IF(_CDQ_day_hour!BY2="","",_CDQ_day_hour!BY2)</f>
         <v/>
       </c>
-      <c r="CB10" s="214" t="str">
+      <c r="CB10" s="215" t="str">
         <f>IF(_CDQ_day_hour!BZ2="","",_CDQ_day_hour!BZ2)</f>
         <v/>
       </c>
@@ -9196,11 +9188,11 @@
         <f>IF(_CDQ_day_hour!AM3="","",_CDQ_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP11" s="203" t="str">
+      <c r="AP11" s="204" t="str">
         <f>IF(_CDQ_day_hour!AN3="","",_CDQ_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ11" s="203" t="str">
+      <c r="AQ11" s="204" t="str">
         <f>IF(_CDQ_day_hour!AO3="","",_CDQ_day_hour!AO3)</f>
         <v/>
       </c>
@@ -9244,7 +9236,7 @@
         <f>IF(_CDQ_day_hour!AY3="","",_CDQ_day_hour!AY3)</f>
         <v/>
       </c>
-      <c r="BB11" s="204" t="str">
+      <c r="BB11" s="205" t="str">
         <f>IF(_CDQ_day_hour!AZ3="","",_CDQ_day_hour!AZ3)</f>
         <v/>
       </c>
@@ -9272,27 +9264,27 @@
         <f>IF(_CDQ_day_hour!BF3="","",_CDQ_day_hour!BF3)</f>
         <v/>
       </c>
-      <c r="BI11" s="206" t="str">
+      <c r="BI11" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG3="","",_CDQ_day_hour!BG3)</f>
         <v/>
       </c>
-      <c r="BJ11" s="204" t="str">
+      <c r="BJ11" s="205" t="str">
         <f>IF(_CDQ_day_hour!BH3="","",_CDQ_day_hour!BH3)</f>
         <v/>
       </c>
-      <c r="BK11" s="204" t="str">
+      <c r="BK11" s="205" t="str">
         <f>IF(_CDQ_day_hour!BI3="","",_CDQ_day_hour!BI3)</f>
         <v/>
       </c>
-      <c r="BL11" s="204" t="str">
+      <c r="BL11" s="205" t="str">
         <f>IF(_CDQ_day_hour!BJ3="","",_CDQ_day_hour!BJ3)</f>
         <v/>
       </c>
-      <c r="BM11" s="204" t="str">
+      <c r="BM11" s="205" t="str">
         <f>IF(_CDQ_day_hour!BK3="","",_CDQ_day_hour!BK3)</f>
         <v/>
       </c>
-      <c r="BN11" s="204" t="str">
+      <c r="BN11" s="205" t="str">
         <f>IF(_CDQ_day_hour!BL3="","",_CDQ_day_hour!BL3)</f>
         <v/>
       </c>
@@ -9348,7 +9340,7 @@
         <f>IF(_CDQ_day_hour!BY3="","",_CDQ_day_hour!BY3)</f>
         <v/>
       </c>
-      <c r="CB11" s="214" t="str">
+      <c r="CB11" s="215" t="str">
         <f>IF(_CDQ_day_hour!BZ3="","",_CDQ_day_hour!BZ3)</f>
         <v/>
       </c>
@@ -9521,7 +9513,7 @@
         <f>IF(_CDQ_day_hour!AO4="","",_CDQ_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR12" s="204" t="str">
+      <c r="AR12" s="205" t="str">
         <f>IF(_CDQ_day_hour!AP4="","",_CDQ_day_hour!AP4)</f>
         <v/>
       </c>
@@ -9589,7 +9581,7 @@
         <f>IF(_CDQ_day_hour!BF4="","",_CDQ_day_hour!BF4)</f>
         <v/>
       </c>
-      <c r="BI12" s="207" t="str">
+      <c r="BI12" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG4="","",_CDQ_day_hour!BG4)</f>
         <v/>
       </c>
@@ -9665,7 +9657,7 @@
         <f>IF(_CDQ_day_hour!BY4="","",_CDQ_day_hour!BY4)</f>
         <v/>
       </c>
-      <c r="CB12" s="215" t="str">
+      <c r="CB12" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ4="","",_CDQ_day_hour!BZ4)</f>
         <v/>
       </c>
@@ -9838,7 +9830,7 @@
         <f>IF(_CDQ_day_hour!AO5="","",_CDQ_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR13" s="204" t="str">
+      <c r="AR13" s="205" t="str">
         <f>IF(_CDQ_day_hour!AP5="","",_CDQ_day_hour!AP5)</f>
         <v/>
       </c>
@@ -9906,7 +9898,7 @@
         <f>IF(_CDQ_day_hour!BF5="","",_CDQ_day_hour!BF5)</f>
         <v/>
       </c>
-      <c r="BI13" s="207" t="str">
+      <c r="BI13" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG5="","",_CDQ_day_hour!BG5)</f>
         <v/>
       </c>
@@ -9982,7 +9974,7 @@
         <f>IF(_CDQ_day_hour!BY5="","",_CDQ_day_hour!BY5)</f>
         <v/>
       </c>
-      <c r="CB13" s="215" t="str">
+      <c r="CB13" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ5="","",_CDQ_day_hour!BZ5)</f>
         <v/>
       </c>
@@ -10223,7 +10215,7 @@
         <f>IF(_CDQ_day_hour!BF6="","",_CDQ_day_hour!BF6)</f>
         <v/>
       </c>
-      <c r="BI14" s="207" t="str">
+      <c r="BI14" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG6="","",_CDQ_day_hour!BG6)</f>
         <v/>
       </c>
@@ -10299,7 +10291,7 @@
         <f>IF(_CDQ_day_hour!BY6="","",_CDQ_day_hour!BY6)</f>
         <v/>
       </c>
-      <c r="CB14" s="215" t="str">
+      <c r="CB14" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ6="","",_CDQ_day_hour!BZ6)</f>
         <v/>
       </c>
@@ -10540,7 +10532,7 @@
         <f>IF(_CDQ_day_hour!BF7="","",_CDQ_day_hour!BF7)</f>
         <v/>
       </c>
-      <c r="BI15" s="207" t="str">
+      <c r="BI15" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG7="","",_CDQ_day_hour!BG7)</f>
         <v/>
       </c>
@@ -10616,7 +10608,7 @@
         <f>IF(_CDQ_day_hour!BY7="","",_CDQ_day_hour!BY7)</f>
         <v/>
       </c>
-      <c r="CB15" s="215" t="str">
+      <c r="CB15" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ7="","",_CDQ_day_hour!BZ7)</f>
         <v/>
       </c>
@@ -10857,7 +10849,7 @@
         <f>IF(_CDQ_day_hour!BF8="","",_CDQ_day_hour!BF8)</f>
         <v/>
       </c>
-      <c r="BI16" s="207" t="str">
+      <c r="BI16" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG8="","",_CDQ_day_hour!BG8)</f>
         <v/>
       </c>
@@ -10933,7 +10925,7 @@
         <f>IF(_CDQ_day_hour!BY8="","",_CDQ_day_hour!BY8)</f>
         <v/>
       </c>
-      <c r="CB16" s="215" t="str">
+      <c r="CB16" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ8="","",_CDQ_day_hour!BZ8)</f>
         <v/>
       </c>
@@ -11174,7 +11166,7 @@
         <f>IF(_CDQ_day_hour!BF9="","",_CDQ_day_hour!BF9)</f>
         <v/>
       </c>
-      <c r="BI17" s="207" t="str">
+      <c r="BI17" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG9="","",_CDQ_day_hour!BG9)</f>
         <v/>
       </c>
@@ -11250,7 +11242,7 @@
         <f>IF(_CDQ_day_hour!BY9="","",_CDQ_day_hour!BY9)</f>
         <v/>
       </c>
-      <c r="CB17" s="215" t="str">
+      <c r="CB17" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ9="","",_CDQ_day_hour!BZ9)</f>
         <v/>
       </c>
@@ -11491,7 +11483,7 @@
         <f>IF(_CDQ_day_hour!BF10="","",_CDQ_day_hour!BF10)</f>
         <v/>
       </c>
-      <c r="BI18" s="207" t="str">
+      <c r="BI18" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG10="","",_CDQ_day_hour!BG10)</f>
         <v/>
       </c>
@@ -11567,7 +11559,7 @@
         <f>IF(_CDQ_day_hour!BY10="","",_CDQ_day_hour!BY10)</f>
         <v/>
       </c>
-      <c r="CB18" s="215" t="str">
+      <c r="CB18" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ10="","",_CDQ_day_hour!BZ10)</f>
         <v/>
       </c>
@@ -11808,7 +11800,7 @@
         <f>IF(_CDQ_day_hour!BF11="","",_CDQ_day_hour!BF11)</f>
         <v/>
       </c>
-      <c r="BI19" s="207" t="str">
+      <c r="BI19" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG11="","",_CDQ_day_hour!BG11)</f>
         <v/>
       </c>
@@ -11884,7 +11876,7 @@
         <f>IF(_CDQ_day_hour!BY11="","",_CDQ_day_hour!BY11)</f>
         <v/>
       </c>
-      <c r="CB19" s="215" t="str">
+      <c r="CB19" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ11="","",_CDQ_day_hour!BZ11)</f>
         <v/>
       </c>
@@ -12125,7 +12117,7 @@
         <f>IF(_CDQ_day_hour!BF12="","",_CDQ_day_hour!BF12)</f>
         <v/>
       </c>
-      <c r="BI20" s="207" t="str">
+      <c r="BI20" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG12="","",_CDQ_day_hour!BG12)</f>
         <v/>
       </c>
@@ -12201,7 +12193,7 @@
         <f>IF(_CDQ_day_hour!BY12="","",_CDQ_day_hour!BY12)</f>
         <v/>
       </c>
-      <c r="CB20" s="215" t="str">
+      <c r="CB20" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ12="","",_CDQ_day_hour!BZ12)</f>
         <v/>
       </c>
@@ -12442,7 +12434,7 @@
         <f>IF(_CDQ_day_hour!BF13="","",_CDQ_day_hour!BF13)</f>
         <v/>
       </c>
-      <c r="BI21" s="207" t="str">
+      <c r="BI21" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG13="","",_CDQ_day_hour!BG13)</f>
         <v/>
       </c>
@@ -12518,7 +12510,7 @@
         <f>IF(_CDQ_day_hour!BY13="","",_CDQ_day_hour!BY13)</f>
         <v/>
       </c>
-      <c r="CB21" s="215" t="str">
+      <c r="CB21" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ13="","",_CDQ_day_hour!BZ13)</f>
         <v/>
       </c>
@@ -12759,7 +12751,7 @@
         <f>IF(_CDQ_day_hour!BF14="","",_CDQ_day_hour!BF14)</f>
         <v/>
       </c>
-      <c r="BI22" s="207" t="str">
+      <c r="BI22" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG14="","",_CDQ_day_hour!BG14)</f>
         <v/>
       </c>
@@ -12835,7 +12827,7 @@
         <f>IF(_CDQ_day_hour!BY14="","",_CDQ_day_hour!BY14)</f>
         <v/>
       </c>
-      <c r="CB22" s="215" t="str">
+      <c r="CB22" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ14="","",_CDQ_day_hour!BZ14)</f>
         <v/>
       </c>
@@ -13076,7 +13068,7 @@
         <f>IF(_CDQ_day_hour!BF15="","",_CDQ_day_hour!BF15)</f>
         <v/>
       </c>
-      <c r="BI23" s="207" t="str">
+      <c r="BI23" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG15="","",_CDQ_day_hour!BG15)</f>
         <v/>
       </c>
@@ -13152,7 +13144,7 @@
         <f>IF(_CDQ_day_hour!BY15="","",_CDQ_day_hour!BY15)</f>
         <v/>
       </c>
-      <c r="CB23" s="215" t="str">
+      <c r="CB23" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ15="","",_CDQ_day_hour!BZ15)</f>
         <v/>
       </c>
@@ -13393,7 +13385,7 @@
         <f>IF(_CDQ_day_hour!BF16="","",_CDQ_day_hour!BF16)</f>
         <v/>
       </c>
-      <c r="BI24" s="207" t="str">
+      <c r="BI24" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG16="","",_CDQ_day_hour!BG16)</f>
         <v/>
       </c>
@@ -13469,7 +13461,7 @@
         <f>IF(_CDQ_day_hour!BY16="","",_CDQ_day_hour!BY16)</f>
         <v/>
       </c>
-      <c r="CB24" s="215" t="str">
+      <c r="CB24" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ16="","",_CDQ_day_hour!BZ16)</f>
         <v/>
       </c>
@@ -13710,7 +13702,7 @@
         <f>IF(_CDQ_day_hour!BF17="","",_CDQ_day_hour!BF17)</f>
         <v/>
       </c>
-      <c r="BI25" s="207" t="str">
+      <c r="BI25" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG17="","",_CDQ_day_hour!BG17)</f>
         <v/>
       </c>
@@ -13786,7 +13778,7 @@
         <f>IF(_CDQ_day_hour!BY17="","",_CDQ_day_hour!BY17)</f>
         <v/>
       </c>
-      <c r="CB25" s="215" t="str">
+      <c r="CB25" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ17="","",_CDQ_day_hour!BZ17)</f>
         <v/>
       </c>
@@ -14027,7 +14019,7 @@
         <f>IF(_CDQ_day_hour!BF18="","",_CDQ_day_hour!BF18)</f>
         <v/>
       </c>
-      <c r="BI26" s="207" t="str">
+      <c r="BI26" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG18="","",_CDQ_day_hour!BG18)</f>
         <v/>
       </c>
@@ -14103,7 +14095,7 @@
         <f>IF(_CDQ_day_hour!BY18="","",_CDQ_day_hour!BY18)</f>
         <v/>
       </c>
-      <c r="CB26" s="215" t="str">
+      <c r="CB26" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ18="","",_CDQ_day_hour!BZ18)</f>
         <v/>
       </c>
@@ -14344,7 +14336,7 @@
         <f>IF(_CDQ_day_hour!BF19="","",_CDQ_day_hour!BF19)</f>
         <v/>
       </c>
-      <c r="BI27" s="207" t="str">
+      <c r="BI27" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG19="","",_CDQ_day_hour!BG19)</f>
         <v/>
       </c>
@@ -14420,7 +14412,7 @@
         <f>IF(_CDQ_day_hour!BY19="","",_CDQ_day_hour!BY19)</f>
         <v/>
       </c>
-      <c r="CB27" s="215" t="str">
+      <c r="CB27" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ19="","",_CDQ_day_hour!BZ19)</f>
         <v/>
       </c>
@@ -14661,7 +14653,7 @@
         <f>IF(_CDQ_day_hour!BF20="","",_CDQ_day_hour!BF20)</f>
         <v/>
       </c>
-      <c r="BI28" s="207" t="str">
+      <c r="BI28" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG20="","",_CDQ_day_hour!BG20)</f>
         <v/>
       </c>
@@ -14737,7 +14729,7 @@
         <f>IF(_CDQ_day_hour!BY20="","",_CDQ_day_hour!BY20)</f>
         <v/>
       </c>
-      <c r="CB28" s="215" t="str">
+      <c r="CB28" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ20="","",_CDQ_day_hour!BZ20)</f>
         <v/>
       </c>
@@ -14978,7 +14970,7 @@
         <f>IF(_CDQ_day_hour!BF21="","",_CDQ_day_hour!BF21)</f>
         <v/>
       </c>
-      <c r="BI29" s="207" t="str">
+      <c r="BI29" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG21="","",_CDQ_day_hour!BG21)</f>
         <v/>
       </c>
@@ -15054,7 +15046,7 @@
         <f>IF(_CDQ_day_hour!BY21="","",_CDQ_day_hour!BY21)</f>
         <v/>
       </c>
-      <c r="CB29" s="215" t="str">
+      <c r="CB29" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ21="","",_CDQ_day_hour!BZ21)</f>
         <v/>
       </c>
@@ -15295,7 +15287,7 @@
         <f>IF(_CDQ_day_hour!BF22="","",_CDQ_day_hour!BF22)</f>
         <v/>
       </c>
-      <c r="BI30" s="207" t="str">
+      <c r="BI30" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG22="","",_CDQ_day_hour!BG22)</f>
         <v/>
       </c>
@@ -15371,7 +15363,7 @@
         <f>IF(_CDQ_day_hour!BY22="","",_CDQ_day_hour!BY22)</f>
         <v/>
       </c>
-      <c r="CB30" s="215" t="str">
+      <c r="CB30" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ22="","",_CDQ_day_hour!BZ22)</f>
         <v/>
       </c>
@@ -15612,7 +15604,7 @@
         <f>IF(_CDQ_day_hour!BF23="","",_CDQ_day_hour!BF23)</f>
         <v/>
       </c>
-      <c r="BI31" s="207" t="str">
+      <c r="BI31" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG23="","",_CDQ_day_hour!BG23)</f>
         <v/>
       </c>
@@ -15688,7 +15680,7 @@
         <f>IF(_CDQ_day_hour!BY23="","",_CDQ_day_hour!BY23)</f>
         <v/>
       </c>
-      <c r="CB31" s="215" t="str">
+      <c r="CB31" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ23="","",_CDQ_day_hour!BZ23)</f>
         <v/>
       </c>
@@ -15929,7 +15921,7 @@
         <f>IF(_CDQ_day_hour!BF24="","",_CDQ_day_hour!BF24)</f>
         <v/>
       </c>
-      <c r="BI32" s="207" t="str">
+      <c r="BI32" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG24="","",_CDQ_day_hour!BG24)</f>
         <v/>
       </c>
@@ -16005,7 +15997,7 @@
         <f>IF(_CDQ_day_hour!BY24="","",_CDQ_day_hour!BY24)</f>
         <v/>
       </c>
-      <c r="CB32" s="215" t="str">
+      <c r="CB32" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ24="","",_CDQ_day_hour!BZ24)</f>
         <v/>
       </c>
@@ -16150,103 +16142,103 @@
         <f>IF(_CDQ_day_hour!AH25="","",_CDQ_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK33" s="197" t="str">
+      <c r="AK33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AI25="","",_CDQ_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL33" s="197" t="str">
+      <c r="AL33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AJ25="","",_CDQ_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM33" s="197" t="str">
+      <c r="AM33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AK25="","",_CDQ_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN33" s="197" t="str">
+      <c r="AN33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AL25="","",_CDQ_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO33" s="197" t="str">
+      <c r="AO33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AM25="","",_CDQ_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP33" s="197" t="str">
+      <c r="AP33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AN25="","",_CDQ_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ33" s="197" t="str">
+      <c r="AQ33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AO25="","",_CDQ_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR33" s="197" t="str">
+      <c r="AR33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AP25="","",_CDQ_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AS33" s="197" t="str">
+      <c r="AS33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AQ25="","",_CDQ_day_hour!AQ25)</f>
         <v/>
       </c>
-      <c r="AT33" s="197" t="str">
+      <c r="AT33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AR25="","",_CDQ_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AU33" s="197" t="str">
+      <c r="AU33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AS25="","",_CDQ_day_hour!AS25)</f>
         <v/>
       </c>
-      <c r="AV33" s="197" t="str">
+      <c r="AV33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AT25="","",_CDQ_day_hour!AT25)</f>
         <v/>
       </c>
-      <c r="AW33" s="197" t="str">
+      <c r="AW33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AU25="","",_CDQ_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AX33" s="197" t="str">
+      <c r="AX33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AV25="","",_CDQ_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY33" s="197" t="str">
+      <c r="AY33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AW25="","",_CDQ_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ33" s="197" t="str">
+      <c r="AZ33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AX25="","",_CDQ_day_hour!AX25)</f>
         <v/>
       </c>
-      <c r="BA33" s="197" t="str">
+      <c r="BA33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AY25="","",_CDQ_day_hour!AY25)</f>
         <v/>
       </c>
-      <c r="BB33" s="197" t="str">
+      <c r="BB33" s="198" t="str">
         <f>IF(_CDQ_day_hour!AZ25="","",_CDQ_day_hour!AZ25)</f>
         <v/>
       </c>
-      <c r="BC33" s="197" t="str">
+      <c r="BC33" s="198" t="str">
         <f>IF(_CDQ_day_hour!BA25="","",_CDQ_day_hour!BA25)</f>
         <v/>
       </c>
-      <c r="BD33" s="197" t="str">
+      <c r="BD33" s="198" t="str">
         <f>IF(_CDQ_day_hour!BB25="","",_CDQ_day_hour!BB25)</f>
         <v/>
       </c>
-      <c r="BE33" s="197" t="str">
+      <c r="BE33" s="198" t="str">
         <f>IF(_CDQ_day_hour!BC25="","",_CDQ_day_hour!BC25)</f>
         <v/>
       </c>
-      <c r="BF33" s="197" t="str">
+      <c r="BF33" s="198" t="str">
         <f>IF(_CDQ_day_hour!BD25="","",_CDQ_day_hour!BD25)</f>
         <v/>
       </c>
-      <c r="BG33" s="197" t="str">
+      <c r="BG33" s="198" t="str">
         <f>IF(_CDQ_day_hour!BE25="","",_CDQ_day_hour!BE25)</f>
         <v/>
       </c>
-      <c r="BH33" s="197" t="str">
+      <c r="BH33" s="198" t="str">
         <f>IF(_CDQ_day_hour!BF25="","",_CDQ_day_hour!BF25)</f>
         <v/>
       </c>
-      <c r="BI33" s="208" t="str">
+      <c r="BI33" s="209" t="str">
         <f>IF(_CDQ_day_hour!BG25="","",_CDQ_day_hour!BG25)</f>
         <v/>
       </c>
@@ -16322,7 +16314,7 @@
         <f>IF(_CDQ_day_hour!BY25="","",_CDQ_day_hour!BY25)</f>
         <v/>
       </c>
-      <c r="CB33" s="215" t="str">
+      <c r="CB33" s="216" t="str">
         <f>IF(_CDQ_day_hour!BZ25="","",_CDQ_day_hour!BZ25)</f>
         <v/>
       </c>
@@ -16332,39 +16324,39 @@
         <v>275</v>
       </c>
       <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183"/>
-      <c r="O34" s="183"/>
-      <c r="P34" s="183"/>
-      <c r="Q34" s="183"/>
-      <c r="R34" s="183"/>
-      <c r="S34" s="183"/>
-      <c r="T34" s="183"/>
-      <c r="U34" s="183"/>
-      <c r="V34" s="183"/>
-      <c r="W34" s="183"/>
-      <c r="X34" s="183"/>
-      <c r="Y34" s="183"/>
-      <c r="Z34" s="183"/>
-      <c r="AA34" s="183"/>
-      <c r="AB34" s="183"/>
-      <c r="AC34" s="183"/>
-      <c r="AD34" s="183"/>
-      <c r="AE34" s="183"/>
-      <c r="AF34" s="183"/>
-      <c r="AG34" s="183"/>
-      <c r="AH34" s="183"/>
-      <c r="AI34" s="183"/>
-      <c r="AJ34" s="183"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
+      <c r="L34" s="184"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="184"/>
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="184"/>
+      <c r="U34" s="184"/>
+      <c r="V34" s="184"/>
+      <c r="W34" s="184"/>
+      <c r="X34" s="184"/>
+      <c r="Y34" s="184"/>
+      <c r="Z34" s="184"/>
+      <c r="AA34" s="184"/>
+      <c r="AB34" s="184"/>
+      <c r="AC34" s="184"/>
+      <c r="AD34" s="184"/>
+      <c r="AE34" s="184"/>
+      <c r="AF34" s="184"/>
+      <c r="AG34" s="184"/>
+      <c r="AH34" s="184"/>
+      <c r="AI34" s="184"/>
+      <c r="AJ34" s="184"/>
       <c r="AK34" s="42"/>
       <c r="AL34" s="42"/>
       <c r="AM34" s="42"/>
@@ -16408,46 +16400,46 @@
       <c r="BY34" s="42"/>
       <c r="BZ34" s="42"/>
       <c r="CA34" s="42"/>
-      <c r="CB34" s="215"/>
+      <c r="CB34" s="216"/>
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="2:80">
       <c r="B35" s="131" t="s">
         <v>276</v>
       </c>
       <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="183"/>
-      <c r="M35" s="183"/>
-      <c r="N35" s="183"/>
-      <c r="O35" s="183"/>
-      <c r="P35" s="183"/>
-      <c r="Q35" s="183"/>
-      <c r="R35" s="183"/>
-      <c r="S35" s="183"/>
-      <c r="T35" s="183"/>
-      <c r="U35" s="183"/>
-      <c r="V35" s="183"/>
-      <c r="W35" s="183"/>
-      <c r="X35" s="183"/>
-      <c r="Y35" s="183"/>
-      <c r="Z35" s="183"/>
-      <c r="AA35" s="183"/>
-      <c r="AB35" s="183"/>
-      <c r="AC35" s="183"/>
-      <c r="AD35" s="183"/>
-      <c r="AE35" s="183"/>
-      <c r="AF35" s="183"/>
-      <c r="AG35" s="183"/>
-      <c r="AH35" s="183"/>
-      <c r="AI35" s="183"/>
-      <c r="AJ35" s="183"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="184"/>
+      <c r="L35" s="184"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="184"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
+      <c r="R35" s="184"/>
+      <c r="S35" s="184"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="184"/>
+      <c r="V35" s="184"/>
+      <c r="W35" s="184"/>
+      <c r="X35" s="184"/>
+      <c r="Y35" s="184"/>
+      <c r="Z35" s="184"/>
+      <c r="AA35" s="184"/>
+      <c r="AB35" s="184"/>
+      <c r="AC35" s="184"/>
+      <c r="AD35" s="184"/>
+      <c r="AE35" s="184"/>
+      <c r="AF35" s="184"/>
+      <c r="AG35" s="184"/>
+      <c r="AH35" s="184"/>
+      <c r="AI35" s="184"/>
+      <c r="AJ35" s="184"/>
       <c r="AK35" s="42"/>
       <c r="AL35" s="42"/>
       <c r="AM35" s="42"/>
@@ -16491,46 +16483,46 @@
       <c r="BY35" s="42"/>
       <c r="BZ35" s="42"/>
       <c r="CA35" s="42"/>
-      <c r="CB35" s="215"/>
+      <c r="CB35" s="216"/>
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="2:80">
       <c r="B36" s="131" t="s">
         <v>277</v>
       </c>
       <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="183"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="183"/>
-      <c r="O36" s="183"/>
-      <c r="P36" s="183"/>
-      <c r="Q36" s="183"/>
-      <c r="R36" s="183"/>
-      <c r="S36" s="183"/>
-      <c r="T36" s="183"/>
-      <c r="U36" s="183"/>
-      <c r="V36" s="183"/>
-      <c r="W36" s="183"/>
-      <c r="X36" s="183"/>
-      <c r="Y36" s="183"/>
-      <c r="Z36" s="183"/>
-      <c r="AA36" s="183"/>
-      <c r="AB36" s="183"/>
-      <c r="AC36" s="183"/>
-      <c r="AD36" s="183"/>
-      <c r="AE36" s="183"/>
-      <c r="AF36" s="183"/>
-      <c r="AG36" s="183"/>
-      <c r="AH36" s="183"/>
-      <c r="AI36" s="183"/>
-      <c r="AJ36" s="183"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
+      <c r="N36" s="184"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184"/>
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184"/>
+      <c r="U36" s="184"/>
+      <c r="V36" s="184"/>
+      <c r="W36" s="184"/>
+      <c r="X36" s="184"/>
+      <c r="Y36" s="184"/>
+      <c r="Z36" s="184"/>
+      <c r="AA36" s="184"/>
+      <c r="AB36" s="184"/>
+      <c r="AC36" s="184"/>
+      <c r="AD36" s="184"/>
+      <c r="AE36" s="184"/>
+      <c r="AF36" s="184"/>
+      <c r="AG36" s="184"/>
+      <c r="AH36" s="184"/>
+      <c r="AI36" s="184"/>
+      <c r="AJ36" s="184"/>
       <c r="AK36" s="42"/>
       <c r="AL36" s="42"/>
       <c r="AM36" s="42"/>
@@ -16574,46 +16566,46 @@
       <c r="BY36" s="42"/>
       <c r="BZ36" s="42"/>
       <c r="CA36" s="42"/>
-      <c r="CB36" s="215"/>
+      <c r="CB36" s="216"/>
     </row>
     <row r="37" ht="19.5" customHeight="1" spans="2:80">
       <c r="B37" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="183"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="183"/>
-      <c r="O37" s="183"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="183"/>
-      <c r="R37" s="183"/>
-      <c r="S37" s="183"/>
-      <c r="T37" s="183"/>
-      <c r="U37" s="183"/>
-      <c r="V37" s="183"/>
-      <c r="W37" s="183"/>
-      <c r="X37" s="183"/>
-      <c r="Y37" s="183"/>
-      <c r="Z37" s="183"/>
-      <c r="AA37" s="183"/>
-      <c r="AB37" s="183"/>
-      <c r="AC37" s="183"/>
-      <c r="AD37" s="183"/>
-      <c r="AE37" s="183"/>
-      <c r="AF37" s="183"/>
-      <c r="AG37" s="183"/>
-      <c r="AH37" s="183"/>
-      <c r="AI37" s="183"/>
-      <c r="AJ37" s="183"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="186"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="184"/>
+      <c r="N37" s="184"/>
+      <c r="O37" s="184"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
+      <c r="S37" s="184"/>
+      <c r="T37" s="184"/>
+      <c r="U37" s="184"/>
+      <c r="V37" s="184"/>
+      <c r="W37" s="184"/>
+      <c r="X37" s="184"/>
+      <c r="Y37" s="184"/>
+      <c r="Z37" s="184"/>
+      <c r="AA37" s="184"/>
+      <c r="AB37" s="184"/>
+      <c r="AC37" s="184"/>
+      <c r="AD37" s="184"/>
+      <c r="AE37" s="184"/>
+      <c r="AF37" s="184"/>
+      <c r="AG37" s="184"/>
+      <c r="AH37" s="184"/>
+      <c r="AI37" s="184"/>
+      <c r="AJ37" s="184"/>
       <c r="AK37" s="42"/>
       <c r="AL37" s="42"/>
       <c r="AM37" s="42"/>
@@ -16657,97 +16649,97 @@
       <c r="BY37" s="42"/>
       <c r="BZ37" s="42"/>
       <c r="CA37" s="42"/>
-      <c r="CB37" s="215"/>
+      <c r="CB37" s="216"/>
     </row>
     <row r="38" ht="119.45" customHeight="1" spans="2:80">
       <c r="B38" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="185"/>
-      <c r="K38" s="185"/>
-      <c r="L38" s="190"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="192"/>
       <c r="M38" s="134" t="s">
         <v>280</v>
       </c>
-      <c r="N38" s="185"/>
-      <c r="O38" s="185"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
-      <c r="S38" s="185"/>
-      <c r="T38" s="185"/>
-      <c r="U38" s="185"/>
-      <c r="V38" s="185"/>
-      <c r="W38" s="190"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="187"/>
+      <c r="S38" s="187"/>
+      <c r="T38" s="187"/>
+      <c r="U38" s="187"/>
+      <c r="V38" s="187"/>
+      <c r="W38" s="192"/>
       <c r="X38" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="Y38" s="185"/>
-      <c r="Z38" s="185"/>
-      <c r="AA38" s="185"/>
-      <c r="AB38" s="185"/>
-      <c r="AC38" s="185"/>
-      <c r="AD38" s="185"/>
-      <c r="AE38" s="185"/>
-      <c r="AF38" s="185"/>
-      <c r="AG38" s="185"/>
-      <c r="AH38" s="190"/>
-      <c r="AI38" s="198"/>
-      <c r="AJ38" s="198"/>
-      <c r="AK38" s="198"/>
-      <c r="AL38" s="198"/>
-      <c r="AM38" s="198"/>
-      <c r="AN38" s="198"/>
-      <c r="AO38" s="198"/>
-      <c r="AP38" s="198"/>
-      <c r="AQ38" s="198"/>
-      <c r="AR38" s="198"/>
-      <c r="AS38" s="198"/>
-      <c r="AT38" s="198"/>
-      <c r="AU38" s="198"/>
-      <c r="AV38" s="198"/>
-      <c r="AW38" s="198"/>
-      <c r="AX38" s="198"/>
-      <c r="AY38" s="198"/>
-      <c r="AZ38" s="198"/>
-      <c r="BA38" s="198"/>
-      <c r="BB38" s="198"/>
-      <c r="BC38" s="198"/>
-      <c r="BD38" s="198"/>
-      <c r="BE38" s="198"/>
-      <c r="BF38" s="198"/>
-      <c r="BG38" s="198"/>
-      <c r="BH38" s="198"/>
-      <c r="BI38" s="198"/>
-      <c r="BJ38" s="198"/>
-      <c r="BK38" s="198"/>
-      <c r="BL38" s="198"/>
-      <c r="BM38" s="198"/>
-      <c r="BN38" s="198"/>
-      <c r="BO38" s="198"/>
-      <c r="BP38" s="198"/>
-      <c r="BQ38" s="198"/>
-      <c r="BR38" s="198"/>
-      <c r="BS38" s="198"/>
-      <c r="BT38" s="198"/>
-      <c r="BU38" s="198"/>
-      <c r="BV38" s="198"/>
-      <c r="BW38" s="198"/>
-      <c r="BX38" s="198"/>
-      <c r="BY38" s="198"/>
-      <c r="BZ38" s="198"/>
-      <c r="CA38" s="198"/>
-      <c r="CB38" s="216"/>
+      <c r="Y38" s="187"/>
+      <c r="Z38" s="187"/>
+      <c r="AA38" s="187"/>
+      <c r="AB38" s="187"/>
+      <c r="AC38" s="187"/>
+      <c r="AD38" s="187"/>
+      <c r="AE38" s="187"/>
+      <c r="AF38" s="187"/>
+      <c r="AG38" s="187"/>
+      <c r="AH38" s="192"/>
+      <c r="AI38" s="199"/>
+      <c r="AJ38" s="199"/>
+      <c r="AK38" s="199"/>
+      <c r="AL38" s="199"/>
+      <c r="AM38" s="199"/>
+      <c r="AN38" s="199"/>
+      <c r="AO38" s="199"/>
+      <c r="AP38" s="199"/>
+      <c r="AQ38" s="199"/>
+      <c r="AR38" s="199"/>
+      <c r="AS38" s="199"/>
+      <c r="AT38" s="199"/>
+      <c r="AU38" s="199"/>
+      <c r="AV38" s="199"/>
+      <c r="AW38" s="199"/>
+      <c r="AX38" s="199"/>
+      <c r="AY38" s="199"/>
+      <c r="AZ38" s="199"/>
+      <c r="BA38" s="199"/>
+      <c r="BB38" s="199"/>
+      <c r="BC38" s="199"/>
+      <c r="BD38" s="199"/>
+      <c r="BE38" s="199"/>
+      <c r="BF38" s="199"/>
+      <c r="BG38" s="199"/>
+      <c r="BH38" s="199"/>
+      <c r="BI38" s="199"/>
+      <c r="BJ38" s="199"/>
+      <c r="BK38" s="199"/>
+      <c r="BL38" s="199"/>
+      <c r="BM38" s="199"/>
+      <c r="BN38" s="199"/>
+      <c r="BO38" s="199"/>
+      <c r="BP38" s="199"/>
+      <c r="BQ38" s="199"/>
+      <c r="BR38" s="199"/>
+      <c r="BS38" s="199"/>
+      <c r="BT38" s="199"/>
+      <c r="BU38" s="199"/>
+      <c r="BV38" s="199"/>
+      <c r="BW38" s="199"/>
+      <c r="BX38" s="199"/>
+      <c r="BY38" s="199"/>
+      <c r="BZ38" s="199"/>
+      <c r="CA38" s="199"/>
+      <c r="CB38" s="217"/>
     </row>
     <row r="39" ht="16.5" spans="2:80">
-      <c r="B39" s="186" t="s">
+      <c r="B39" s="188" t="s">
         <v>282</v>
       </c>
       <c r="C39" s="99"/>
@@ -16759,8 +16751,8 @@
       <c r="I39" s="99"/>
       <c r="J39" s="99"/>
       <c r="K39" s="99"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="186" t="s">
+      <c r="L39" s="193"/>
+      <c r="M39" s="188" t="s">
         <v>282</v>
       </c>
       <c r="N39" s="99"/>
@@ -16772,8 +16764,8 @@
       <c r="T39" s="99"/>
       <c r="U39" s="99"/>
       <c r="V39" s="99"/>
-      <c r="W39" s="191"/>
-      <c r="X39" s="186" t="s">
+      <c r="W39" s="193"/>
+      <c r="X39" s="188" t="s">
         <v>282</v>
       </c>
       <c r="Y39" s="99"/>
@@ -16785,53 +16777,53 @@
       <c r="AE39" s="99"/>
       <c r="AF39" s="99"/>
       <c r="AG39" s="99"/>
-      <c r="AH39" s="191"/>
-      <c r="AI39" s="199"/>
-      <c r="AJ39" s="199"/>
-      <c r="AK39" s="199"/>
-      <c r="AL39" s="199"/>
-      <c r="AM39" s="199"/>
-      <c r="AN39" s="199"/>
-      <c r="AO39" s="199"/>
-      <c r="AP39" s="199"/>
-      <c r="AQ39" s="199"/>
-      <c r="AR39" s="199"/>
-      <c r="AS39" s="199"/>
-      <c r="AT39" s="199"/>
-      <c r="AU39" s="199"/>
-      <c r="AV39" s="199"/>
-      <c r="AW39" s="199"/>
-      <c r="AX39" s="199"/>
-      <c r="AY39" s="199"/>
-      <c r="AZ39" s="199"/>
-      <c r="BA39" s="199"/>
-      <c r="BB39" s="199"/>
-      <c r="BC39" s="199"/>
-      <c r="BD39" s="199"/>
-      <c r="BE39" s="199"/>
-      <c r="BF39" s="199"/>
-      <c r="BG39" s="199"/>
-      <c r="BH39" s="199"/>
-      <c r="BI39" s="199"/>
-      <c r="BJ39" s="199"/>
-      <c r="BK39" s="199"/>
-      <c r="BL39" s="199"/>
-      <c r="BM39" s="199"/>
-      <c r="BN39" s="199"/>
-      <c r="BO39" s="199"/>
-      <c r="BP39" s="199"/>
-      <c r="BQ39" s="199"/>
-      <c r="BR39" s="199"/>
-      <c r="BS39" s="199"/>
-      <c r="BT39" s="199"/>
-      <c r="BU39" s="199"/>
-      <c r="BV39" s="199"/>
-      <c r="BW39" s="199"/>
-      <c r="BX39" s="199"/>
-      <c r="BY39" s="199"/>
-      <c r="BZ39" s="199"/>
-      <c r="CA39" s="199"/>
-      <c r="CB39" s="217"/>
+      <c r="AH39" s="193"/>
+      <c r="AI39" s="200"/>
+      <c r="AJ39" s="200"/>
+      <c r="AK39" s="200"/>
+      <c r="AL39" s="200"/>
+      <c r="AM39" s="200"/>
+      <c r="AN39" s="200"/>
+      <c r="AO39" s="200"/>
+      <c r="AP39" s="200"/>
+      <c r="AQ39" s="200"/>
+      <c r="AR39" s="200"/>
+      <c r="AS39" s="200"/>
+      <c r="AT39" s="200"/>
+      <c r="AU39" s="200"/>
+      <c r="AV39" s="200"/>
+      <c r="AW39" s="200"/>
+      <c r="AX39" s="200"/>
+      <c r="AY39" s="200"/>
+      <c r="AZ39" s="200"/>
+      <c r="BA39" s="200"/>
+      <c r="BB39" s="200"/>
+      <c r="BC39" s="200"/>
+      <c r="BD39" s="200"/>
+      <c r="BE39" s="200"/>
+      <c r="BF39" s="200"/>
+      <c r="BG39" s="200"/>
+      <c r="BH39" s="200"/>
+      <c r="BI39" s="200"/>
+      <c r="BJ39" s="200"/>
+      <c r="BK39" s="200"/>
+      <c r="BL39" s="200"/>
+      <c r="BM39" s="200"/>
+      <c r="BN39" s="200"/>
+      <c r="BO39" s="200"/>
+      <c r="BP39" s="200"/>
+      <c r="BQ39" s="200"/>
+      <c r="BR39" s="200"/>
+      <c r="BS39" s="200"/>
+      <c r="BT39" s="200"/>
+      <c r="BU39" s="200"/>
+      <c r="BV39" s="200"/>
+      <c r="BW39" s="200"/>
+      <c r="BX39" s="200"/>
+      <c r="BY39" s="200"/>
+      <c r="BZ39" s="200"/>
+      <c r="CA39" s="200"/>
+      <c r="CB39" s="218"/>
     </row>
     <row r="40" spans="46:59">
       <c r="AT40" s="156"/>

--- a/src/main/resources/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
+++ b/src/main/resources/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="709"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="709" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="2" r:id="rId1"/>
@@ -997,22 +997,7 @@
     <t>电机前端轴承温度℃</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风机转速</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  r/min</t>
-    </r>
+    <t>风机转速  r/hour</t>
   </si>
   <si>
     <r>
@@ -1989,232 +1974,232 @@
     <t>L2存储点名</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_C302WDisCokeAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_C303WDisCokeAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FR31105RecAirVlm_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35201ADeaH2Olvl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35201BDeaH2Olvl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35101AStmDrumLvl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35101BStmDrumLvl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FRQ_35107BoFeedH2O_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FISA_35105FoRecH2O_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35203AHeatStmVlm_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FRCQ_35101AMainStmFl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FI_35104ConsEmn_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31108CDQInPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCA_31101PrnAdeBunkPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31104BoInPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PR_31105BoOutPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31106FanInPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31107FanOutPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCA_35101AOvStmPaVaFr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCSA_35102MainStmPaVaBe_1min_avg</t>
+    <t>CK67_L1R_CDQ_C302WDisCokeAmt_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_C303WDisCokeAmt_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FR31105RecAirVlm_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35201ADeaH2Olvl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35201BDeaH2Olvl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35101AStmDrumLvl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35101BStmDrumLvl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FRQ_35107BoFeedH2O_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FISA_35105FoRecH2O_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35203AHeatStmVlm_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FRCQ_35101AMainStmFl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FI_35104ConsEmn_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31108CDQInPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCA_31101PrnAdeBunkPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31104BoInPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PR_31105BoOutPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31106FanInPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31107FanOutPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCA_35101AOvStmPaVaFr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCSA_35102MainStmPaVaBe_1hour_avg</t>
   </si>
   <si>
     <t>空</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_PRSA_35104AStmDrumPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRSA_35104BStmDrumPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PI_35205AHeStmPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCA_35202DeaPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_31101PrnAdeBunkUpTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRA_31111CDQInTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TT31103CoChamberLoTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TT31102CoChamberUpTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TIA_351071stSHeaterOutTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TIA_351082ndSHeaterInTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRCSA_35101B3rdHeaterOutTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRCSA_35101AMainStmTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TI_35208BoFeedH2OTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRA_31107ABoInTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRA_31107BBoInTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_31108BoOutTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_31105DisCokeTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_31106DisCokeTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_GR_101_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_GR_102_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35406_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35407_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35403_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35404_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35405_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35401_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35402_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_XH01FC_N_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_XH01FC_CURRE_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FISA_35106ACoH2OFl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FISA_35106BCoH2OFl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35110CoH2OTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35115A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35115B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P35101A_A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P35101B_A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRSA_35105BoFeedH2OPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P1_A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P2_A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35206A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35206B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35207A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35207B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TI_35103InH2OTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TI_35110OutH2OTe_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101C1CHCO_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101BHH2O_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101AHO2_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101C2HCO2_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PI_35303N2Pa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35303N2Fl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PISA_35302InsCAPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35302InsCAFl_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PI_35301ACAPa_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35301CAFl_1min_avg</t>
+    <t>CK67_L1R_CDQ_PRSA_35104AStmDrumPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRSA_35104BStmDrumPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PI_35205AHeStmPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCA_35202DeaPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_31101PrnAdeBunkUpTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRA_31111CDQInTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TT31103CoChamberLoTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TT31102CoChamberUpTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TIA_351071stSHeaterOutTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TIA_351082ndSHeaterInTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRCSA_35101B3rdHeaterOutTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRCSA_35101AMainStmTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TI_35208BoFeedH2OTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRA_31107ABoInTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRA_31107BBoInTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_31108BoOutTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_31105DisCokeTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_31106DisCokeTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_GR_101_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_GR_102_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35406_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35407_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35403_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35404_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35405_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35401_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35402_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_XH01FC_N_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_XH01FC_CURRE_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FISA_35106ACoH2OFl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FISA_35106BCoH2OFl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35110CoH2OTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35115A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35115B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P35101A_A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P35101B_A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRSA_35105BoFeedH2OPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P1_A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P2_A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35206A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35206B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35207A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35207B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TI_35103InH2OTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TI_35110OutH2OTe_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101C1CHCO_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101BHH2O_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101AHO2_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101C2HCO2_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PI_35303N2Pa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35303N2Fl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PISA_35302InsCAPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35302InsCAFl_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PI_35301ACAPa_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35301CAFl_1hour_avg</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -2492,31 +2477,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">电机转速
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (r/min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>电机转速
+ (r/hour）</t>
   </si>
   <si>
     <r>
@@ -2847,55 +2809,55 @@
     </r>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_3TE_1354_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1355_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1356_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1357_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1358_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13701AH_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13701R_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3FT_1351_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1352_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1353_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1351A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1352A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1351B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1352B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1351_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PdT_1351_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PT_1332_1min_avg</t>
+    <t>CK67_L1R_CDQ_3TE_1354_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1355_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1356_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1357_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1358_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13701AH_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13701R_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3FT_1351_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1352_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1353_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1351A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1352A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1351B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1352B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1351_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PdT_1351_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PT_1332_1hour_avg</t>
   </si>
   <si>
     <r>
@@ -3040,157 +3002,157 @@
     <t>6&amp;7#焦 装煤除尘</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_3TE_1334_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1335_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1336_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1337_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1338_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13201AH_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13201R_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3FT_1331_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1331FJZW_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1332_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1331A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1332A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1331B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1332B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1331_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PdT_1331_1min_avg</t>
+    <t>CK67_L1R_CDQ_3TE_1334_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1335_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1336_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1337_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1338_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13201AH_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13201R_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3FT_1331_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1331FJZW_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1332_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1331A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1332A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1331B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1332B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1331_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PdT_1331_1hour_avg</t>
   </si>
   <si>
     <t>6&amp;7#焦 CDQ除尘</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_TE_85508_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85509_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85505_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85506_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85507_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_D1FC_A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_D1FC_R_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FT_85501_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85503_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85504_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85501A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85502A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85501B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85502B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85502_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PdT_85501_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PT_85502_1min_avg</t>
+    <t>CK67_L1R_CDQ_TE_85508_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85509_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85505_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85506_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85507_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_D1FC_A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_D1FC_R_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FT_85501_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85503_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85504_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85501A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85502A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85501B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85502B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85502_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PdT_85501_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PT_85502_1hour_avg</t>
   </si>
   <si>
     <t>6&amp;7#焦 筛焦除尘</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_3TE_1503_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1504_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1505_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1506_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1507_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13901AH_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13901R_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3FT_1501_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1501_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1502_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1501A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1502A_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1501B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1502B_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PdT_1501_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PT_1502_1min_avg</t>
+    <t>CK67_L1R_CDQ_3TE_1503_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1504_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1505_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1506_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1507_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13901AH_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13901R_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3FT_1501_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1501_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1502_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1501A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1502A_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1501B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1502B_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PdT_1501_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PT_1502_1hour_avg</t>
   </si>
   <si>
     <t>3#CDQ生产情况记录</t>
@@ -4398,6 +4360,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -4405,9 +4397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4422,30 +4413,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4475,22 +4450,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4505,45 +4497,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4648,19 +4610,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4672,19 +4658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4702,7 +4682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4714,7 +4706,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4726,55 +4754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,43 +4778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5649,15 +5611,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5691,11 +5644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5715,17 +5674,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5734,148 +5696,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="69" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="72" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -7316,7 +7278,7 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -17290,7 +17252,7 @@
   <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
+++ b/src/main/resources/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="709" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="709" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="2" r:id="rId1"/>
@@ -1974,232 +1974,232 @@
     <t>L2存储点名</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_C302WDisCokeAmt_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_C303WDisCokeAmt_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FR31105RecAirVlm_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35201ADeaH2Olvl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35201BDeaH2Olvl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35101AStmDrumLvl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_LRCSA_35101BStmDrumLvl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FRQ_35107BoFeedH2O_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FISA_35105FoRecH2O_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35203AHeatStmVlm_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FRCQ_35101AMainStmFl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FI_35104ConsEmn_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31108CDQInPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCA_31101PrnAdeBunkPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31104BoInPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PR_31105BoOutPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31106FanInPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRA_31107FanOutPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCA_35101AOvStmPaVaFr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCSA_35102MainStmPaVaBe_1hour_avg</t>
+    <t>CK67_L1R_CDQ_C302WDisCokeAmt_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_C303WDisCokeAmt_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FR31105RecAirVlm_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35201ADeaH2Olvl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35201BDeaH2Olvl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35101AStmDrumLvl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_LRCSA_35101BStmDrumLvl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FRQ_35107BoFeedH2O_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FISA_35105FoRecH2O_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35203AHeatStmVlm_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FRCQ_35101AMainStmFl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FI_35104ConsEmn_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31108CDQInPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCA_31101PrnAdeBunkPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31104BoInPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PR_31105BoOutPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31106FanInPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRA_31107FanOutPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCA_35101AOvStmPaVaFr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCSA_35102MainStmPaVaBe_1h_avg</t>
   </si>
   <si>
     <t>空</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_PRSA_35104AStmDrumPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRSA_35104BStmDrumPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PI_35205AHeStmPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRCA_35202DeaPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_31101PrnAdeBunkUpTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRA_31111CDQInTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TT31103CoChamberLoTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TT31102CoChamberUpTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TIA_351071stSHeaterOutTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TIA_351082ndSHeaterInTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRCSA_35101B3rdHeaterOutTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRCSA_35101AMainStmTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TI_35208BoFeedH2OTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRA_31107ABoInTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TRA_31107BBoInTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_31108BoOutTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_31105DisCokeTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_31106DisCokeTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_GR_101_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_GR_102_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35406_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35407_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35403_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35404_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35405_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35401_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35402_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_XH01FC_N_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_XH01FC_CURRE_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FISA_35106ACoH2OFl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FISA_35106BCoH2OFl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TR_35110CoH2OTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35115A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35115B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P35101A_A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P35101B_A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PRSA_35105BoFeedH2OPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P1_A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_P2_A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35206A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35206B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35207A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TISA_35207B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TI_35103InH2OTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TI_35110OutH2OTe_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101C1CHCO_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101BHH2O_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101AHO2_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_ARA_31101C2HCO2_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PI_35303N2Pa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35303N2Fl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PISA_35302InsCAPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35302InsCAFl_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PI_35301ACAPa_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FIQ_35301CAFl_1hour_avg</t>
+    <t>CK67_L1R_CDQ_PRSA_35104AStmDrumPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRSA_35104BStmDrumPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PI_35205AHeStmPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRCA_35202DeaPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_31101PrnAdeBunkUpTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRA_31111CDQInTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TT31103CoChamberLoTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TT31102CoChamberUpTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TIA_351071stSHeaterOutTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TIA_351082ndSHeaterInTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRCSA_35101B3rdHeaterOutTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRCSA_35101AMainStmTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TI_35208BoFeedH2OTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRA_31107ABoInTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TRA_31107BBoInTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_31108BoOutTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_31105DisCokeTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_31106DisCokeTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_GR_101_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_GR_102_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35406_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35407_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35403_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35404_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35405_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35401_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35402_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_XH01FC_N_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_XH01FC_CURRE_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FISA_35106ACoH2OFl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FISA_35106BCoH2OFl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TR_35110CoH2OTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35115A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35115B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P35101A_A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P35101B_A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PRSA_35105BoFeedH2OPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P1_A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_P2_A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35206A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35206B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35207A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TISA_35207B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TI_35103InH2OTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TI_35110OutH2OTe_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101C1CHCO_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101BHH2O_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101AHO2_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_ARA_31101C2HCO2_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PI_35303N2Pa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35303N2Fl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PISA_35302InsCAPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35302InsCAFl_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PI_35301ACAPa_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FIQ_35301CAFl_1h_avg</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -2809,55 +2809,55 @@
     </r>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_3TE_1354_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1355_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1356_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1357_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1358_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13701AH_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13701R_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3FT_1351_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1352_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1353_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1351A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1352A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1351B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1352B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1351_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PdT_1351_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PT_1332_1hour_avg</t>
+    <t>CK67_L1R_CDQ_3TE_1354_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1355_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1356_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1357_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1358_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13701AH_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13701R_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3FT_1351_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1352_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1353_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1351A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1352A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1351B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1352B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1351_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PdT_1351_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PT_1332_1h_avg</t>
   </si>
   <si>
     <r>
@@ -3002,157 +3002,157 @@
     <t>6&amp;7#焦 装煤除尘</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_3TE_1334_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1335_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1336_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1337_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_1TE_1338_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13201AH_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13201R_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3FT_1331_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1331FJZW_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1332_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1331A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1332A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1331B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1332B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1331_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PdT_1331_1hour_avg</t>
+    <t>CK67_L1R_CDQ_3TE_1334_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1335_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1336_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1337_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_1TE_1338_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13201AH_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13201R_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3FT_1331_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1331FJZW_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1332_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1331A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1332A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1331B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1332B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1331_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PdT_1331_1h_avg</t>
   </si>
   <si>
     <t>6&amp;7#焦 CDQ除尘</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_TE_85508_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85509_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85505_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85506_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85507_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_D1FC_A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_D1FC_R_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_FT_85501_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85503_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85504_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85501A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85502A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85501B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_VT_85502B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_TE_85502_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PdT_85501_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_PT_85502_1hour_avg</t>
+    <t>CK67_L1R_CDQ_TE_85508_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85509_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85505_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85506_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85507_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_D1FC_A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_D1FC_R_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_FT_85501_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85503_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85504_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85501A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85502A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85501B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_VT_85502B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_TE_85502_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PdT_85501_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_PT_85502_1h_avg</t>
   </si>
   <si>
     <t>6&amp;7#焦 筛焦除尘</t>
   </si>
   <si>
-    <t>CK67_L1R_CDQ_3TE_1503_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1504_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1505_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1506_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1507_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13901AH_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_13901R_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3FT_1501_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1501_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3TE_1502_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1501A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1502A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1501B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3ZT_1502B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PdT_1501_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CDQ_3PT_1502_1hour_avg</t>
+    <t>CK67_L1R_CDQ_3TE_1503_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1504_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1505_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1506_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1507_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13901AH_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_13901R_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3FT_1501_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1501_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3TE_1502_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1501A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1502A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1501B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3ZT_1502B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PdT_1501_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CDQ_3PT_1502_1h_avg</t>
   </si>
   <si>
     <t>3#CDQ生产情况记录</t>
@@ -4224,9 +4224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
@@ -4360,36 +4360,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -4404,31 +4374,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4443,18 +4412,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4466,8 +4427,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4504,10 +4503,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4610,13 +4610,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4628,7 +4640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4640,13 +4664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4664,13 +4682,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4682,19 +4718,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4706,37 +4742,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4754,43 +4784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5594,28 +5594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5640,6 +5623,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5673,171 +5691,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="69" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -6330,9 +6330,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="63" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6436,6 +6433,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -7278,8 +7278,8 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="AZ4" workbookViewId="0">
+      <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -7514,21 +7514,21 @@
       <c r="L3" s="161"/>
       <c r="M3" s="161"/>
       <c r="N3" s="161"/>
-      <c r="O3" s="189" t="s">
+      <c r="O3" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="189"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
       <c r="AB3" s="161" t="s">
         <v>5</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="BY3" s="161"/>
       <c r="BZ3" s="161"/>
       <c r="CA3" s="161"/>
-      <c r="CB3" s="210"/>
+      <c r="CB3" s="209"/>
     </row>
     <row r="4" ht="29.25" customHeight="1" spans="1:80">
       <c r="A4" s="160"/>
@@ -7688,23 +7688,23 @@
       <c r="AH4" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="191" t="s">
+      <c r="AI4" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="195" t="s">
+      <c r="AJ4" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="195" t="s">
+      <c r="AK4" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195" t="s">
+      <c r="AL4" s="194"/>
+      <c r="AM4" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AN4" s="195" t="s">
+      <c r="AN4" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="195"/>
+      <c r="AO4" s="194"/>
       <c r="AP4" s="165" t="s">
         <v>45</v>
       </c>
@@ -7770,16 +7770,16 @@
       <c r="BP4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="BQ4" s="206" t="s">
+      <c r="BQ4" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="BR4" s="206" t="s">
+      <c r="BR4" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="BS4" s="206" t="s">
+      <c r="BS4" s="205" t="s">
         <v>64</v>
       </c>
-      <c r="BT4" s="206" t="s">
+      <c r="BT4" s="205" t="s">
         <v>65</v>
       </c>
       <c r="BU4" s="165" t="s">
@@ -7803,7 +7803,7 @@
       <c r="CA4" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="CB4" s="211" t="s">
+      <c r="CB4" s="210" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7842,13 +7842,13 @@
       <c r="AF5" s="165"/>
       <c r="AG5" s="165"/>
       <c r="AH5" s="165"/>
-      <c r="AI5" s="196"/>
+      <c r="AI5" s="195"/>
       <c r="AJ5" s="165"/>
-      <c r="AK5" s="195"/>
-      <c r="AL5" s="195"/>
+      <c r="AK5" s="194"/>
+      <c r="AL5" s="194"/>
       <c r="AM5" s="165"/>
-      <c r="AN5" s="195"/>
-      <c r="AO5" s="195"/>
+      <c r="AN5" s="194"/>
+      <c r="AO5" s="194"/>
       <c r="AP5" s="165"/>
       <c r="AQ5" s="165"/>
       <c r="AR5" s="165"/>
@@ -7856,7 +7856,7 @@
       <c r="AT5" s="165"/>
       <c r="AU5" s="165"/>
       <c r="AV5" s="165"/>
-      <c r="AW5" s="206"/>
+      <c r="AW5" s="205"/>
       <c r="AX5" s="165"/>
       <c r="AY5" s="165"/>
       <c r="AZ5" s="165"/>
@@ -7876,18 +7876,18 @@
       <c r="BN5" s="165"/>
       <c r="BO5" s="165"/>
       <c r="BP5" s="165"/>
-      <c r="BQ5" s="206"/>
-      <c r="BR5" s="206"/>
-      <c r="BS5" s="206"/>
-      <c r="BT5" s="206"/>
-      <c r="BU5" s="195"/>
+      <c r="BQ5" s="205"/>
+      <c r="BR5" s="205"/>
+      <c r="BS5" s="205"/>
+      <c r="BT5" s="205"/>
+      <c r="BU5" s="194"/>
       <c r="BV5" s="165"/>
       <c r="BW5" s="165"/>
       <c r="BX5" s="165"/>
       <c r="BY5" s="165"/>
       <c r="BZ5" s="165"/>
       <c r="CA5" s="165"/>
-      <c r="CB5" s="211"/>
+      <c r="CB5" s="210"/>
     </row>
     <row r="6" ht="54" customHeight="1" spans="1:80">
       <c r="A6" s="160"/>
@@ -7940,7 +7940,7 @@
       <c r="AF6" s="165"/>
       <c r="AG6" s="165"/>
       <c r="AH6" s="165"/>
-      <c r="AI6" s="197"/>
+      <c r="AI6" s="196"/>
       <c r="AJ6" s="165"/>
       <c r="AK6" s="4" t="s">
         <v>76</v>
@@ -7968,7 +7968,7 @@
       <c r="AV6" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="AW6" s="206"/>
+      <c r="AW6" s="205"/>
       <c r="AX6" s="165"/>
       <c r="AY6" s="165"/>
       <c r="AZ6" s="165"/>
@@ -8012,18 +8012,18 @@
       </c>
       <c r="BO6" s="165"/>
       <c r="BP6" s="165"/>
-      <c r="BQ6" s="206"/>
-      <c r="BR6" s="206"/>
-      <c r="BS6" s="206"/>
-      <c r="BT6" s="206"/>
-      <c r="BU6" s="195"/>
+      <c r="BQ6" s="205"/>
+      <c r="BR6" s="205"/>
+      <c r="BS6" s="205"/>
+      <c r="BT6" s="205"/>
+      <c r="BU6" s="194"/>
       <c r="BV6" s="165"/>
       <c r="BW6" s="165"/>
       <c r="BX6" s="165"/>
       <c r="BY6" s="165"/>
       <c r="BZ6" s="165"/>
       <c r="CA6" s="165"/>
-      <c r="CB6" s="211"/>
+      <c r="CB6" s="210"/>
     </row>
     <row r="7" s="155" customFormat="1" ht="44.45" hidden="1" customHeight="1" spans="1:80">
       <c r="A7" s="160"/>
@@ -8085,7 +8085,7 @@
       <c r="AA7" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="194" t="s">
+      <c r="AB7" s="193" t="s">
         <v>99</v>
       </c>
       <c r="AC7" s="171" t="s">
@@ -8101,103 +8101,103 @@
       <c r="AI7" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="AJ7" s="194" t="s">
+      <c r="AJ7" s="193" t="s">
         <v>102</v>
       </c>
       <c r="AK7" s="171" t="s">
         <v>103</v>
       </c>
       <c r="AL7" s="171"/>
-      <c r="AM7" s="194" t="s">
+      <c r="AM7" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="194"/>
+      <c r="AN7" s="193"/>
       <c r="AO7" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="AP7" s="201" t="s">
+      <c r="AP7" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="AQ7" s="201" t="s">
+      <c r="AQ7" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="AR7" s="202" t="s">
+      <c r="AR7" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="AS7" s="202" t="s">
+      <c r="AS7" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="AT7" s="202" t="s">
+      <c r="AT7" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="202"/>
-      <c r="AV7" s="202"/>
-      <c r="AW7" s="202" t="s">
+      <c r="AU7" s="201"/>
+      <c r="AV7" s="201"/>
+      <c r="AW7" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="AX7" s="202" t="s">
+      <c r="AX7" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="AY7" s="202" t="s">
+      <c r="AY7" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="AZ7" s="202" t="s">
+      <c r="AZ7" s="201" t="s">
         <v>111</v>
       </c>
-      <c r="BA7" s="202" t="s">
+      <c r="BA7" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="BB7" s="202"/>
-      <c r="BC7" s="202" t="s">
+      <c r="BB7" s="201"/>
+      <c r="BC7" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="BD7" s="202" t="s">
+      <c r="BD7" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="BE7" s="202"/>
-      <c r="BF7" s="202" t="s">
+      <c r="BE7" s="201"/>
+      <c r="BF7" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="BG7" s="202"/>
-      <c r="BH7" s="202" t="s">
+      <c r="BG7" s="201"/>
+      <c r="BH7" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="BI7" s="202" t="s">
+      <c r="BI7" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="BJ7" s="202"/>
-      <c r="BK7" s="202"/>
-      <c r="BL7" s="202"/>
-      <c r="BM7" s="202"/>
-      <c r="BN7" s="202"/>
-      <c r="BO7" s="202" t="s">
+      <c r="BJ7" s="201"/>
+      <c r="BK7" s="201"/>
+      <c r="BL7" s="201"/>
+      <c r="BM7" s="201"/>
+      <c r="BN7" s="201"/>
+      <c r="BO7" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="BP7" s="202" t="s">
+      <c r="BP7" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="BQ7" s="202" t="s">
+      <c r="BQ7" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="BR7" s="202" t="s">
+      <c r="BR7" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="BS7" s="202" t="s">
+      <c r="BS7" s="201" t="s">
         <v>121</v>
       </c>
-      <c r="BT7" s="202" t="s">
+      <c r="BT7" s="201" t="s">
         <v>122</v>
       </c>
-      <c r="BU7" s="202"/>
-      <c r="BV7" s="202"/>
-      <c r="BW7" s="201" t="s">
+      <c r="BU7" s="201"/>
+      <c r="BV7" s="201"/>
+      <c r="BW7" s="200" t="s">
         <v>123</v>
       </c>
-      <c r="BX7" s="202"/>
-      <c r="BY7" s="201"/>
-      <c r="BZ7" s="202"/>
-      <c r="CA7" s="202"/>
-      <c r="CB7" s="212"/>
+      <c r="BX7" s="201"/>
+      <c r="BY7" s="200"/>
+      <c r="BZ7" s="201"/>
+      <c r="CA7" s="201"/>
+      <c r="CB7" s="211"/>
     </row>
     <row r="8" ht="66" hidden="1" customHeight="1" spans="1:80">
       <c r="A8" s="160"/>
@@ -8229,7 +8229,7 @@
       <c r="K8" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="190" t="s">
+      <c r="L8" s="189" t="s">
         <v>131</v>
       </c>
       <c r="M8" s="173" t="s">
@@ -8241,88 +8241,88 @@
       <c r="O8" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="191" t="s">
+      <c r="P8" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="191" t="s">
+      <c r="Q8" s="190" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="191" t="s">
+      <c r="R8" s="190" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="191" t="s">
+      <c r="S8" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="191" t="s">
+      <c r="T8" s="190" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="191" t="s">
+      <c r="U8" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="V8" s="191" t="s">
+      <c r="V8" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="W8" s="190" t="s">
+      <c r="W8" s="189" t="s">
         <v>142</v>
       </c>
-      <c r="X8" s="191" t="s">
+      <c r="X8" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="Y8" s="191" t="s">
+      <c r="Y8" s="190" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" s="190" t="s">
+      <c r="Z8" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="AA8" s="191" t="s">
+      <c r="AA8" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="AB8" s="191" t="s">
+      <c r="AB8" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="AC8" s="191" t="s">
+      <c r="AC8" s="190" t="s">
         <v>148</v>
       </c>
-      <c r="AD8" s="191" t="s">
+      <c r="AD8" s="190" t="s">
         <v>149</v>
       </c>
-      <c r="AE8" s="191" t="s">
+      <c r="AE8" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="191" t="s">
+      <c r="AF8" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="AG8" s="191" t="s">
+      <c r="AG8" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="AH8" s="191" t="s">
+      <c r="AH8" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="AI8" s="191" t="s">
+      <c r="AI8" s="190" t="s">
         <v>154</v>
       </c>
-      <c r="AJ8" s="191" t="s">
+      <c r="AJ8" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="AK8" s="191" t="s">
+      <c r="AK8" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="AL8" s="191" t="s">
+      <c r="AL8" s="190" t="s">
         <v>157</v>
       </c>
-      <c r="AM8" s="191" t="s">
+      <c r="AM8" s="190" t="s">
         <v>158</v>
       </c>
-      <c r="AN8" s="191" t="s">
+      <c r="AN8" s="190" t="s">
         <v>159</v>
       </c>
-      <c r="AO8" s="191" t="s">
+      <c r="AO8" s="190" t="s">
         <v>160</v>
       </c>
-      <c r="AP8" s="203" t="s">
+      <c r="AP8" s="202" t="s">
         <v>161</v>
       </c>
-      <c r="AQ8" s="203" t="s">
+      <c r="AQ8" s="202" t="s">
         <v>162</v>
       </c>
       <c r="AR8" s="173" t="s">
@@ -8433,7 +8433,7 @@
       <c r="CA8" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="CB8" s="213" t="s">
+      <c r="CB8" s="212" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8442,250 +8442,250 @@
       <c r="B9" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="175" t="s">
+      <c r="D9" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="175" t="s">
+      <c r="F9" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="175" t="s">
+      <c r="H9" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="I9" s="175" t="s">
+      <c r="I9" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="175" t="s">
+      <c r="J9" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="K9" s="175" t="s">
+      <c r="K9" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="L9" s="175" t="s">
+      <c r="L9" s="151" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="175" t="s">
+      <c r="M9" s="151" t="s">
         <v>209</v>
       </c>
-      <c r="N9" s="175" t="s">
+      <c r="N9" s="151" t="s">
         <v>210</v>
       </c>
-      <c r="O9" s="175" t="s">
+      <c r="O9" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="P9" s="175" t="s">
+      <c r="P9" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="Q9" s="175" t="s">
+      <c r="Q9" s="151" t="s">
         <v>213</v>
       </c>
-      <c r="R9" s="175" t="s">
+      <c r="R9" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="S9" s="175" t="s">
+      <c r="S9" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="T9" s="175" t="s">
+      <c r="T9" s="151" t="s">
         <v>216</v>
       </c>
-      <c r="U9" s="175" t="s">
+      <c r="U9" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="V9" s="175" t="s">
+      <c r="V9" s="151" t="s">
         <v>218</v>
       </c>
       <c r="W9" s="152" t="s">
         <v>219</v>
       </c>
-      <c r="X9" s="175" t="s">
+      <c r="X9" s="151" t="s">
         <v>220</v>
       </c>
-      <c r="Y9" s="175" t="s">
+      <c r="Y9" s="151" t="s">
         <v>221</v>
       </c>
-      <c r="Z9" s="175" t="s">
+      <c r="Z9" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="AA9" s="175" t="s">
+      <c r="AA9" s="151" t="s">
         <v>223</v>
       </c>
-      <c r="AB9" s="175" t="s">
+      <c r="AB9" s="151" t="s">
         <v>224</v>
       </c>
-      <c r="AC9" s="175" t="s">
+      <c r="AC9" s="151" t="s">
         <v>225</v>
       </c>
-      <c r="AD9" s="175" t="s">
+      <c r="AD9" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="AE9" s="175" t="s">
+      <c r="AE9" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="AF9" s="175" t="s">
+      <c r="AF9" s="151" t="s">
         <v>228</v>
       </c>
-      <c r="AG9" s="175" t="s">
+      <c r="AG9" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="AH9" s="175" t="s">
+      <c r="AH9" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="AI9" s="175" t="s">
+      <c r="AI9" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="AJ9" s="175" t="s">
+      <c r="AJ9" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="AK9" s="175" t="s">
+      <c r="AK9" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="AL9" s="175" t="s">
+      <c r="AL9" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="AM9" s="175" t="s">
+      <c r="AM9" s="151" t="s">
         <v>235</v>
       </c>
-      <c r="AN9" s="175" t="s">
+      <c r="AN9" s="151" t="s">
         <v>236</v>
       </c>
-      <c r="AO9" s="175" t="s">
+      <c r="AO9" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="AP9" s="175" t="s">
+      <c r="AP9" s="151" t="s">
         <v>238</v>
       </c>
-      <c r="AQ9" s="175" t="s">
+      <c r="AQ9" s="151" t="s">
         <v>239</v>
       </c>
-      <c r="AR9" s="175" t="s">
+      <c r="AR9" s="151" t="s">
         <v>240</v>
       </c>
-      <c r="AS9" s="175" t="s">
+      <c r="AS9" s="151" t="s">
         <v>241</v>
       </c>
-      <c r="AT9" s="175" t="s">
+      <c r="AT9" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="AU9" s="175" t="s">
+      <c r="AU9" s="151" t="s">
         <v>243</v>
       </c>
-      <c r="AV9" s="175" t="s">
+      <c r="AV9" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="AW9" s="175" t="s">
+      <c r="AW9" s="151" t="s">
         <v>245</v>
       </c>
-      <c r="AX9" s="175" t="s">
+      <c r="AX9" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="AY9" s="175" t="s">
+      <c r="AY9" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="AZ9" s="175" t="s">
+      <c r="AZ9" s="151" t="s">
         <v>248</v>
       </c>
-      <c r="BA9" s="175" t="s">
+      <c r="BA9" s="151" t="s">
         <v>249</v>
       </c>
-      <c r="BB9" s="175" t="s">
+      <c r="BB9" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="BC9" s="175" t="s">
+      <c r="BC9" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="BD9" s="175" t="s">
+      <c r="BD9" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="BE9" s="175" t="s">
+      <c r="BE9" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="BF9" s="175" t="s">
+      <c r="BF9" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="BG9" s="175" t="s">
+      <c r="BG9" s="151" t="s">
         <v>255</v>
       </c>
-      <c r="BH9" s="175" t="s">
+      <c r="BH9" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="BI9" s="175" t="s">
+      <c r="BI9" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="BJ9" s="175" t="s">
+      <c r="BJ9" s="151" t="s">
         <v>258</v>
       </c>
-      <c r="BK9" s="175" t="s">
+      <c r="BK9" s="151" t="s">
         <v>259</v>
       </c>
-      <c r="BL9" s="175" t="s">
+      <c r="BL9" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="BM9" s="175" t="s">
+      <c r="BM9" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BN9" s="175" t="s">
+      <c r="BN9" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BO9" s="175" t="s">
+      <c r="BO9" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="BP9" s="175" t="s">
+      <c r="BP9" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="BQ9" s="175" t="s">
+      <c r="BQ9" s="151" t="s">
         <v>265</v>
       </c>
-      <c r="BR9" s="175" t="s">
+      <c r="BR9" s="151" t="s">
         <v>266</v>
       </c>
-      <c r="BS9" s="175" t="s">
+      <c r="BS9" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="BT9" s="175" t="s">
+      <c r="BT9" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="BU9" s="175" t="s">
+      <c r="BU9" s="151" t="s">
         <v>269</v>
       </c>
-      <c r="BV9" s="175" t="s">
+      <c r="BV9" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="BW9" s="175" t="s">
+      <c r="BW9" s="151" t="s">
         <v>271</v>
       </c>
-      <c r="BX9" s="175" t="s">
+      <c r="BX9" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="BY9" s="175" t="s">
+      <c r="BY9" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="BZ9" s="175" t="s">
+      <c r="BZ9" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="CA9" s="175"/>
+      <c r="CA9" s="213"/>
       <c r="CB9" s="214"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="2:80">
-      <c r="B10" s="176">
+      <c r="B10" s="175">
         <v>0</v>
       </c>
-      <c r="C10" s="177" t="str">
+      <c r="C10" s="176" t="str">
         <f>IF(_CDQ_day_hour!A2="","",_CDQ_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D10" s="178" t="str">
+      <c r="D10" s="177" t="str">
         <f>IF(_CDQ_day_hour!B2="","",_CDQ_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E10" s="178" t="str">
+      <c r="E10" s="177" t="str">
         <f>IF(_CDQ_day_hour!C2="","",_CDQ_day_hour!C2)</f>
         <v/>
       </c>
@@ -8705,7 +8705,7 @@
         <f>IF(_CDQ_day_hour!G2="","",_CDQ_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J10" s="178" t="str">
+      <c r="J10" s="177" t="str">
         <f>IF(_CDQ_day_hour!H2="","",_CDQ_day_hour!H2)</f>
         <v/>
       </c>
@@ -8717,11 +8717,11 @@
         <f>IF(_CDQ_day_hour!J2="","",_CDQ_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M10" s="178" t="str">
+      <c r="M10" s="177" t="str">
         <f>IF(_CDQ_day_hour!K2="","",_CDQ_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N10" s="178" t="str">
+      <c r="N10" s="177" t="str">
         <f>IF(_CDQ_day_hour!L2="","",_CDQ_day_hour!L2)</f>
         <v/>
       </c>
@@ -8741,7 +8741,7 @@
         <f>IF(_CDQ_day_hour!P2="","",_CDQ_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S10" s="178" t="str">
+      <c r="S10" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q2="","",_CDQ_day_hour!Q2)</f>
         <v/>
       </c>
@@ -8773,11 +8773,11 @@
         <f>IF(_CDQ_day_hour!X2="","",_CDQ_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA10" s="178" t="str">
+      <c r="AA10" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y2="","",_CDQ_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB10" s="178" t="str">
+      <c r="AB10" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z2="","",_CDQ_day_hour!Z2)</f>
         <v/>
       </c>
@@ -8797,7 +8797,7 @@
         <f>IF(_CDQ_day_hour!AD2="","",_CDQ_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG10" s="178" t="str">
+      <c r="AG10" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE2="","",_CDQ_day_hour!AE2)</f>
         <v/>
       </c>
@@ -8809,7 +8809,7 @@
         <f>IF(_CDQ_day_hour!AG2="","",_CDQ_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ10" s="178" t="str">
+      <c r="AJ10" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH2="","",_CDQ_day_hour!AH2)</f>
         <v/>
       </c>
@@ -8829,15 +8829,15 @@
         <f>IF(_CDQ_day_hour!AL2="","",_CDQ_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO10" s="178" t="str">
+      <c r="AO10" s="177" t="str">
         <f>IF(_CDQ_day_hour!AM2="","",_CDQ_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP10" s="204" t="str">
+      <c r="AP10" s="203" t="str">
         <f>IF(_CDQ_day_hour!AN2="","",_CDQ_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ10" s="204" t="str">
+      <c r="AQ10" s="203" t="str">
         <f>IF(_CDQ_day_hour!AO2="","",_CDQ_day_hour!AO2)</f>
         <v/>
       </c>
@@ -8881,7 +8881,7 @@
         <f>IF(_CDQ_day_hour!AY2="","",_CDQ_day_hour!AY2)</f>
         <v/>
       </c>
-      <c r="BB10" s="205" t="str">
+      <c r="BB10" s="204" t="str">
         <f>IF(_CDQ_day_hour!AZ2="","",_CDQ_day_hour!AZ2)</f>
         <v/>
       </c>
@@ -8909,27 +8909,27 @@
         <f>IF(_CDQ_day_hour!BF2="","",_CDQ_day_hour!BF2)</f>
         <v/>
       </c>
-      <c r="BI10" s="207" t="str">
+      <c r="BI10" s="206" t="str">
         <f>IF(_CDQ_day_hour!BG2="","",_CDQ_day_hour!BG2)</f>
         <v/>
       </c>
-      <c r="BJ10" s="205" t="str">
+      <c r="BJ10" s="204" t="str">
         <f>IF(_CDQ_day_hour!BH2="","",_CDQ_day_hour!BH2)</f>
         <v/>
       </c>
-      <c r="BK10" s="205" t="str">
+      <c r="BK10" s="204" t="str">
         <f>IF(_CDQ_day_hour!BI2="","",_CDQ_day_hour!BI2)</f>
         <v/>
       </c>
-      <c r="BL10" s="205" t="str">
+      <c r="BL10" s="204" t="str">
         <f>IF(_CDQ_day_hour!BJ2="","",_CDQ_day_hour!BJ2)</f>
         <v/>
       </c>
-      <c r="BM10" s="205" t="str">
+      <c r="BM10" s="204" t="str">
         <f>IF(_CDQ_day_hour!BK2="","",_CDQ_day_hour!BK2)</f>
         <v/>
       </c>
-      <c r="BN10" s="205" t="str">
+      <c r="BN10" s="204" t="str">
         <f>IF(_CDQ_day_hour!BL2="","",_CDQ_day_hour!BL2)</f>
         <v/>
       </c>
@@ -8991,18 +8991,18 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:80">
-      <c r="B11" s="176">
+      <c r="B11" s="175">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C11" s="177" t="str">
+      <c r="C11" s="176" t="str">
         <f>IF(_CDQ_day_hour!A3="","",_CDQ_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D11" s="178" t="str">
+      <c r="D11" s="177" t="str">
         <f>IF(_CDQ_day_hour!B3="","",_CDQ_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E11" s="178" t="str">
+      <c r="E11" s="177" t="str">
         <f>IF(_CDQ_day_hour!C3="","",_CDQ_day_hour!C3)</f>
         <v/>
       </c>
@@ -9022,7 +9022,7 @@
         <f>IF(_CDQ_day_hour!G3="","",_CDQ_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J11" s="178" t="str">
+      <c r="J11" s="177" t="str">
         <f>IF(_CDQ_day_hour!H3="","",_CDQ_day_hour!H3)</f>
         <v/>
       </c>
@@ -9034,11 +9034,11 @@
         <f>IF(_CDQ_day_hour!J3="","",_CDQ_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M11" s="178" t="str">
+      <c r="M11" s="177" t="str">
         <f>IF(_CDQ_day_hour!K3="","",_CDQ_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N11" s="178" t="str">
+      <c r="N11" s="177" t="str">
         <f>IF(_CDQ_day_hour!L3="","",_CDQ_day_hour!L3)</f>
         <v/>
       </c>
@@ -9058,7 +9058,7 @@
         <f>IF(_CDQ_day_hour!P3="","",_CDQ_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S11" s="178" t="str">
+      <c r="S11" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q3="","",_CDQ_day_hour!Q3)</f>
         <v/>
       </c>
@@ -9090,11 +9090,11 @@
         <f>IF(_CDQ_day_hour!X3="","",_CDQ_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA11" s="178" t="str">
+      <c r="AA11" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y3="","",_CDQ_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB11" s="178" t="str">
+      <c r="AB11" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z3="","",_CDQ_day_hour!Z3)</f>
         <v/>
       </c>
@@ -9114,7 +9114,7 @@
         <f>IF(_CDQ_day_hour!AD3="","",_CDQ_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG11" s="178" t="str">
+      <c r="AG11" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE3="","",_CDQ_day_hour!AE3)</f>
         <v/>
       </c>
@@ -9126,7 +9126,7 @@
         <f>IF(_CDQ_day_hour!AG3="","",_CDQ_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ11" s="178" t="str">
+      <c r="AJ11" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH3="","",_CDQ_day_hour!AH3)</f>
         <v/>
       </c>
@@ -9146,15 +9146,15 @@
         <f>IF(_CDQ_day_hour!AL3="","",_CDQ_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO11" s="178" t="str">
+      <c r="AO11" s="177" t="str">
         <f>IF(_CDQ_day_hour!AM3="","",_CDQ_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP11" s="204" t="str">
+      <c r="AP11" s="203" t="str">
         <f>IF(_CDQ_day_hour!AN3="","",_CDQ_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ11" s="204" t="str">
+      <c r="AQ11" s="203" t="str">
         <f>IF(_CDQ_day_hour!AO3="","",_CDQ_day_hour!AO3)</f>
         <v/>
       </c>
@@ -9198,7 +9198,7 @@
         <f>IF(_CDQ_day_hour!AY3="","",_CDQ_day_hour!AY3)</f>
         <v/>
       </c>
-      <c r="BB11" s="205" t="str">
+      <c r="BB11" s="204" t="str">
         <f>IF(_CDQ_day_hour!AZ3="","",_CDQ_day_hour!AZ3)</f>
         <v/>
       </c>
@@ -9226,27 +9226,27 @@
         <f>IF(_CDQ_day_hour!BF3="","",_CDQ_day_hour!BF3)</f>
         <v/>
       </c>
-      <c r="BI11" s="207" t="str">
+      <c r="BI11" s="206" t="str">
         <f>IF(_CDQ_day_hour!BG3="","",_CDQ_day_hour!BG3)</f>
         <v/>
       </c>
-      <c r="BJ11" s="205" t="str">
+      <c r="BJ11" s="204" t="str">
         <f>IF(_CDQ_day_hour!BH3="","",_CDQ_day_hour!BH3)</f>
         <v/>
       </c>
-      <c r="BK11" s="205" t="str">
+      <c r="BK11" s="204" t="str">
         <f>IF(_CDQ_day_hour!BI3="","",_CDQ_day_hour!BI3)</f>
         <v/>
       </c>
-      <c r="BL11" s="205" t="str">
+      <c r="BL11" s="204" t="str">
         <f>IF(_CDQ_day_hour!BJ3="","",_CDQ_day_hour!BJ3)</f>
         <v/>
       </c>
-      <c r="BM11" s="205" t="str">
+      <c r="BM11" s="204" t="str">
         <f>IF(_CDQ_day_hour!BK3="","",_CDQ_day_hour!BK3)</f>
         <v/>
       </c>
-      <c r="BN11" s="205" t="str">
+      <c r="BN11" s="204" t="str">
         <f>IF(_CDQ_day_hour!BL3="","",_CDQ_day_hour!BL3)</f>
         <v/>
       </c>
@@ -9308,18 +9308,18 @@
       </c>
     </row>
     <row r="12" spans="2:80">
-      <c r="B12" s="176">
+      <c r="B12" s="175">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C12" s="177" t="str">
+      <c r="C12" s="176" t="str">
         <f>IF(_CDQ_day_hour!A4="","",_CDQ_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D12" s="178" t="str">
+      <c r="D12" s="177" t="str">
         <f>IF(_CDQ_day_hour!B4="","",_CDQ_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E12" s="178" t="str">
+      <c r="E12" s="177" t="str">
         <f>IF(_CDQ_day_hour!C4="","",_CDQ_day_hour!C4)</f>
         <v/>
       </c>
@@ -9339,19 +9339,19 @@
         <f>IF(_CDQ_day_hour!G4="","",_CDQ_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J12" s="178" t="str">
+      <c r="J12" s="177" t="str">
         <f>IF(_CDQ_day_hour!H4="","",_CDQ_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K12" s="178" t="str">
+      <c r="K12" s="177" t="str">
         <f>IF(_CDQ_day_hour!I4="","",_CDQ_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L12" s="178" t="str">
+      <c r="L12" s="177" t="str">
         <f>IF(_CDQ_day_hour!J4="","",_CDQ_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M12" s="178" t="str">
+      <c r="M12" s="177" t="str">
         <f>IF(_CDQ_day_hour!K4="","",_CDQ_day_hour!K4)</f>
         <v/>
       </c>
@@ -9371,7 +9371,7 @@
         <f>IF(_CDQ_day_hour!O4="","",_CDQ_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R12" s="178" t="str">
+      <c r="R12" s="177" t="str">
         <f>IF(_CDQ_day_hour!P4="","",_CDQ_day_hour!P4)</f>
         <v/>
       </c>
@@ -9391,15 +9391,15 @@
         <f>IF(_CDQ_day_hour!T4="","",_CDQ_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W12" s="178" t="str">
+      <c r="W12" s="177" t="str">
         <f>IF(_CDQ_day_hour!U4="","",_CDQ_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X12" s="178" t="str">
+      <c r="X12" s="177" t="str">
         <f>IF(_CDQ_day_hour!V4="","",_CDQ_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y12" s="178" t="str">
+      <c r="Y12" s="177" t="str">
         <f>IF(_CDQ_day_hour!W4="","",_CDQ_day_hour!W4)</f>
         <v/>
       </c>
@@ -9419,7 +9419,7 @@
         <f>IF(_CDQ_day_hour!AA4="","",_CDQ_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD12" s="178" t="str">
+      <c r="AD12" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB4="","",_CDQ_day_hour!AB4)</f>
         <v/>
       </c>
@@ -9431,7 +9431,7 @@
         <f>IF(_CDQ_day_hour!AD4="","",_CDQ_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG12" s="178" t="str">
+      <c r="AG12" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE4="","",_CDQ_day_hour!AE4)</f>
         <v/>
       </c>
@@ -9443,7 +9443,7 @@
         <f>IF(_CDQ_day_hour!AG4="","",_CDQ_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ12" s="178" t="str">
+      <c r="AJ12" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH4="","",_CDQ_day_hour!AH4)</f>
         <v/>
       </c>
@@ -9475,7 +9475,7 @@
         <f>IF(_CDQ_day_hour!AO4="","",_CDQ_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR12" s="205" t="str">
+      <c r="AR12" s="204" t="str">
         <f>IF(_CDQ_day_hour!AP4="","",_CDQ_day_hour!AP4)</f>
         <v/>
       </c>
@@ -9543,7 +9543,7 @@
         <f>IF(_CDQ_day_hour!BF4="","",_CDQ_day_hour!BF4)</f>
         <v/>
       </c>
-      <c r="BI12" s="208" t="str">
+      <c r="BI12" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG4="","",_CDQ_day_hour!BG4)</f>
         <v/>
       </c>
@@ -9625,18 +9625,18 @@
       </c>
     </row>
     <row r="13" spans="2:80">
-      <c r="B13" s="176">
+      <c r="B13" s="175">
         <v>0.125</v>
       </c>
-      <c r="C13" s="177" t="str">
+      <c r="C13" s="176" t="str">
         <f>IF(_CDQ_day_hour!A5="","",_CDQ_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D13" s="178" t="str">
+      <c r="D13" s="177" t="str">
         <f>IF(_CDQ_day_hour!B5="","",_CDQ_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E13" s="178" t="str">
+      <c r="E13" s="177" t="str">
         <f>IF(_CDQ_day_hour!C5="","",_CDQ_day_hour!C5)</f>
         <v/>
       </c>
@@ -9656,19 +9656,19 @@
         <f>IF(_CDQ_day_hour!G5="","",_CDQ_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J13" s="178" t="str">
+      <c r="J13" s="177" t="str">
         <f>IF(_CDQ_day_hour!H5="","",_CDQ_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K13" s="178" t="str">
+      <c r="K13" s="177" t="str">
         <f>IF(_CDQ_day_hour!I5="","",_CDQ_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L13" s="178" t="str">
+      <c r="L13" s="177" t="str">
         <f>IF(_CDQ_day_hour!J5="","",_CDQ_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M13" s="178" t="str">
+      <c r="M13" s="177" t="str">
         <f>IF(_CDQ_day_hour!K5="","",_CDQ_day_hour!K5)</f>
         <v/>
       </c>
@@ -9688,7 +9688,7 @@
         <f>IF(_CDQ_day_hour!O5="","",_CDQ_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R13" s="178" t="str">
+      <c r="R13" s="177" t="str">
         <f>IF(_CDQ_day_hour!P5="","",_CDQ_day_hour!P5)</f>
         <v/>
       </c>
@@ -9708,15 +9708,15 @@
         <f>IF(_CDQ_day_hour!T5="","",_CDQ_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W13" s="178" t="str">
+      <c r="W13" s="177" t="str">
         <f>IF(_CDQ_day_hour!U5="","",_CDQ_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X13" s="178" t="str">
+      <c r="X13" s="177" t="str">
         <f>IF(_CDQ_day_hour!V5="","",_CDQ_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y13" s="178" t="str">
+      <c r="Y13" s="177" t="str">
         <f>IF(_CDQ_day_hour!W5="","",_CDQ_day_hour!W5)</f>
         <v/>
       </c>
@@ -9736,7 +9736,7 @@
         <f>IF(_CDQ_day_hour!AA5="","",_CDQ_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD13" s="178" t="str">
+      <c r="AD13" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB5="","",_CDQ_day_hour!AB5)</f>
         <v/>
       </c>
@@ -9748,7 +9748,7 @@
         <f>IF(_CDQ_day_hour!AD5="","",_CDQ_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG13" s="178" t="str">
+      <c r="AG13" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE5="","",_CDQ_day_hour!AE5)</f>
         <v/>
       </c>
@@ -9760,7 +9760,7 @@
         <f>IF(_CDQ_day_hour!AG5="","",_CDQ_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ13" s="178" t="str">
+      <c r="AJ13" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH5="","",_CDQ_day_hour!AH5)</f>
         <v/>
       </c>
@@ -9792,7 +9792,7 @@
         <f>IF(_CDQ_day_hour!AO5="","",_CDQ_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR13" s="205" t="str">
+      <c r="AR13" s="204" t="str">
         <f>IF(_CDQ_day_hour!AP5="","",_CDQ_day_hour!AP5)</f>
         <v/>
       </c>
@@ -9860,7 +9860,7 @@
         <f>IF(_CDQ_day_hour!BF5="","",_CDQ_day_hour!BF5)</f>
         <v/>
       </c>
-      <c r="BI13" s="208" t="str">
+      <c r="BI13" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG5="","",_CDQ_day_hour!BG5)</f>
         <v/>
       </c>
@@ -9942,142 +9942,142 @@
       </c>
     </row>
     <row r="14" ht="15.75" spans="2:80">
-      <c r="B14" s="176">
+      <c r="B14" s="175">
         <v>0.166666666666667</v>
       </c>
-      <c r="C14" s="177" t="str">
+      <c r="C14" s="176" t="str">
         <f>IF(_CDQ_day_hour!A6="","",_CDQ_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D14" s="178" t="str">
+      <c r="D14" s="177" t="str">
         <f>IF(_CDQ_day_hour!B6="","",_CDQ_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E14" s="178" t="str">
+      <c r="E14" s="177" t="str">
         <f>IF(_CDQ_day_hour!C6="","",_CDQ_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F14" s="178" t="str">
+      <c r="F14" s="177" t="str">
         <f>IF(_CDQ_day_hour!D6="","",_CDQ_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G14" s="178" t="str">
+      <c r="G14" s="177" t="str">
         <f>IF(_CDQ_day_hour!E6="","",_CDQ_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H14" s="178" t="str">
+      <c r="H14" s="177" t="str">
         <f>IF(_CDQ_day_hour!F6="","",_CDQ_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I14" s="178" t="str">
+      <c r="I14" s="177" t="str">
         <f>IF(_CDQ_day_hour!G6="","",_CDQ_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J14" s="178" t="str">
+      <c r="J14" s="177" t="str">
         <f>IF(_CDQ_day_hour!H6="","",_CDQ_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K14" s="178" t="str">
+      <c r="K14" s="177" t="str">
         <f>IF(_CDQ_day_hour!I6="","",_CDQ_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L14" s="178" t="str">
+      <c r="L14" s="177" t="str">
         <f>IF(_CDQ_day_hour!J6="","",_CDQ_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M14" s="178" t="str">
+      <c r="M14" s="177" t="str">
         <f>IF(_CDQ_day_hour!K6="","",_CDQ_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N14" s="178" t="str">
+      <c r="N14" s="177" t="str">
         <f>IF(_CDQ_day_hour!L6="","",_CDQ_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O14" s="178" t="str">
+      <c r="O14" s="177" t="str">
         <f>IF(_CDQ_day_hour!M6="","",_CDQ_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P14" s="178" t="str">
+      <c r="P14" s="177" t="str">
         <f>IF(_CDQ_day_hour!N6="","",_CDQ_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q14" s="178" t="str">
+      <c r="Q14" s="177" t="str">
         <f>IF(_CDQ_day_hour!O6="","",_CDQ_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R14" s="178" t="str">
+      <c r="R14" s="177" t="str">
         <f>IF(_CDQ_day_hour!P6="","",_CDQ_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S14" s="178" t="str">
+      <c r="S14" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q6="","",_CDQ_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T14" s="178" t="str">
+      <c r="T14" s="177" t="str">
         <f>IF(_CDQ_day_hour!R6="","",_CDQ_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U14" s="178" t="str">
+      <c r="U14" s="177" t="str">
         <f>IF(_CDQ_day_hour!S6="","",_CDQ_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V14" s="178" t="str">
+      <c r="V14" s="177" t="str">
         <f>IF(_CDQ_day_hour!T6="","",_CDQ_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W14" s="178" t="str">
+      <c r="W14" s="177" t="str">
         <f>IF(_CDQ_day_hour!U6="","",_CDQ_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X14" s="178" t="str">
+      <c r="X14" s="177" t="str">
         <f>IF(_CDQ_day_hour!V6="","",_CDQ_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y14" s="178" t="str">
+      <c r="Y14" s="177" t="str">
         <f>IF(_CDQ_day_hour!W6="","",_CDQ_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z14" s="178" t="str">
+      <c r="Z14" s="177" t="str">
         <f>IF(_CDQ_day_hour!X6="","",_CDQ_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA14" s="178" t="str">
+      <c r="AA14" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y6="","",_CDQ_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB14" s="178" t="str">
+      <c r="AB14" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z6="","",_CDQ_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC14" s="178" t="str">
+      <c r="AC14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA6="","",_CDQ_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD14" s="178" t="str">
+      <c r="AD14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB6="","",_CDQ_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE14" s="178" t="str">
+      <c r="AE14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC6="","",_CDQ_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF14" s="178" t="str">
+      <c r="AF14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD6="","",_CDQ_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG14" s="178" t="str">
+      <c r="AG14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE6="","",_CDQ_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH14" s="178" t="str">
+      <c r="AH14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF6="","",_CDQ_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI14" s="178" t="str">
+      <c r="AI14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG6="","",_CDQ_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ14" s="178" t="str">
+      <c r="AJ14" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH6="","",_CDQ_day_hour!AH6)</f>
         <v/>
       </c>
@@ -10177,7 +10177,7 @@
         <f>IF(_CDQ_day_hour!BF6="","",_CDQ_day_hour!BF6)</f>
         <v/>
       </c>
-      <c r="BI14" s="208" t="str">
+      <c r="BI14" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG6="","",_CDQ_day_hour!BG6)</f>
         <v/>
       </c>
@@ -10259,142 +10259,142 @@
       </c>
     </row>
     <row r="15" ht="15.75" spans="2:80">
-      <c r="B15" s="176">
+      <c r="B15" s="175">
         <v>0.208333333333333</v>
       </c>
-      <c r="C15" s="177" t="str">
+      <c r="C15" s="176" t="str">
         <f>IF(_CDQ_day_hour!A7="","",_CDQ_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D15" s="178" t="str">
+      <c r="D15" s="177" t="str">
         <f>IF(_CDQ_day_hour!B7="","",_CDQ_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E15" s="178" t="str">
+      <c r="E15" s="177" t="str">
         <f>IF(_CDQ_day_hour!C7="","",_CDQ_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F15" s="178" t="str">
+      <c r="F15" s="177" t="str">
         <f>IF(_CDQ_day_hour!D7="","",_CDQ_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G15" s="178" t="str">
+      <c r="G15" s="177" t="str">
         <f>IF(_CDQ_day_hour!E7="","",_CDQ_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H15" s="178" t="str">
+      <c r="H15" s="177" t="str">
         <f>IF(_CDQ_day_hour!F7="","",_CDQ_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I15" s="178" t="str">
+      <c r="I15" s="177" t="str">
         <f>IF(_CDQ_day_hour!G7="","",_CDQ_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J15" s="178" t="str">
+      <c r="J15" s="177" t="str">
         <f>IF(_CDQ_day_hour!H7="","",_CDQ_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K15" s="178" t="str">
+      <c r="K15" s="177" t="str">
         <f>IF(_CDQ_day_hour!I7="","",_CDQ_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L15" s="178" t="str">
+      <c r="L15" s="177" t="str">
         <f>IF(_CDQ_day_hour!J7="","",_CDQ_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M15" s="178" t="str">
+      <c r="M15" s="177" t="str">
         <f>IF(_CDQ_day_hour!K7="","",_CDQ_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N15" s="178" t="str">
+      <c r="N15" s="177" t="str">
         <f>IF(_CDQ_day_hour!L7="","",_CDQ_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O15" s="178" t="str">
+      <c r="O15" s="177" t="str">
         <f>IF(_CDQ_day_hour!M7="","",_CDQ_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P15" s="178" t="str">
+      <c r="P15" s="177" t="str">
         <f>IF(_CDQ_day_hour!N7="","",_CDQ_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q15" s="178" t="str">
+      <c r="Q15" s="177" t="str">
         <f>IF(_CDQ_day_hour!O7="","",_CDQ_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R15" s="178" t="str">
+      <c r="R15" s="177" t="str">
         <f>IF(_CDQ_day_hour!P7="","",_CDQ_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S15" s="178" t="str">
+      <c r="S15" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q7="","",_CDQ_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T15" s="178" t="str">
+      <c r="T15" s="177" t="str">
         <f>IF(_CDQ_day_hour!R7="","",_CDQ_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U15" s="178" t="str">
+      <c r="U15" s="177" t="str">
         <f>IF(_CDQ_day_hour!S7="","",_CDQ_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V15" s="178" t="str">
+      <c r="V15" s="177" t="str">
         <f>IF(_CDQ_day_hour!T7="","",_CDQ_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W15" s="178" t="str">
+      <c r="W15" s="177" t="str">
         <f>IF(_CDQ_day_hour!U7="","",_CDQ_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X15" s="178" t="str">
+      <c r="X15" s="177" t="str">
         <f>IF(_CDQ_day_hour!V7="","",_CDQ_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y15" s="178" t="str">
+      <c r="Y15" s="177" t="str">
         <f>IF(_CDQ_day_hour!W7="","",_CDQ_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z15" s="178" t="str">
+      <c r="Z15" s="177" t="str">
         <f>IF(_CDQ_day_hour!X7="","",_CDQ_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA15" s="178" t="str">
+      <c r="AA15" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y7="","",_CDQ_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB15" s="178" t="str">
+      <c r="AB15" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z7="","",_CDQ_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC15" s="178" t="str">
+      <c r="AC15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA7="","",_CDQ_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD15" s="178" t="str">
+      <c r="AD15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB7="","",_CDQ_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE15" s="178" t="str">
+      <c r="AE15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC7="","",_CDQ_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF15" s="178" t="str">
+      <c r="AF15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD7="","",_CDQ_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG15" s="178" t="str">
+      <c r="AG15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE7="","",_CDQ_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH15" s="178" t="str">
+      <c r="AH15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF7="","",_CDQ_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI15" s="178" t="str">
+      <c r="AI15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG7="","",_CDQ_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ15" s="178" t="str">
+      <c r="AJ15" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH7="","",_CDQ_day_hour!AH7)</f>
         <v/>
       </c>
@@ -10494,7 +10494,7 @@
         <f>IF(_CDQ_day_hour!BF7="","",_CDQ_day_hour!BF7)</f>
         <v/>
       </c>
-      <c r="BI15" s="208" t="str">
+      <c r="BI15" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG7="","",_CDQ_day_hour!BG7)</f>
         <v/>
       </c>
@@ -10576,142 +10576,142 @@
       </c>
     </row>
     <row r="16" ht="15.75" spans="2:80">
-      <c r="B16" s="176">
+      <c r="B16" s="175">
         <v>0.25</v>
       </c>
-      <c r="C16" s="177" t="str">
+      <c r="C16" s="176" t="str">
         <f>IF(_CDQ_day_hour!A8="","",_CDQ_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D16" s="178" t="str">
+      <c r="D16" s="177" t="str">
         <f>IF(_CDQ_day_hour!B8="","",_CDQ_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E16" s="178" t="str">
+      <c r="E16" s="177" t="str">
         <f>IF(_CDQ_day_hour!C8="","",_CDQ_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F16" s="178" t="str">
+      <c r="F16" s="177" t="str">
         <f>IF(_CDQ_day_hour!D8="","",_CDQ_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G16" s="178" t="str">
+      <c r="G16" s="177" t="str">
         <f>IF(_CDQ_day_hour!E8="","",_CDQ_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H16" s="178" t="str">
+      <c r="H16" s="177" t="str">
         <f>IF(_CDQ_day_hour!F8="","",_CDQ_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I16" s="178" t="str">
+      <c r="I16" s="177" t="str">
         <f>IF(_CDQ_day_hour!G8="","",_CDQ_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J16" s="178" t="str">
+      <c r="J16" s="177" t="str">
         <f>IF(_CDQ_day_hour!H8="","",_CDQ_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K16" s="178" t="str">
+      <c r="K16" s="177" t="str">
         <f>IF(_CDQ_day_hour!I8="","",_CDQ_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L16" s="178" t="str">
+      <c r="L16" s="177" t="str">
         <f>IF(_CDQ_day_hour!J8="","",_CDQ_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M16" s="178" t="str">
+      <c r="M16" s="177" t="str">
         <f>IF(_CDQ_day_hour!K8="","",_CDQ_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N16" s="178" t="str">
+      <c r="N16" s="177" t="str">
         <f>IF(_CDQ_day_hour!L8="","",_CDQ_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O16" s="178" t="str">
+      <c r="O16" s="177" t="str">
         <f>IF(_CDQ_day_hour!M8="","",_CDQ_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P16" s="178" t="str">
+      <c r="P16" s="177" t="str">
         <f>IF(_CDQ_day_hour!N8="","",_CDQ_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q16" s="178" t="str">
+      <c r="Q16" s="177" t="str">
         <f>IF(_CDQ_day_hour!O8="","",_CDQ_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R16" s="178" t="str">
+      <c r="R16" s="177" t="str">
         <f>IF(_CDQ_day_hour!P8="","",_CDQ_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S16" s="178" t="str">
+      <c r="S16" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q8="","",_CDQ_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T16" s="178" t="str">
+      <c r="T16" s="177" t="str">
         <f>IF(_CDQ_day_hour!R8="","",_CDQ_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U16" s="178" t="str">
+      <c r="U16" s="177" t="str">
         <f>IF(_CDQ_day_hour!S8="","",_CDQ_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V16" s="178" t="str">
+      <c r="V16" s="177" t="str">
         <f>IF(_CDQ_day_hour!T8="","",_CDQ_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W16" s="178" t="str">
+      <c r="W16" s="177" t="str">
         <f>IF(_CDQ_day_hour!U8="","",_CDQ_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X16" s="178" t="str">
+      <c r="X16" s="177" t="str">
         <f>IF(_CDQ_day_hour!V8="","",_CDQ_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y16" s="178" t="str">
+      <c r="Y16" s="177" t="str">
         <f>IF(_CDQ_day_hour!W8="","",_CDQ_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z16" s="178" t="str">
+      <c r="Z16" s="177" t="str">
         <f>IF(_CDQ_day_hour!X8="","",_CDQ_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA16" s="178" t="str">
+      <c r="AA16" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y8="","",_CDQ_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB16" s="178" t="str">
+      <c r="AB16" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z8="","",_CDQ_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC16" s="178" t="str">
+      <c r="AC16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA8="","",_CDQ_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD16" s="178" t="str">
+      <c r="AD16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB8="","",_CDQ_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE16" s="178" t="str">
+      <c r="AE16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC8="","",_CDQ_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF16" s="178" t="str">
+      <c r="AF16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD8="","",_CDQ_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG16" s="178" t="str">
+      <c r="AG16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE8="","",_CDQ_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH16" s="178" t="str">
+      <c r="AH16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF8="","",_CDQ_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI16" s="178" t="str">
+      <c r="AI16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG8="","",_CDQ_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ16" s="178" t="str">
+      <c r="AJ16" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH8="","",_CDQ_day_hour!AH8)</f>
         <v/>
       </c>
@@ -10811,7 +10811,7 @@
         <f>IF(_CDQ_day_hour!BF8="","",_CDQ_day_hour!BF8)</f>
         <v/>
       </c>
-      <c r="BI16" s="208" t="str">
+      <c r="BI16" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG8="","",_CDQ_day_hour!BG8)</f>
         <v/>
       </c>
@@ -10893,142 +10893,142 @@
       </c>
     </row>
     <row r="17" ht="15.75" spans="2:80">
-      <c r="B17" s="176">
+      <c r="B17" s="175">
         <v>0.291666666666667</v>
       </c>
-      <c r="C17" s="177" t="str">
+      <c r="C17" s="176" t="str">
         <f>IF(_CDQ_day_hour!A9="","",_CDQ_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D17" s="178" t="str">
+      <c r="D17" s="177" t="str">
         <f>IF(_CDQ_day_hour!B9="","",_CDQ_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E17" s="178" t="str">
+      <c r="E17" s="177" t="str">
         <f>IF(_CDQ_day_hour!C9="","",_CDQ_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F17" s="178" t="str">
+      <c r="F17" s="177" t="str">
         <f>IF(_CDQ_day_hour!D9="","",_CDQ_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G17" s="178" t="str">
+      <c r="G17" s="177" t="str">
         <f>IF(_CDQ_day_hour!E9="","",_CDQ_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H17" s="178" t="str">
+      <c r="H17" s="177" t="str">
         <f>IF(_CDQ_day_hour!F9="","",_CDQ_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I17" s="178" t="str">
+      <c r="I17" s="177" t="str">
         <f>IF(_CDQ_day_hour!G9="","",_CDQ_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J17" s="178" t="str">
+      <c r="J17" s="177" t="str">
         <f>IF(_CDQ_day_hour!H9="","",_CDQ_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K17" s="178" t="str">
+      <c r="K17" s="177" t="str">
         <f>IF(_CDQ_day_hour!I9="","",_CDQ_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L17" s="178" t="str">
+      <c r="L17" s="177" t="str">
         <f>IF(_CDQ_day_hour!J9="","",_CDQ_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M17" s="178" t="str">
+      <c r="M17" s="177" t="str">
         <f>IF(_CDQ_day_hour!K9="","",_CDQ_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N17" s="178" t="str">
+      <c r="N17" s="177" t="str">
         <f>IF(_CDQ_day_hour!L9="","",_CDQ_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O17" s="178" t="str">
+      <c r="O17" s="177" t="str">
         <f>IF(_CDQ_day_hour!M9="","",_CDQ_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P17" s="178" t="str">
+      <c r="P17" s="177" t="str">
         <f>IF(_CDQ_day_hour!N9="","",_CDQ_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q17" s="178" t="str">
+      <c r="Q17" s="177" t="str">
         <f>IF(_CDQ_day_hour!O9="","",_CDQ_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R17" s="178" t="str">
+      <c r="R17" s="177" t="str">
         <f>IF(_CDQ_day_hour!P9="","",_CDQ_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S17" s="178" t="str">
+      <c r="S17" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q9="","",_CDQ_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T17" s="178" t="str">
+      <c r="T17" s="177" t="str">
         <f>IF(_CDQ_day_hour!R9="","",_CDQ_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U17" s="178" t="str">
+      <c r="U17" s="177" t="str">
         <f>IF(_CDQ_day_hour!S9="","",_CDQ_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V17" s="178" t="str">
+      <c r="V17" s="177" t="str">
         <f>IF(_CDQ_day_hour!T9="","",_CDQ_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W17" s="178" t="str">
+      <c r="W17" s="177" t="str">
         <f>IF(_CDQ_day_hour!U9="","",_CDQ_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X17" s="178" t="str">
+      <c r="X17" s="177" t="str">
         <f>IF(_CDQ_day_hour!V9="","",_CDQ_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y17" s="178" t="str">
+      <c r="Y17" s="177" t="str">
         <f>IF(_CDQ_day_hour!W9="","",_CDQ_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z17" s="178" t="str">
+      <c r="Z17" s="177" t="str">
         <f>IF(_CDQ_day_hour!X9="","",_CDQ_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA17" s="178" t="str">
+      <c r="AA17" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y9="","",_CDQ_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB17" s="178" t="str">
+      <c r="AB17" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z9="","",_CDQ_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC17" s="178" t="str">
+      <c r="AC17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA9="","",_CDQ_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD17" s="178" t="str">
+      <c r="AD17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB9="","",_CDQ_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE17" s="178" t="str">
+      <c r="AE17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC9="","",_CDQ_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF17" s="178" t="str">
+      <c r="AF17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD9="","",_CDQ_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG17" s="178" t="str">
+      <c r="AG17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE9="","",_CDQ_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH17" s="178" t="str">
+      <c r="AH17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF9="","",_CDQ_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI17" s="178" t="str">
+      <c r="AI17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG9="","",_CDQ_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ17" s="178" t="str">
+      <c r="AJ17" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH9="","",_CDQ_day_hour!AH9)</f>
         <v/>
       </c>
@@ -11128,7 +11128,7 @@
         <f>IF(_CDQ_day_hour!BF9="","",_CDQ_day_hour!BF9)</f>
         <v/>
       </c>
-      <c r="BI17" s="208" t="str">
+      <c r="BI17" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG9="","",_CDQ_day_hour!BG9)</f>
         <v/>
       </c>
@@ -11210,142 +11210,142 @@
       </c>
     </row>
     <row r="18" ht="15.75" spans="2:80">
-      <c r="B18" s="176">
+      <c r="B18" s="175">
         <v>0.333333333333333</v>
       </c>
-      <c r="C18" s="177" t="str">
+      <c r="C18" s="176" t="str">
         <f>IF(_CDQ_day_hour!A10="","",_CDQ_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D18" s="178" t="str">
+      <c r="D18" s="177" t="str">
         <f>IF(_CDQ_day_hour!B10="","",_CDQ_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E18" s="178" t="str">
+      <c r="E18" s="177" t="str">
         <f>IF(_CDQ_day_hour!C10="","",_CDQ_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F18" s="178" t="str">
+      <c r="F18" s="177" t="str">
         <f>IF(_CDQ_day_hour!D10="","",_CDQ_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G18" s="178" t="str">
+      <c r="G18" s="177" t="str">
         <f>IF(_CDQ_day_hour!E10="","",_CDQ_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H18" s="178" t="str">
+      <c r="H18" s="177" t="str">
         <f>IF(_CDQ_day_hour!F10="","",_CDQ_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I18" s="178" t="str">
+      <c r="I18" s="177" t="str">
         <f>IF(_CDQ_day_hour!G10="","",_CDQ_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J18" s="178" t="str">
+      <c r="J18" s="177" t="str">
         <f>IF(_CDQ_day_hour!H10="","",_CDQ_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K18" s="178" t="str">
+      <c r="K18" s="177" t="str">
         <f>IF(_CDQ_day_hour!I10="","",_CDQ_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L18" s="178" t="str">
+      <c r="L18" s="177" t="str">
         <f>IF(_CDQ_day_hour!J10="","",_CDQ_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M18" s="178" t="str">
+      <c r="M18" s="177" t="str">
         <f>IF(_CDQ_day_hour!K10="","",_CDQ_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N18" s="178" t="str">
+      <c r="N18" s="177" t="str">
         <f>IF(_CDQ_day_hour!L10="","",_CDQ_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O18" s="178" t="str">
+      <c r="O18" s="177" t="str">
         <f>IF(_CDQ_day_hour!M10="","",_CDQ_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P18" s="178" t="str">
+      <c r="P18" s="177" t="str">
         <f>IF(_CDQ_day_hour!N10="","",_CDQ_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q18" s="178" t="str">
+      <c r="Q18" s="177" t="str">
         <f>IF(_CDQ_day_hour!O10="","",_CDQ_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R18" s="178" t="str">
+      <c r="R18" s="177" t="str">
         <f>IF(_CDQ_day_hour!P10="","",_CDQ_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S18" s="178" t="str">
+      <c r="S18" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q10="","",_CDQ_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T18" s="178" t="str">
+      <c r="T18" s="177" t="str">
         <f>IF(_CDQ_day_hour!R10="","",_CDQ_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U18" s="178" t="str">
+      <c r="U18" s="177" t="str">
         <f>IF(_CDQ_day_hour!S10="","",_CDQ_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V18" s="178" t="str">
+      <c r="V18" s="177" t="str">
         <f>IF(_CDQ_day_hour!T10="","",_CDQ_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W18" s="178" t="str">
+      <c r="W18" s="177" t="str">
         <f>IF(_CDQ_day_hour!U10="","",_CDQ_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X18" s="178" t="str">
+      <c r="X18" s="177" t="str">
         <f>IF(_CDQ_day_hour!V10="","",_CDQ_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y18" s="178" t="str">
+      <c r="Y18" s="177" t="str">
         <f>IF(_CDQ_day_hour!W10="","",_CDQ_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z18" s="178" t="str">
+      <c r="Z18" s="177" t="str">
         <f>IF(_CDQ_day_hour!X10="","",_CDQ_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA18" s="178" t="str">
+      <c r="AA18" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y10="","",_CDQ_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB18" s="178" t="str">
+      <c r="AB18" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z10="","",_CDQ_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC18" s="178" t="str">
+      <c r="AC18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA10="","",_CDQ_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD18" s="178" t="str">
+      <c r="AD18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB10="","",_CDQ_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE18" s="178" t="str">
+      <c r="AE18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC10="","",_CDQ_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF18" s="178" t="str">
+      <c r="AF18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD10="","",_CDQ_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG18" s="178" t="str">
+      <c r="AG18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE10="","",_CDQ_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH18" s="178" t="str">
+      <c r="AH18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF10="","",_CDQ_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI18" s="178" t="str">
+      <c r="AI18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG10="","",_CDQ_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ18" s="178" t="str">
+      <c r="AJ18" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH10="","",_CDQ_day_hour!AH10)</f>
         <v/>
       </c>
@@ -11445,7 +11445,7 @@
         <f>IF(_CDQ_day_hour!BF10="","",_CDQ_day_hour!BF10)</f>
         <v/>
       </c>
-      <c r="BI18" s="208" t="str">
+      <c r="BI18" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG10="","",_CDQ_day_hour!BG10)</f>
         <v/>
       </c>
@@ -11527,142 +11527,142 @@
       </c>
     </row>
     <row r="19" ht="15.75" spans="2:80">
-      <c r="B19" s="176">
+      <c r="B19" s="175">
         <v>0.375</v>
       </c>
-      <c r="C19" s="177" t="str">
+      <c r="C19" s="176" t="str">
         <f>IF(_CDQ_day_hour!A11="","",_CDQ_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D19" s="178" t="str">
+      <c r="D19" s="177" t="str">
         <f>IF(_CDQ_day_hour!B11="","",_CDQ_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E19" s="178" t="str">
+      <c r="E19" s="177" t="str">
         <f>IF(_CDQ_day_hour!C11="","",_CDQ_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F19" s="178" t="str">
+      <c r="F19" s="177" t="str">
         <f>IF(_CDQ_day_hour!D11="","",_CDQ_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G19" s="178" t="str">
+      <c r="G19" s="177" t="str">
         <f>IF(_CDQ_day_hour!E11="","",_CDQ_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H19" s="178" t="str">
+      <c r="H19" s="177" t="str">
         <f>IF(_CDQ_day_hour!F11="","",_CDQ_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I19" s="178" t="str">
+      <c r="I19" s="177" t="str">
         <f>IF(_CDQ_day_hour!G11="","",_CDQ_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J19" s="178" t="str">
+      <c r="J19" s="177" t="str">
         <f>IF(_CDQ_day_hour!H11="","",_CDQ_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K19" s="178" t="str">
+      <c r="K19" s="177" t="str">
         <f>IF(_CDQ_day_hour!I11="","",_CDQ_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L19" s="178" t="str">
+      <c r="L19" s="177" t="str">
         <f>IF(_CDQ_day_hour!J11="","",_CDQ_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M19" s="178" t="str">
+      <c r="M19" s="177" t="str">
         <f>IF(_CDQ_day_hour!K11="","",_CDQ_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N19" s="178" t="str">
+      <c r="N19" s="177" t="str">
         <f>IF(_CDQ_day_hour!L11="","",_CDQ_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O19" s="178" t="str">
+      <c r="O19" s="177" t="str">
         <f>IF(_CDQ_day_hour!M11="","",_CDQ_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P19" s="178" t="str">
+      <c r="P19" s="177" t="str">
         <f>IF(_CDQ_day_hour!N11="","",_CDQ_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q19" s="178" t="str">
+      <c r="Q19" s="177" t="str">
         <f>IF(_CDQ_day_hour!O11="","",_CDQ_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R19" s="178" t="str">
+      <c r="R19" s="177" t="str">
         <f>IF(_CDQ_day_hour!P11="","",_CDQ_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S19" s="178" t="str">
+      <c r="S19" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q11="","",_CDQ_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T19" s="178" t="str">
+      <c r="T19" s="177" t="str">
         <f>IF(_CDQ_day_hour!R11="","",_CDQ_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U19" s="178" t="str">
+      <c r="U19" s="177" t="str">
         <f>IF(_CDQ_day_hour!S11="","",_CDQ_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V19" s="178" t="str">
+      <c r="V19" s="177" t="str">
         <f>IF(_CDQ_day_hour!T11="","",_CDQ_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W19" s="178" t="str">
+      <c r="W19" s="177" t="str">
         <f>IF(_CDQ_day_hour!U11="","",_CDQ_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X19" s="178" t="str">
+      <c r="X19" s="177" t="str">
         <f>IF(_CDQ_day_hour!V11="","",_CDQ_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y19" s="178" t="str">
+      <c r="Y19" s="177" t="str">
         <f>IF(_CDQ_day_hour!W11="","",_CDQ_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z19" s="178" t="str">
+      <c r="Z19" s="177" t="str">
         <f>IF(_CDQ_day_hour!X11="","",_CDQ_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA19" s="178" t="str">
+      <c r="AA19" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y11="","",_CDQ_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB19" s="178" t="str">
+      <c r="AB19" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z11="","",_CDQ_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC19" s="178" t="str">
+      <c r="AC19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA11="","",_CDQ_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD19" s="178" t="str">
+      <c r="AD19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB11="","",_CDQ_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE19" s="178" t="str">
+      <c r="AE19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC11="","",_CDQ_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF19" s="178" t="str">
+      <c r="AF19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD11="","",_CDQ_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG19" s="178" t="str">
+      <c r="AG19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE11="","",_CDQ_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH19" s="178" t="str">
+      <c r="AH19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF11="","",_CDQ_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI19" s="178" t="str">
+      <c r="AI19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG11="","",_CDQ_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ19" s="178" t="str">
+      <c r="AJ19" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH11="","",_CDQ_day_hour!AH11)</f>
         <v/>
       </c>
@@ -11762,7 +11762,7 @@
         <f>IF(_CDQ_day_hour!BF11="","",_CDQ_day_hour!BF11)</f>
         <v/>
       </c>
-      <c r="BI19" s="208" t="str">
+      <c r="BI19" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG11="","",_CDQ_day_hour!BG11)</f>
         <v/>
       </c>
@@ -11844,142 +11844,142 @@
       </c>
     </row>
     <row r="20" spans="2:80">
-      <c r="B20" s="176">
+      <c r="B20" s="175">
         <v>0.416666666666666</v>
       </c>
-      <c r="C20" s="177" t="str">
+      <c r="C20" s="176" t="str">
         <f>IF(_CDQ_day_hour!A12="","",_CDQ_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D20" s="178" t="str">
+      <c r="D20" s="177" t="str">
         <f>IF(_CDQ_day_hour!B12="","",_CDQ_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E20" s="178" t="str">
+      <c r="E20" s="177" t="str">
         <f>IF(_CDQ_day_hour!C12="","",_CDQ_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F20" s="178" t="str">
+      <c r="F20" s="177" t="str">
         <f>IF(_CDQ_day_hour!D12="","",_CDQ_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G20" s="178" t="str">
+      <c r="G20" s="177" t="str">
         <f>IF(_CDQ_day_hour!E12="","",_CDQ_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H20" s="178" t="str">
+      <c r="H20" s="177" t="str">
         <f>IF(_CDQ_day_hour!F12="","",_CDQ_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I20" s="178" t="str">
+      <c r="I20" s="177" t="str">
         <f>IF(_CDQ_day_hour!G12="","",_CDQ_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J20" s="178" t="str">
+      <c r="J20" s="177" t="str">
         <f>IF(_CDQ_day_hour!H12="","",_CDQ_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K20" s="178" t="str">
+      <c r="K20" s="177" t="str">
         <f>IF(_CDQ_day_hour!I12="","",_CDQ_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L20" s="178" t="str">
+      <c r="L20" s="177" t="str">
         <f>IF(_CDQ_day_hour!J12="","",_CDQ_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M20" s="178" t="str">
+      <c r="M20" s="177" t="str">
         <f>IF(_CDQ_day_hour!K12="","",_CDQ_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N20" s="178" t="str">
+      <c r="N20" s="177" t="str">
         <f>IF(_CDQ_day_hour!L12="","",_CDQ_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O20" s="178" t="str">
+      <c r="O20" s="177" t="str">
         <f>IF(_CDQ_day_hour!M12="","",_CDQ_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P20" s="178" t="str">
+      <c r="P20" s="177" t="str">
         <f>IF(_CDQ_day_hour!N12="","",_CDQ_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q20" s="178" t="str">
+      <c r="Q20" s="177" t="str">
         <f>IF(_CDQ_day_hour!O12="","",_CDQ_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R20" s="178" t="str">
+      <c r="R20" s="177" t="str">
         <f>IF(_CDQ_day_hour!P12="","",_CDQ_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S20" s="178" t="str">
+      <c r="S20" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q12="","",_CDQ_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T20" s="178" t="str">
+      <c r="T20" s="177" t="str">
         <f>IF(_CDQ_day_hour!R12="","",_CDQ_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U20" s="178" t="str">
+      <c r="U20" s="177" t="str">
         <f>IF(_CDQ_day_hour!S12="","",_CDQ_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V20" s="178" t="str">
+      <c r="V20" s="177" t="str">
         <f>IF(_CDQ_day_hour!T12="","",_CDQ_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W20" s="178" t="str">
+      <c r="W20" s="177" t="str">
         <f>IF(_CDQ_day_hour!U12="","",_CDQ_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X20" s="178" t="str">
+      <c r="X20" s="177" t="str">
         <f>IF(_CDQ_day_hour!V12="","",_CDQ_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y20" s="178" t="str">
+      <c r="Y20" s="177" t="str">
         <f>IF(_CDQ_day_hour!W12="","",_CDQ_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z20" s="178" t="str">
+      <c r="Z20" s="177" t="str">
         <f>IF(_CDQ_day_hour!X12="","",_CDQ_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA20" s="178" t="str">
+      <c r="AA20" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y12="","",_CDQ_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB20" s="178" t="str">
+      <c r="AB20" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z12="","",_CDQ_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC20" s="178" t="str">
+      <c r="AC20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA12="","",_CDQ_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD20" s="178" t="str">
+      <c r="AD20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB12="","",_CDQ_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE20" s="178" t="str">
+      <c r="AE20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC12="","",_CDQ_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF20" s="178" t="str">
+      <c r="AF20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD12="","",_CDQ_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG20" s="178" t="str">
+      <c r="AG20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE12="","",_CDQ_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH20" s="178" t="str">
+      <c r="AH20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF12="","",_CDQ_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI20" s="178" t="str">
+      <c r="AI20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG12="","",_CDQ_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ20" s="178" t="str">
+      <c r="AJ20" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH12="","",_CDQ_day_hour!AH12)</f>
         <v/>
       </c>
@@ -12079,7 +12079,7 @@
         <f>IF(_CDQ_day_hour!BF12="","",_CDQ_day_hour!BF12)</f>
         <v/>
       </c>
-      <c r="BI20" s="208" t="str">
+      <c r="BI20" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG12="","",_CDQ_day_hour!BG12)</f>
         <v/>
       </c>
@@ -12161,142 +12161,142 @@
       </c>
     </row>
     <row r="21" spans="2:80">
-      <c r="B21" s="176">
+      <c r="B21" s="175">
         <v>0.458333333333333</v>
       </c>
-      <c r="C21" s="177" t="str">
+      <c r="C21" s="176" t="str">
         <f>IF(_CDQ_day_hour!A13="","",_CDQ_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D21" s="178" t="str">
+      <c r="D21" s="177" t="str">
         <f>IF(_CDQ_day_hour!B13="","",_CDQ_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E21" s="178" t="str">
+      <c r="E21" s="177" t="str">
         <f>IF(_CDQ_day_hour!C13="","",_CDQ_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F21" s="178" t="str">
+      <c r="F21" s="177" t="str">
         <f>IF(_CDQ_day_hour!D13="","",_CDQ_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G21" s="178" t="str">
+      <c r="G21" s="177" t="str">
         <f>IF(_CDQ_day_hour!E13="","",_CDQ_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H21" s="178" t="str">
+      <c r="H21" s="177" t="str">
         <f>IF(_CDQ_day_hour!F13="","",_CDQ_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I21" s="178" t="str">
+      <c r="I21" s="177" t="str">
         <f>IF(_CDQ_day_hour!G13="","",_CDQ_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J21" s="178" t="str">
+      <c r="J21" s="177" t="str">
         <f>IF(_CDQ_day_hour!H13="","",_CDQ_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K21" s="178" t="str">
+      <c r="K21" s="177" t="str">
         <f>IF(_CDQ_day_hour!I13="","",_CDQ_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L21" s="178" t="str">
+      <c r="L21" s="177" t="str">
         <f>IF(_CDQ_day_hour!J13="","",_CDQ_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M21" s="178" t="str">
+      <c r="M21" s="177" t="str">
         <f>IF(_CDQ_day_hour!K13="","",_CDQ_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N21" s="178" t="str">
+      <c r="N21" s="177" t="str">
         <f>IF(_CDQ_day_hour!L13="","",_CDQ_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O21" s="178" t="str">
+      <c r="O21" s="177" t="str">
         <f>IF(_CDQ_day_hour!M13="","",_CDQ_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P21" s="178" t="str">
+      <c r="P21" s="177" t="str">
         <f>IF(_CDQ_day_hour!N13="","",_CDQ_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q21" s="178" t="str">
+      <c r="Q21" s="177" t="str">
         <f>IF(_CDQ_day_hour!O13="","",_CDQ_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R21" s="178" t="str">
+      <c r="R21" s="177" t="str">
         <f>IF(_CDQ_day_hour!P13="","",_CDQ_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S21" s="178" t="str">
+      <c r="S21" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q13="","",_CDQ_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T21" s="178" t="str">
+      <c r="T21" s="177" t="str">
         <f>IF(_CDQ_day_hour!R13="","",_CDQ_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U21" s="178" t="str">
+      <c r="U21" s="177" t="str">
         <f>IF(_CDQ_day_hour!S13="","",_CDQ_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V21" s="178" t="str">
+      <c r="V21" s="177" t="str">
         <f>IF(_CDQ_day_hour!T13="","",_CDQ_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W21" s="178" t="str">
+      <c r="W21" s="177" t="str">
         <f>IF(_CDQ_day_hour!U13="","",_CDQ_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X21" s="178" t="str">
+      <c r="X21" s="177" t="str">
         <f>IF(_CDQ_day_hour!V13="","",_CDQ_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y21" s="178" t="str">
+      <c r="Y21" s="177" t="str">
         <f>IF(_CDQ_day_hour!W13="","",_CDQ_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z21" s="178" t="str">
+      <c r="Z21" s="177" t="str">
         <f>IF(_CDQ_day_hour!X13="","",_CDQ_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA21" s="178" t="str">
+      <c r="AA21" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y13="","",_CDQ_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB21" s="178" t="str">
+      <c r="AB21" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z13="","",_CDQ_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC21" s="178" t="str">
+      <c r="AC21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA13="","",_CDQ_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD21" s="178" t="str">
+      <c r="AD21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB13="","",_CDQ_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE21" s="178" t="str">
+      <c r="AE21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC13="","",_CDQ_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF21" s="178" t="str">
+      <c r="AF21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD13="","",_CDQ_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG21" s="178" t="str">
+      <c r="AG21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE13="","",_CDQ_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH21" s="178" t="str">
+      <c r="AH21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF13="","",_CDQ_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI21" s="178" t="str">
+      <c r="AI21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG13="","",_CDQ_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ21" s="178" t="str">
+      <c r="AJ21" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH13="","",_CDQ_day_hour!AH13)</f>
         <v/>
       </c>
@@ -12396,7 +12396,7 @@
         <f>IF(_CDQ_day_hour!BF13="","",_CDQ_day_hour!BF13)</f>
         <v/>
       </c>
-      <c r="BI21" s="208" t="str">
+      <c r="BI21" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG13="","",_CDQ_day_hour!BG13)</f>
         <v/>
       </c>
@@ -12478,142 +12478,142 @@
       </c>
     </row>
     <row r="22" spans="2:80">
-      <c r="B22" s="176">
+      <c r="B22" s="175">
         <v>0.5</v>
       </c>
-      <c r="C22" s="177" t="str">
+      <c r="C22" s="176" t="str">
         <f>IF(_CDQ_day_hour!A14="","",_CDQ_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D22" s="178" t="str">
+      <c r="D22" s="177" t="str">
         <f>IF(_CDQ_day_hour!B14="","",_CDQ_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E22" s="178" t="str">
+      <c r="E22" s="177" t="str">
         <f>IF(_CDQ_day_hour!C14="","",_CDQ_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F22" s="178" t="str">
+      <c r="F22" s="177" t="str">
         <f>IF(_CDQ_day_hour!D14="","",_CDQ_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G22" s="178" t="str">
+      <c r="G22" s="177" t="str">
         <f>IF(_CDQ_day_hour!E14="","",_CDQ_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H22" s="178" t="str">
+      <c r="H22" s="177" t="str">
         <f>IF(_CDQ_day_hour!F14="","",_CDQ_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I22" s="178" t="str">
+      <c r="I22" s="177" t="str">
         <f>IF(_CDQ_day_hour!G14="","",_CDQ_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J22" s="178" t="str">
+      <c r="J22" s="177" t="str">
         <f>IF(_CDQ_day_hour!H14="","",_CDQ_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K22" s="178" t="str">
+      <c r="K22" s="177" t="str">
         <f>IF(_CDQ_day_hour!I14="","",_CDQ_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L22" s="178" t="str">
+      <c r="L22" s="177" t="str">
         <f>IF(_CDQ_day_hour!J14="","",_CDQ_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M22" s="178" t="str">
+      <c r="M22" s="177" t="str">
         <f>IF(_CDQ_day_hour!K14="","",_CDQ_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N22" s="178" t="str">
+      <c r="N22" s="177" t="str">
         <f>IF(_CDQ_day_hour!L14="","",_CDQ_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O22" s="178" t="str">
+      <c r="O22" s="177" t="str">
         <f>IF(_CDQ_day_hour!M14="","",_CDQ_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P22" s="178" t="str">
+      <c r="P22" s="177" t="str">
         <f>IF(_CDQ_day_hour!N14="","",_CDQ_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q22" s="178" t="str">
+      <c r="Q22" s="177" t="str">
         <f>IF(_CDQ_day_hour!O14="","",_CDQ_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R22" s="178" t="str">
+      <c r="R22" s="177" t="str">
         <f>IF(_CDQ_day_hour!P14="","",_CDQ_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S22" s="178" t="str">
+      <c r="S22" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q14="","",_CDQ_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T22" s="178" t="str">
+      <c r="T22" s="177" t="str">
         <f>IF(_CDQ_day_hour!R14="","",_CDQ_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U22" s="178" t="str">
+      <c r="U22" s="177" t="str">
         <f>IF(_CDQ_day_hour!S14="","",_CDQ_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V22" s="178" t="str">
+      <c r="V22" s="177" t="str">
         <f>IF(_CDQ_day_hour!T14="","",_CDQ_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W22" s="178" t="str">
+      <c r="W22" s="177" t="str">
         <f>IF(_CDQ_day_hour!U14="","",_CDQ_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X22" s="178" t="str">
+      <c r="X22" s="177" t="str">
         <f>IF(_CDQ_day_hour!V14="","",_CDQ_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y22" s="178" t="str">
+      <c r="Y22" s="177" t="str">
         <f>IF(_CDQ_day_hour!W14="","",_CDQ_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z22" s="178" t="str">
+      <c r="Z22" s="177" t="str">
         <f>IF(_CDQ_day_hour!X14="","",_CDQ_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA22" s="178" t="str">
+      <c r="AA22" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y14="","",_CDQ_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB22" s="178" t="str">
+      <c r="AB22" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z14="","",_CDQ_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC22" s="178" t="str">
+      <c r="AC22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA14="","",_CDQ_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD22" s="178" t="str">
+      <c r="AD22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB14="","",_CDQ_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE22" s="178" t="str">
+      <c r="AE22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC14="","",_CDQ_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF22" s="178" t="str">
+      <c r="AF22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD14="","",_CDQ_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG22" s="178" t="str">
+      <c r="AG22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE14="","",_CDQ_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH22" s="178" t="str">
+      <c r="AH22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF14="","",_CDQ_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI22" s="178" t="str">
+      <c r="AI22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG14="","",_CDQ_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ22" s="178" t="str">
+      <c r="AJ22" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH14="","",_CDQ_day_hour!AH14)</f>
         <v/>
       </c>
@@ -12713,7 +12713,7 @@
         <f>IF(_CDQ_day_hour!BF14="","",_CDQ_day_hour!BF14)</f>
         <v/>
       </c>
-      <c r="BI22" s="208" t="str">
+      <c r="BI22" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG14="","",_CDQ_day_hour!BG14)</f>
         <v/>
       </c>
@@ -12795,142 +12795,142 @@
       </c>
     </row>
     <row r="23" spans="2:80">
-      <c r="B23" s="176">
+      <c r="B23" s="175">
         <v>0.541666666666666</v>
       </c>
-      <c r="C23" s="177" t="str">
+      <c r="C23" s="176" t="str">
         <f>IF(_CDQ_day_hour!A15="","",_CDQ_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D23" s="178" t="str">
+      <c r="D23" s="177" t="str">
         <f>IF(_CDQ_day_hour!B15="","",_CDQ_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E23" s="178" t="str">
+      <c r="E23" s="177" t="str">
         <f>IF(_CDQ_day_hour!C15="","",_CDQ_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F23" s="178" t="str">
+      <c r="F23" s="177" t="str">
         <f>IF(_CDQ_day_hour!D15="","",_CDQ_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G23" s="178" t="str">
+      <c r="G23" s="177" t="str">
         <f>IF(_CDQ_day_hour!E15="","",_CDQ_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H23" s="178" t="str">
+      <c r="H23" s="177" t="str">
         <f>IF(_CDQ_day_hour!F15="","",_CDQ_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I23" s="178" t="str">
+      <c r="I23" s="177" t="str">
         <f>IF(_CDQ_day_hour!G15="","",_CDQ_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J23" s="178" t="str">
+      <c r="J23" s="177" t="str">
         <f>IF(_CDQ_day_hour!H15="","",_CDQ_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K23" s="178" t="str">
+      <c r="K23" s="177" t="str">
         <f>IF(_CDQ_day_hour!I15="","",_CDQ_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L23" s="178" t="str">
+      <c r="L23" s="177" t="str">
         <f>IF(_CDQ_day_hour!J15="","",_CDQ_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M23" s="178" t="str">
+      <c r="M23" s="177" t="str">
         <f>IF(_CDQ_day_hour!K15="","",_CDQ_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N23" s="178" t="str">
+      <c r="N23" s="177" t="str">
         <f>IF(_CDQ_day_hour!L15="","",_CDQ_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O23" s="178" t="str">
+      <c r="O23" s="177" t="str">
         <f>IF(_CDQ_day_hour!M15="","",_CDQ_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P23" s="178" t="str">
+      <c r="P23" s="177" t="str">
         <f>IF(_CDQ_day_hour!N15="","",_CDQ_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q23" s="178" t="str">
+      <c r="Q23" s="177" t="str">
         <f>IF(_CDQ_day_hour!O15="","",_CDQ_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R23" s="178" t="str">
+      <c r="R23" s="177" t="str">
         <f>IF(_CDQ_day_hour!P15="","",_CDQ_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S23" s="178" t="str">
+      <c r="S23" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q15="","",_CDQ_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T23" s="178" t="str">
+      <c r="T23" s="177" t="str">
         <f>IF(_CDQ_day_hour!R15="","",_CDQ_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U23" s="178" t="str">
+      <c r="U23" s="177" t="str">
         <f>IF(_CDQ_day_hour!S15="","",_CDQ_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V23" s="178" t="str">
+      <c r="V23" s="177" t="str">
         <f>IF(_CDQ_day_hour!T15="","",_CDQ_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W23" s="178" t="str">
+      <c r="W23" s="177" t="str">
         <f>IF(_CDQ_day_hour!U15="","",_CDQ_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X23" s="178" t="str">
+      <c r="X23" s="177" t="str">
         <f>IF(_CDQ_day_hour!V15="","",_CDQ_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y23" s="178" t="str">
+      <c r="Y23" s="177" t="str">
         <f>IF(_CDQ_day_hour!W15="","",_CDQ_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z23" s="178" t="str">
+      <c r="Z23" s="177" t="str">
         <f>IF(_CDQ_day_hour!X15="","",_CDQ_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA23" s="178" t="str">
+      <c r="AA23" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y15="","",_CDQ_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB23" s="178" t="str">
+      <c r="AB23" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z15="","",_CDQ_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC23" s="178" t="str">
+      <c r="AC23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA15="","",_CDQ_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD23" s="178" t="str">
+      <c r="AD23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB15="","",_CDQ_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE23" s="178" t="str">
+      <c r="AE23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC15="","",_CDQ_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF23" s="178" t="str">
+      <c r="AF23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD15="","",_CDQ_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG23" s="178" t="str">
+      <c r="AG23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE15="","",_CDQ_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH23" s="178" t="str">
+      <c r="AH23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF15="","",_CDQ_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI23" s="178" t="str">
+      <c r="AI23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG15="","",_CDQ_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ23" s="178" t="str">
+      <c r="AJ23" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH15="","",_CDQ_day_hour!AH15)</f>
         <v/>
       </c>
@@ -13030,7 +13030,7 @@
         <f>IF(_CDQ_day_hour!BF15="","",_CDQ_day_hour!BF15)</f>
         <v/>
       </c>
-      <c r="BI23" s="208" t="str">
+      <c r="BI23" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG15="","",_CDQ_day_hour!BG15)</f>
         <v/>
       </c>
@@ -13112,142 +13112,142 @@
       </c>
     </row>
     <row r="24" spans="2:80">
-      <c r="B24" s="179">
+      <c r="B24" s="178">
         <v>0.583333333333333</v>
       </c>
-      <c r="C24" s="177" t="str">
+      <c r="C24" s="176" t="str">
         <f>IF(_CDQ_day_hour!A16="","",_CDQ_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D24" s="178" t="str">
+      <c r="D24" s="177" t="str">
         <f>IF(_CDQ_day_hour!B16="","",_CDQ_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E24" s="178" t="str">
+      <c r="E24" s="177" t="str">
         <f>IF(_CDQ_day_hour!C16="","",_CDQ_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F24" s="178" t="str">
+      <c r="F24" s="177" t="str">
         <f>IF(_CDQ_day_hour!D16="","",_CDQ_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G24" s="178" t="str">
+      <c r="G24" s="177" t="str">
         <f>IF(_CDQ_day_hour!E16="","",_CDQ_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H24" s="178" t="str">
+      <c r="H24" s="177" t="str">
         <f>IF(_CDQ_day_hour!F16="","",_CDQ_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I24" s="178" t="str">
+      <c r="I24" s="177" t="str">
         <f>IF(_CDQ_day_hour!G16="","",_CDQ_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J24" s="178" t="str">
+      <c r="J24" s="177" t="str">
         <f>IF(_CDQ_day_hour!H16="","",_CDQ_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K24" s="178" t="str">
+      <c r="K24" s="177" t="str">
         <f>IF(_CDQ_day_hour!I16="","",_CDQ_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L24" s="178" t="str">
+      <c r="L24" s="177" t="str">
         <f>IF(_CDQ_day_hour!J16="","",_CDQ_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M24" s="178" t="str">
+      <c r="M24" s="177" t="str">
         <f>IF(_CDQ_day_hour!K16="","",_CDQ_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N24" s="178" t="str">
+      <c r="N24" s="177" t="str">
         <f>IF(_CDQ_day_hour!L16="","",_CDQ_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O24" s="178" t="str">
+      <c r="O24" s="177" t="str">
         <f>IF(_CDQ_day_hour!M16="","",_CDQ_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P24" s="178" t="str">
+      <c r="P24" s="177" t="str">
         <f>IF(_CDQ_day_hour!N16="","",_CDQ_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q24" s="178" t="str">
+      <c r="Q24" s="177" t="str">
         <f>IF(_CDQ_day_hour!O16="","",_CDQ_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R24" s="178" t="str">
+      <c r="R24" s="177" t="str">
         <f>IF(_CDQ_day_hour!P16="","",_CDQ_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S24" s="178" t="str">
+      <c r="S24" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q16="","",_CDQ_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T24" s="178" t="str">
+      <c r="T24" s="177" t="str">
         <f>IF(_CDQ_day_hour!R16="","",_CDQ_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U24" s="178" t="str">
+      <c r="U24" s="177" t="str">
         <f>IF(_CDQ_day_hour!S16="","",_CDQ_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V24" s="178" t="str">
+      <c r="V24" s="177" t="str">
         <f>IF(_CDQ_day_hour!T16="","",_CDQ_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W24" s="178" t="str">
+      <c r="W24" s="177" t="str">
         <f>IF(_CDQ_day_hour!U16="","",_CDQ_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X24" s="178" t="str">
+      <c r="X24" s="177" t="str">
         <f>IF(_CDQ_day_hour!V16="","",_CDQ_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y24" s="178" t="str">
+      <c r="Y24" s="177" t="str">
         <f>IF(_CDQ_day_hour!W16="","",_CDQ_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z24" s="178" t="str">
+      <c r="Z24" s="177" t="str">
         <f>IF(_CDQ_day_hour!X16="","",_CDQ_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA24" s="178" t="str">
+      <c r="AA24" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y16="","",_CDQ_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB24" s="178" t="str">
+      <c r="AB24" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z16="","",_CDQ_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC24" s="178" t="str">
+      <c r="AC24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA16="","",_CDQ_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD24" s="178" t="str">
+      <c r="AD24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB16="","",_CDQ_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE24" s="178" t="str">
+      <c r="AE24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC16="","",_CDQ_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF24" s="178" t="str">
+      <c r="AF24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD16="","",_CDQ_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG24" s="178" t="str">
+      <c r="AG24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE16="","",_CDQ_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH24" s="178" t="str">
+      <c r="AH24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF16="","",_CDQ_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI24" s="178" t="str">
+      <c r="AI24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG16="","",_CDQ_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ24" s="178" t="str">
+      <c r="AJ24" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH16="","",_CDQ_day_hour!AH16)</f>
         <v/>
       </c>
@@ -13347,7 +13347,7 @@
         <f>IF(_CDQ_day_hour!BF16="","",_CDQ_day_hour!BF16)</f>
         <v/>
       </c>
-      <c r="BI24" s="208" t="str">
+      <c r="BI24" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG16="","",_CDQ_day_hour!BG16)</f>
         <v/>
       </c>
@@ -13429,142 +13429,142 @@
       </c>
     </row>
     <row r="25" spans="2:80">
-      <c r="B25" s="176">
+      <c r="B25" s="175">
         <v>0.625</v>
       </c>
-      <c r="C25" s="177" t="str">
+      <c r="C25" s="176" t="str">
         <f>IF(_CDQ_day_hour!A17="","",_CDQ_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D25" s="178" t="str">
+      <c r="D25" s="177" t="str">
         <f>IF(_CDQ_day_hour!B17="","",_CDQ_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E25" s="178" t="str">
+      <c r="E25" s="177" t="str">
         <f>IF(_CDQ_day_hour!C17="","",_CDQ_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F25" s="178" t="str">
+      <c r="F25" s="177" t="str">
         <f>IF(_CDQ_day_hour!D17="","",_CDQ_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G25" s="178" t="str">
+      <c r="G25" s="177" t="str">
         <f>IF(_CDQ_day_hour!E17="","",_CDQ_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H25" s="178" t="str">
+      <c r="H25" s="177" t="str">
         <f>IF(_CDQ_day_hour!F17="","",_CDQ_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I25" s="178" t="str">
+      <c r="I25" s="177" t="str">
         <f>IF(_CDQ_day_hour!G17="","",_CDQ_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J25" s="178" t="str">
+      <c r="J25" s="177" t="str">
         <f>IF(_CDQ_day_hour!H17="","",_CDQ_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K25" s="178" t="str">
+      <c r="K25" s="177" t="str">
         <f>IF(_CDQ_day_hour!I17="","",_CDQ_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L25" s="178" t="str">
+      <c r="L25" s="177" t="str">
         <f>IF(_CDQ_day_hour!J17="","",_CDQ_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M25" s="178" t="str">
+      <c r="M25" s="177" t="str">
         <f>IF(_CDQ_day_hour!K17="","",_CDQ_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N25" s="178" t="str">
+      <c r="N25" s="177" t="str">
         <f>IF(_CDQ_day_hour!L17="","",_CDQ_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O25" s="178" t="str">
+      <c r="O25" s="177" t="str">
         <f>IF(_CDQ_day_hour!M17="","",_CDQ_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P25" s="178" t="str">
+      <c r="P25" s="177" t="str">
         <f>IF(_CDQ_day_hour!N17="","",_CDQ_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q25" s="178" t="str">
+      <c r="Q25" s="177" t="str">
         <f>IF(_CDQ_day_hour!O17="","",_CDQ_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R25" s="178" t="str">
+      <c r="R25" s="177" t="str">
         <f>IF(_CDQ_day_hour!P17="","",_CDQ_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S25" s="178" t="str">
+      <c r="S25" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q17="","",_CDQ_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T25" s="178" t="str">
+      <c r="T25" s="177" t="str">
         <f>IF(_CDQ_day_hour!R17="","",_CDQ_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U25" s="178" t="str">
+      <c r="U25" s="177" t="str">
         <f>IF(_CDQ_day_hour!S17="","",_CDQ_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V25" s="178" t="str">
+      <c r="V25" s="177" t="str">
         <f>IF(_CDQ_day_hour!T17="","",_CDQ_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W25" s="178" t="str">
+      <c r="W25" s="177" t="str">
         <f>IF(_CDQ_day_hour!U17="","",_CDQ_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X25" s="178" t="str">
+      <c r="X25" s="177" t="str">
         <f>IF(_CDQ_day_hour!V17="","",_CDQ_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y25" s="178" t="str">
+      <c r="Y25" s="177" t="str">
         <f>IF(_CDQ_day_hour!W17="","",_CDQ_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z25" s="178" t="str">
+      <c r="Z25" s="177" t="str">
         <f>IF(_CDQ_day_hour!X17="","",_CDQ_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA25" s="178" t="str">
+      <c r="AA25" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y17="","",_CDQ_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB25" s="178" t="str">
+      <c r="AB25" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z17="","",_CDQ_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC25" s="178" t="str">
+      <c r="AC25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA17="","",_CDQ_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD25" s="178" t="str">
+      <c r="AD25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB17="","",_CDQ_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE25" s="178" t="str">
+      <c r="AE25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC17="","",_CDQ_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF25" s="178" t="str">
+      <c r="AF25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD17="","",_CDQ_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG25" s="178" t="str">
+      <c r="AG25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE17="","",_CDQ_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH25" s="178" t="str">
+      <c r="AH25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF17="","",_CDQ_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI25" s="178" t="str">
+      <c r="AI25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG17="","",_CDQ_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ25" s="178" t="str">
+      <c r="AJ25" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH17="","",_CDQ_day_hour!AH17)</f>
         <v/>
       </c>
@@ -13664,7 +13664,7 @@
         <f>IF(_CDQ_day_hour!BF17="","",_CDQ_day_hour!BF17)</f>
         <v/>
       </c>
-      <c r="BI25" s="208" t="str">
+      <c r="BI25" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG17="","",_CDQ_day_hour!BG17)</f>
         <v/>
       </c>
@@ -13746,142 +13746,142 @@
       </c>
     </row>
     <row r="26" spans="2:80">
-      <c r="B26" s="176">
+      <c r="B26" s="175">
         <v>0.666666666666667</v>
       </c>
-      <c r="C26" s="177" t="str">
+      <c r="C26" s="176" t="str">
         <f>IF(_CDQ_day_hour!A18="","",_CDQ_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D26" s="178" t="str">
+      <c r="D26" s="177" t="str">
         <f>IF(_CDQ_day_hour!B18="","",_CDQ_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E26" s="178" t="str">
+      <c r="E26" s="177" t="str">
         <f>IF(_CDQ_day_hour!C18="","",_CDQ_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F26" s="178" t="str">
+      <c r="F26" s="177" t="str">
         <f>IF(_CDQ_day_hour!D18="","",_CDQ_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G26" s="178" t="str">
+      <c r="G26" s="177" t="str">
         <f>IF(_CDQ_day_hour!E18="","",_CDQ_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H26" s="178" t="str">
+      <c r="H26" s="177" t="str">
         <f>IF(_CDQ_day_hour!F18="","",_CDQ_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I26" s="178" t="str">
+      <c r="I26" s="177" t="str">
         <f>IF(_CDQ_day_hour!G18="","",_CDQ_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J26" s="178" t="str">
+      <c r="J26" s="177" t="str">
         <f>IF(_CDQ_day_hour!H18="","",_CDQ_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K26" s="178" t="str">
+      <c r="K26" s="177" t="str">
         <f>IF(_CDQ_day_hour!I18="","",_CDQ_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L26" s="178" t="str">
+      <c r="L26" s="177" t="str">
         <f>IF(_CDQ_day_hour!J18="","",_CDQ_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M26" s="178" t="str">
+      <c r="M26" s="177" t="str">
         <f>IF(_CDQ_day_hour!K18="","",_CDQ_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N26" s="178" t="str">
+      <c r="N26" s="177" t="str">
         <f>IF(_CDQ_day_hour!L18="","",_CDQ_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O26" s="178" t="str">
+      <c r="O26" s="177" t="str">
         <f>IF(_CDQ_day_hour!M18="","",_CDQ_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P26" s="178" t="str">
+      <c r="P26" s="177" t="str">
         <f>IF(_CDQ_day_hour!N18="","",_CDQ_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q26" s="178" t="str">
+      <c r="Q26" s="177" t="str">
         <f>IF(_CDQ_day_hour!O18="","",_CDQ_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R26" s="178" t="str">
+      <c r="R26" s="177" t="str">
         <f>IF(_CDQ_day_hour!P18="","",_CDQ_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S26" s="178" t="str">
+      <c r="S26" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q18="","",_CDQ_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T26" s="178" t="str">
+      <c r="T26" s="177" t="str">
         <f>IF(_CDQ_day_hour!R18="","",_CDQ_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U26" s="178" t="str">
+      <c r="U26" s="177" t="str">
         <f>IF(_CDQ_day_hour!S18="","",_CDQ_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V26" s="178" t="str">
+      <c r="V26" s="177" t="str">
         <f>IF(_CDQ_day_hour!T18="","",_CDQ_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W26" s="178" t="str">
+      <c r="W26" s="177" t="str">
         <f>IF(_CDQ_day_hour!U18="","",_CDQ_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X26" s="178" t="str">
+      <c r="X26" s="177" t="str">
         <f>IF(_CDQ_day_hour!V18="","",_CDQ_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y26" s="178" t="str">
+      <c r="Y26" s="177" t="str">
         <f>IF(_CDQ_day_hour!W18="","",_CDQ_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z26" s="178" t="str">
+      <c r="Z26" s="177" t="str">
         <f>IF(_CDQ_day_hour!X18="","",_CDQ_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA26" s="178" t="str">
+      <c r="AA26" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y18="","",_CDQ_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB26" s="178" t="str">
+      <c r="AB26" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z18="","",_CDQ_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC26" s="178" t="str">
+      <c r="AC26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA18="","",_CDQ_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD26" s="178" t="str">
+      <c r="AD26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB18="","",_CDQ_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE26" s="178" t="str">
+      <c r="AE26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC18="","",_CDQ_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF26" s="178" t="str">
+      <c r="AF26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD18="","",_CDQ_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG26" s="178" t="str">
+      <c r="AG26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE18="","",_CDQ_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH26" s="178" t="str">
+      <c r="AH26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF18="","",_CDQ_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI26" s="178" t="str">
+      <c r="AI26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG18="","",_CDQ_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ26" s="178" t="str">
+      <c r="AJ26" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH18="","",_CDQ_day_hour!AH18)</f>
         <v/>
       </c>
@@ -13981,7 +13981,7 @@
         <f>IF(_CDQ_day_hour!BF18="","",_CDQ_day_hour!BF18)</f>
         <v/>
       </c>
-      <c r="BI26" s="208" t="str">
+      <c r="BI26" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG18="","",_CDQ_day_hour!BG18)</f>
         <v/>
       </c>
@@ -14063,142 +14063,142 @@
       </c>
     </row>
     <row r="27" spans="2:80">
-      <c r="B27" s="176">
+      <c r="B27" s="175">
         <v>0.708333333333333</v>
       </c>
-      <c r="C27" s="177" t="str">
+      <c r="C27" s="176" t="str">
         <f>IF(_CDQ_day_hour!A19="","",_CDQ_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D27" s="178" t="str">
+      <c r="D27" s="177" t="str">
         <f>IF(_CDQ_day_hour!B19="","",_CDQ_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E27" s="178" t="str">
+      <c r="E27" s="177" t="str">
         <f>IF(_CDQ_day_hour!C19="","",_CDQ_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F27" s="178" t="str">
+      <c r="F27" s="177" t="str">
         <f>IF(_CDQ_day_hour!D19="","",_CDQ_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G27" s="178" t="str">
+      <c r="G27" s="177" t="str">
         <f>IF(_CDQ_day_hour!E19="","",_CDQ_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H27" s="178" t="str">
+      <c r="H27" s="177" t="str">
         <f>IF(_CDQ_day_hour!F19="","",_CDQ_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I27" s="178" t="str">
+      <c r="I27" s="177" t="str">
         <f>IF(_CDQ_day_hour!G19="","",_CDQ_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J27" s="178" t="str">
+      <c r="J27" s="177" t="str">
         <f>IF(_CDQ_day_hour!H19="","",_CDQ_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K27" s="178" t="str">
+      <c r="K27" s="177" t="str">
         <f>IF(_CDQ_day_hour!I19="","",_CDQ_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L27" s="178" t="str">
+      <c r="L27" s="177" t="str">
         <f>IF(_CDQ_day_hour!J19="","",_CDQ_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M27" s="178" t="str">
+      <c r="M27" s="177" t="str">
         <f>IF(_CDQ_day_hour!K19="","",_CDQ_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N27" s="178" t="str">
+      <c r="N27" s="177" t="str">
         <f>IF(_CDQ_day_hour!L19="","",_CDQ_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O27" s="178" t="str">
+      <c r="O27" s="177" t="str">
         <f>IF(_CDQ_day_hour!M19="","",_CDQ_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P27" s="178" t="str">
+      <c r="P27" s="177" t="str">
         <f>IF(_CDQ_day_hour!N19="","",_CDQ_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q27" s="178" t="str">
+      <c r="Q27" s="177" t="str">
         <f>IF(_CDQ_day_hour!O19="","",_CDQ_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R27" s="178" t="str">
+      <c r="R27" s="177" t="str">
         <f>IF(_CDQ_day_hour!P19="","",_CDQ_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S27" s="178" t="str">
+      <c r="S27" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q19="","",_CDQ_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T27" s="178" t="str">
+      <c r="T27" s="177" t="str">
         <f>IF(_CDQ_day_hour!R19="","",_CDQ_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U27" s="178" t="str">
+      <c r="U27" s="177" t="str">
         <f>IF(_CDQ_day_hour!S19="","",_CDQ_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V27" s="178" t="str">
+      <c r="V27" s="177" t="str">
         <f>IF(_CDQ_day_hour!T19="","",_CDQ_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W27" s="178" t="str">
+      <c r="W27" s="177" t="str">
         <f>IF(_CDQ_day_hour!U19="","",_CDQ_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X27" s="178" t="str">
+      <c r="X27" s="177" t="str">
         <f>IF(_CDQ_day_hour!V19="","",_CDQ_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y27" s="178" t="str">
+      <c r="Y27" s="177" t="str">
         <f>IF(_CDQ_day_hour!W19="","",_CDQ_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z27" s="178" t="str">
+      <c r="Z27" s="177" t="str">
         <f>IF(_CDQ_day_hour!X19="","",_CDQ_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA27" s="178" t="str">
+      <c r="AA27" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y19="","",_CDQ_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB27" s="178" t="str">
+      <c r="AB27" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z19="","",_CDQ_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC27" s="178" t="str">
+      <c r="AC27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA19="","",_CDQ_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD27" s="178" t="str">
+      <c r="AD27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB19="","",_CDQ_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE27" s="178" t="str">
+      <c r="AE27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC19="","",_CDQ_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF27" s="178" t="str">
+      <c r="AF27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD19="","",_CDQ_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG27" s="178" t="str">
+      <c r="AG27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE19="","",_CDQ_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH27" s="178" t="str">
+      <c r="AH27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF19="","",_CDQ_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI27" s="178" t="str">
+      <c r="AI27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG19="","",_CDQ_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ27" s="178" t="str">
+      <c r="AJ27" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH19="","",_CDQ_day_hour!AH19)</f>
         <v/>
       </c>
@@ -14298,7 +14298,7 @@
         <f>IF(_CDQ_day_hour!BF19="","",_CDQ_day_hour!BF19)</f>
         <v/>
       </c>
-      <c r="BI27" s="208" t="str">
+      <c r="BI27" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG19="","",_CDQ_day_hour!BG19)</f>
         <v/>
       </c>
@@ -14380,142 +14380,142 @@
       </c>
     </row>
     <row r="28" spans="2:80">
-      <c r="B28" s="176">
+      <c r="B28" s="175">
         <v>0.75</v>
       </c>
-      <c r="C28" s="177" t="str">
+      <c r="C28" s="176" t="str">
         <f>IF(_CDQ_day_hour!A20="","",_CDQ_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D28" s="178" t="str">
+      <c r="D28" s="177" t="str">
         <f>IF(_CDQ_day_hour!B20="","",_CDQ_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E28" s="178" t="str">
+      <c r="E28" s="177" t="str">
         <f>IF(_CDQ_day_hour!C20="","",_CDQ_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F28" s="178" t="str">
+      <c r="F28" s="177" t="str">
         <f>IF(_CDQ_day_hour!D20="","",_CDQ_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G28" s="178" t="str">
+      <c r="G28" s="177" t="str">
         <f>IF(_CDQ_day_hour!E20="","",_CDQ_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H28" s="178" t="str">
+      <c r="H28" s="177" t="str">
         <f>IF(_CDQ_day_hour!F20="","",_CDQ_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I28" s="178" t="str">
+      <c r="I28" s="177" t="str">
         <f>IF(_CDQ_day_hour!G20="","",_CDQ_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J28" s="178" t="str">
+      <c r="J28" s="177" t="str">
         <f>IF(_CDQ_day_hour!H20="","",_CDQ_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K28" s="178" t="str">
+      <c r="K28" s="177" t="str">
         <f>IF(_CDQ_day_hour!I20="","",_CDQ_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L28" s="178" t="str">
+      <c r="L28" s="177" t="str">
         <f>IF(_CDQ_day_hour!J20="","",_CDQ_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M28" s="178" t="str">
+      <c r="M28" s="177" t="str">
         <f>IF(_CDQ_day_hour!K20="","",_CDQ_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N28" s="178" t="str">
+      <c r="N28" s="177" t="str">
         <f>IF(_CDQ_day_hour!L20="","",_CDQ_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O28" s="178" t="str">
+      <c r="O28" s="177" t="str">
         <f>IF(_CDQ_day_hour!M20="","",_CDQ_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P28" s="178" t="str">
+      <c r="P28" s="177" t="str">
         <f>IF(_CDQ_day_hour!N20="","",_CDQ_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q28" s="178" t="str">
+      <c r="Q28" s="177" t="str">
         <f>IF(_CDQ_day_hour!O20="","",_CDQ_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R28" s="178" t="str">
+      <c r="R28" s="177" t="str">
         <f>IF(_CDQ_day_hour!P20="","",_CDQ_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S28" s="178" t="str">
+      <c r="S28" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q20="","",_CDQ_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T28" s="178" t="str">
+      <c r="T28" s="177" t="str">
         <f>IF(_CDQ_day_hour!R20="","",_CDQ_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U28" s="178" t="str">
+      <c r="U28" s="177" t="str">
         <f>IF(_CDQ_day_hour!S20="","",_CDQ_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V28" s="178" t="str">
+      <c r="V28" s="177" t="str">
         <f>IF(_CDQ_day_hour!T20="","",_CDQ_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W28" s="178" t="str">
+      <c r="W28" s="177" t="str">
         <f>IF(_CDQ_day_hour!U20="","",_CDQ_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X28" s="178" t="str">
+      <c r="X28" s="177" t="str">
         <f>IF(_CDQ_day_hour!V20="","",_CDQ_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y28" s="178" t="str">
+      <c r="Y28" s="177" t="str">
         <f>IF(_CDQ_day_hour!W20="","",_CDQ_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z28" s="178" t="str">
+      <c r="Z28" s="177" t="str">
         <f>IF(_CDQ_day_hour!X20="","",_CDQ_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA28" s="178" t="str">
+      <c r="AA28" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y20="","",_CDQ_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB28" s="178" t="str">
+      <c r="AB28" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z20="","",_CDQ_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC28" s="178" t="str">
+      <c r="AC28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA20="","",_CDQ_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD28" s="178" t="str">
+      <c r="AD28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB20="","",_CDQ_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE28" s="178" t="str">
+      <c r="AE28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC20="","",_CDQ_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF28" s="178" t="str">
+      <c r="AF28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD20="","",_CDQ_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG28" s="178" t="str">
+      <c r="AG28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE20="","",_CDQ_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH28" s="178" t="str">
+      <c r="AH28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF20="","",_CDQ_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI28" s="178" t="str">
+      <c r="AI28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG20="","",_CDQ_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ28" s="178" t="str">
+      <c r="AJ28" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH20="","",_CDQ_day_hour!AH20)</f>
         <v/>
       </c>
@@ -14615,7 +14615,7 @@
         <f>IF(_CDQ_day_hour!BF20="","",_CDQ_day_hour!BF20)</f>
         <v/>
       </c>
-      <c r="BI28" s="208" t="str">
+      <c r="BI28" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG20="","",_CDQ_day_hour!BG20)</f>
         <v/>
       </c>
@@ -14697,142 +14697,142 @@
       </c>
     </row>
     <row r="29" spans="2:80">
-      <c r="B29" s="176">
+      <c r="B29" s="175">
         <v>0.791666666666667</v>
       </c>
-      <c r="C29" s="177" t="str">
+      <c r="C29" s="176" t="str">
         <f>IF(_CDQ_day_hour!A21="","",_CDQ_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D29" s="178" t="str">
+      <c r="D29" s="177" t="str">
         <f>IF(_CDQ_day_hour!B21="","",_CDQ_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E29" s="178" t="str">
+      <c r="E29" s="177" t="str">
         <f>IF(_CDQ_day_hour!C21="","",_CDQ_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F29" s="178" t="str">
+      <c r="F29" s="177" t="str">
         <f>IF(_CDQ_day_hour!D21="","",_CDQ_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G29" s="178" t="str">
+      <c r="G29" s="177" t="str">
         <f>IF(_CDQ_day_hour!E21="","",_CDQ_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H29" s="178" t="str">
+      <c r="H29" s="177" t="str">
         <f>IF(_CDQ_day_hour!F21="","",_CDQ_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I29" s="178" t="str">
+      <c r="I29" s="177" t="str">
         <f>IF(_CDQ_day_hour!G21="","",_CDQ_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J29" s="178" t="str">
+      <c r="J29" s="177" t="str">
         <f>IF(_CDQ_day_hour!H21="","",_CDQ_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K29" s="178" t="str">
+      <c r="K29" s="177" t="str">
         <f>IF(_CDQ_day_hour!I21="","",_CDQ_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L29" s="178" t="str">
+      <c r="L29" s="177" t="str">
         <f>IF(_CDQ_day_hour!J21="","",_CDQ_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M29" s="178" t="str">
+      <c r="M29" s="177" t="str">
         <f>IF(_CDQ_day_hour!K21="","",_CDQ_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N29" s="178" t="str">
+      <c r="N29" s="177" t="str">
         <f>IF(_CDQ_day_hour!L21="","",_CDQ_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O29" s="178" t="str">
+      <c r="O29" s="177" t="str">
         <f>IF(_CDQ_day_hour!M21="","",_CDQ_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P29" s="178" t="str">
+      <c r="P29" s="177" t="str">
         <f>IF(_CDQ_day_hour!N21="","",_CDQ_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q29" s="178" t="str">
+      <c r="Q29" s="177" t="str">
         <f>IF(_CDQ_day_hour!O21="","",_CDQ_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R29" s="178" t="str">
+      <c r="R29" s="177" t="str">
         <f>IF(_CDQ_day_hour!P21="","",_CDQ_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S29" s="178" t="str">
+      <c r="S29" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q21="","",_CDQ_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T29" s="178" t="str">
+      <c r="T29" s="177" t="str">
         <f>IF(_CDQ_day_hour!R21="","",_CDQ_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U29" s="178" t="str">
+      <c r="U29" s="177" t="str">
         <f>IF(_CDQ_day_hour!S21="","",_CDQ_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V29" s="178" t="str">
+      <c r="V29" s="177" t="str">
         <f>IF(_CDQ_day_hour!T21="","",_CDQ_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W29" s="178" t="str">
+      <c r="W29" s="177" t="str">
         <f>IF(_CDQ_day_hour!U21="","",_CDQ_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X29" s="178" t="str">
+      <c r="X29" s="177" t="str">
         <f>IF(_CDQ_day_hour!V21="","",_CDQ_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y29" s="178" t="str">
+      <c r="Y29" s="177" t="str">
         <f>IF(_CDQ_day_hour!W21="","",_CDQ_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z29" s="178" t="str">
+      <c r="Z29" s="177" t="str">
         <f>IF(_CDQ_day_hour!X21="","",_CDQ_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA29" s="178" t="str">
+      <c r="AA29" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y21="","",_CDQ_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB29" s="178" t="str">
+      <c r="AB29" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z21="","",_CDQ_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC29" s="178" t="str">
+      <c r="AC29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA21="","",_CDQ_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD29" s="178" t="str">
+      <c r="AD29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB21="","",_CDQ_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE29" s="178" t="str">
+      <c r="AE29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC21="","",_CDQ_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF29" s="178" t="str">
+      <c r="AF29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD21="","",_CDQ_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG29" s="178" t="str">
+      <c r="AG29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE21="","",_CDQ_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH29" s="178" t="str">
+      <c r="AH29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF21="","",_CDQ_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI29" s="178" t="str">
+      <c r="AI29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG21="","",_CDQ_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ29" s="178" t="str">
+      <c r="AJ29" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH21="","",_CDQ_day_hour!AH21)</f>
         <v/>
       </c>
@@ -14932,7 +14932,7 @@
         <f>IF(_CDQ_day_hour!BF21="","",_CDQ_day_hour!BF21)</f>
         <v/>
       </c>
-      <c r="BI29" s="208" t="str">
+      <c r="BI29" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG21="","",_CDQ_day_hour!BG21)</f>
         <v/>
       </c>
@@ -15014,142 +15014,142 @@
       </c>
     </row>
     <row r="30" spans="2:80">
-      <c r="B30" s="176">
+      <c r="B30" s="175">
         <v>0.833333333333333</v>
       </c>
-      <c r="C30" s="177" t="str">
+      <c r="C30" s="176" t="str">
         <f>IF(_CDQ_day_hour!A22="","",_CDQ_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D30" s="178" t="str">
+      <c r="D30" s="177" t="str">
         <f>IF(_CDQ_day_hour!B22="","",_CDQ_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E30" s="178" t="str">
+      <c r="E30" s="177" t="str">
         <f>IF(_CDQ_day_hour!C22="","",_CDQ_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F30" s="178" t="str">
+      <c r="F30" s="177" t="str">
         <f>IF(_CDQ_day_hour!D22="","",_CDQ_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G30" s="178" t="str">
+      <c r="G30" s="177" t="str">
         <f>IF(_CDQ_day_hour!E22="","",_CDQ_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H30" s="178" t="str">
+      <c r="H30" s="177" t="str">
         <f>IF(_CDQ_day_hour!F22="","",_CDQ_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I30" s="178" t="str">
+      <c r="I30" s="177" t="str">
         <f>IF(_CDQ_day_hour!G22="","",_CDQ_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J30" s="178" t="str">
+      <c r="J30" s="177" t="str">
         <f>IF(_CDQ_day_hour!H22="","",_CDQ_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K30" s="178" t="str">
+      <c r="K30" s="177" t="str">
         <f>IF(_CDQ_day_hour!I22="","",_CDQ_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L30" s="178" t="str">
+      <c r="L30" s="177" t="str">
         <f>IF(_CDQ_day_hour!J22="","",_CDQ_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M30" s="178" t="str">
+      <c r="M30" s="177" t="str">
         <f>IF(_CDQ_day_hour!K22="","",_CDQ_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N30" s="178" t="str">
+      <c r="N30" s="177" t="str">
         <f>IF(_CDQ_day_hour!L22="","",_CDQ_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O30" s="178" t="str">
+      <c r="O30" s="177" t="str">
         <f>IF(_CDQ_day_hour!M22="","",_CDQ_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P30" s="178" t="str">
+      <c r="P30" s="177" t="str">
         <f>IF(_CDQ_day_hour!N22="","",_CDQ_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q30" s="178" t="str">
+      <c r="Q30" s="177" t="str">
         <f>IF(_CDQ_day_hour!O22="","",_CDQ_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R30" s="178" t="str">
+      <c r="R30" s="177" t="str">
         <f>IF(_CDQ_day_hour!P22="","",_CDQ_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S30" s="178" t="str">
+      <c r="S30" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q22="","",_CDQ_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T30" s="178" t="str">
+      <c r="T30" s="177" t="str">
         <f>IF(_CDQ_day_hour!R22="","",_CDQ_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U30" s="178" t="str">
+      <c r="U30" s="177" t="str">
         <f>IF(_CDQ_day_hour!S22="","",_CDQ_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V30" s="178" t="str">
+      <c r="V30" s="177" t="str">
         <f>IF(_CDQ_day_hour!T22="","",_CDQ_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W30" s="178" t="str">
+      <c r="W30" s="177" t="str">
         <f>IF(_CDQ_day_hour!U22="","",_CDQ_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X30" s="178" t="str">
+      <c r="X30" s="177" t="str">
         <f>IF(_CDQ_day_hour!V22="","",_CDQ_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y30" s="178" t="str">
+      <c r="Y30" s="177" t="str">
         <f>IF(_CDQ_day_hour!W22="","",_CDQ_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z30" s="178" t="str">
+      <c r="Z30" s="177" t="str">
         <f>IF(_CDQ_day_hour!X22="","",_CDQ_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA30" s="178" t="str">
+      <c r="AA30" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y22="","",_CDQ_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB30" s="178" t="str">
+      <c r="AB30" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z22="","",_CDQ_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC30" s="178" t="str">
+      <c r="AC30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA22="","",_CDQ_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD30" s="178" t="str">
+      <c r="AD30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB22="","",_CDQ_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE30" s="178" t="str">
+      <c r="AE30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC22="","",_CDQ_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF30" s="178" t="str">
+      <c r="AF30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD22="","",_CDQ_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG30" s="178" t="str">
+      <c r="AG30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE22="","",_CDQ_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH30" s="178" t="str">
+      <c r="AH30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF22="","",_CDQ_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI30" s="178" t="str">
+      <c r="AI30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG22="","",_CDQ_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ30" s="178" t="str">
+      <c r="AJ30" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH22="","",_CDQ_day_hour!AH22)</f>
         <v/>
       </c>
@@ -15249,7 +15249,7 @@
         <f>IF(_CDQ_day_hour!BF22="","",_CDQ_day_hour!BF22)</f>
         <v/>
       </c>
-      <c r="BI30" s="208" t="str">
+      <c r="BI30" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG22="","",_CDQ_day_hour!BG22)</f>
         <v/>
       </c>
@@ -15331,142 +15331,142 @@
       </c>
     </row>
     <row r="31" spans="2:80">
-      <c r="B31" s="176">
+      <c r="B31" s="175">
         <v>0.875</v>
       </c>
-      <c r="C31" s="177" t="str">
+      <c r="C31" s="176" t="str">
         <f>IF(_CDQ_day_hour!A23="","",_CDQ_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D31" s="178" t="str">
+      <c r="D31" s="177" t="str">
         <f>IF(_CDQ_day_hour!B23="","",_CDQ_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E31" s="178" t="str">
+      <c r="E31" s="177" t="str">
         <f>IF(_CDQ_day_hour!C23="","",_CDQ_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F31" s="178" t="str">
+      <c r="F31" s="177" t="str">
         <f>IF(_CDQ_day_hour!D23="","",_CDQ_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G31" s="178" t="str">
+      <c r="G31" s="177" t="str">
         <f>IF(_CDQ_day_hour!E23="","",_CDQ_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H31" s="178" t="str">
+      <c r="H31" s="177" t="str">
         <f>IF(_CDQ_day_hour!F23="","",_CDQ_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I31" s="178" t="str">
+      <c r="I31" s="177" t="str">
         <f>IF(_CDQ_day_hour!G23="","",_CDQ_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J31" s="178" t="str">
+      <c r="J31" s="177" t="str">
         <f>IF(_CDQ_day_hour!H23="","",_CDQ_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K31" s="178" t="str">
+      <c r="K31" s="177" t="str">
         <f>IF(_CDQ_day_hour!I23="","",_CDQ_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L31" s="178" t="str">
+      <c r="L31" s="177" t="str">
         <f>IF(_CDQ_day_hour!J23="","",_CDQ_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M31" s="178" t="str">
+      <c r="M31" s="177" t="str">
         <f>IF(_CDQ_day_hour!K23="","",_CDQ_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N31" s="178" t="str">
+      <c r="N31" s="177" t="str">
         <f>IF(_CDQ_day_hour!L23="","",_CDQ_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O31" s="178" t="str">
+      <c r="O31" s="177" t="str">
         <f>IF(_CDQ_day_hour!M23="","",_CDQ_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P31" s="178" t="str">
+      <c r="P31" s="177" t="str">
         <f>IF(_CDQ_day_hour!N23="","",_CDQ_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q31" s="178" t="str">
+      <c r="Q31" s="177" t="str">
         <f>IF(_CDQ_day_hour!O23="","",_CDQ_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R31" s="178" t="str">
+      <c r="R31" s="177" t="str">
         <f>IF(_CDQ_day_hour!P23="","",_CDQ_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S31" s="178" t="str">
+      <c r="S31" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q23="","",_CDQ_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T31" s="178" t="str">
+      <c r="T31" s="177" t="str">
         <f>IF(_CDQ_day_hour!R23="","",_CDQ_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U31" s="178" t="str">
+      <c r="U31" s="177" t="str">
         <f>IF(_CDQ_day_hour!S23="","",_CDQ_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V31" s="178" t="str">
+      <c r="V31" s="177" t="str">
         <f>IF(_CDQ_day_hour!T23="","",_CDQ_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W31" s="178" t="str">
+      <c r="W31" s="177" t="str">
         <f>IF(_CDQ_day_hour!U23="","",_CDQ_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X31" s="178" t="str">
+      <c r="X31" s="177" t="str">
         <f>IF(_CDQ_day_hour!V23="","",_CDQ_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y31" s="178" t="str">
+      <c r="Y31" s="177" t="str">
         <f>IF(_CDQ_day_hour!W23="","",_CDQ_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z31" s="178" t="str">
+      <c r="Z31" s="177" t="str">
         <f>IF(_CDQ_day_hour!X23="","",_CDQ_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA31" s="178" t="str">
+      <c r="AA31" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y23="","",_CDQ_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB31" s="178" t="str">
+      <c r="AB31" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z23="","",_CDQ_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC31" s="178" t="str">
+      <c r="AC31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA23="","",_CDQ_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD31" s="178" t="str">
+      <c r="AD31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB23="","",_CDQ_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE31" s="178" t="str">
+      <c r="AE31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC23="","",_CDQ_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF31" s="178" t="str">
+      <c r="AF31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD23="","",_CDQ_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG31" s="178" t="str">
+      <c r="AG31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE23="","",_CDQ_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH31" s="178" t="str">
+      <c r="AH31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF23="","",_CDQ_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI31" s="178" t="str">
+      <c r="AI31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG23="","",_CDQ_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ31" s="178" t="str">
+      <c r="AJ31" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH23="","",_CDQ_day_hour!AH23)</f>
         <v/>
       </c>
@@ -15566,7 +15566,7 @@
         <f>IF(_CDQ_day_hour!BF23="","",_CDQ_day_hour!BF23)</f>
         <v/>
       </c>
-      <c r="BI31" s="208" t="str">
+      <c r="BI31" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG23="","",_CDQ_day_hour!BG23)</f>
         <v/>
       </c>
@@ -15648,142 +15648,142 @@
       </c>
     </row>
     <row r="32" spans="2:80">
-      <c r="B32" s="176">
+      <c r="B32" s="175">
         <v>0.916666666666667</v>
       </c>
-      <c r="C32" s="177" t="str">
+      <c r="C32" s="176" t="str">
         <f>IF(_CDQ_day_hour!A24="","",_CDQ_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D32" s="178" t="str">
+      <c r="D32" s="177" t="str">
         <f>IF(_CDQ_day_hour!B24="","",_CDQ_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E32" s="178" t="str">
+      <c r="E32" s="177" t="str">
         <f>IF(_CDQ_day_hour!C24="","",_CDQ_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F32" s="178" t="str">
+      <c r="F32" s="177" t="str">
         <f>IF(_CDQ_day_hour!D24="","",_CDQ_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G32" s="178" t="str">
+      <c r="G32" s="177" t="str">
         <f>IF(_CDQ_day_hour!E24="","",_CDQ_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H32" s="178" t="str">
+      <c r="H32" s="177" t="str">
         <f>IF(_CDQ_day_hour!F24="","",_CDQ_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I32" s="178" t="str">
+      <c r="I32" s="177" t="str">
         <f>IF(_CDQ_day_hour!G24="","",_CDQ_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J32" s="178" t="str">
+      <c r="J32" s="177" t="str">
         <f>IF(_CDQ_day_hour!H24="","",_CDQ_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K32" s="178" t="str">
+      <c r="K32" s="177" t="str">
         <f>IF(_CDQ_day_hour!I24="","",_CDQ_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L32" s="178" t="str">
+      <c r="L32" s="177" t="str">
         <f>IF(_CDQ_day_hour!J24="","",_CDQ_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M32" s="178" t="str">
+      <c r="M32" s="177" t="str">
         <f>IF(_CDQ_day_hour!K24="","",_CDQ_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N32" s="178" t="str">
+      <c r="N32" s="177" t="str">
         <f>IF(_CDQ_day_hour!L24="","",_CDQ_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O32" s="178" t="str">
+      <c r="O32" s="177" t="str">
         <f>IF(_CDQ_day_hour!M24="","",_CDQ_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P32" s="178" t="str">
+      <c r="P32" s="177" t="str">
         <f>IF(_CDQ_day_hour!N24="","",_CDQ_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q32" s="178" t="str">
+      <c r="Q32" s="177" t="str">
         <f>IF(_CDQ_day_hour!O24="","",_CDQ_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R32" s="178" t="str">
+      <c r="R32" s="177" t="str">
         <f>IF(_CDQ_day_hour!P24="","",_CDQ_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S32" s="178" t="str">
+      <c r="S32" s="177" t="str">
         <f>IF(_CDQ_day_hour!Q24="","",_CDQ_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T32" s="178" t="str">
+      <c r="T32" s="177" t="str">
         <f>IF(_CDQ_day_hour!R24="","",_CDQ_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U32" s="178" t="str">
+      <c r="U32" s="177" t="str">
         <f>IF(_CDQ_day_hour!S24="","",_CDQ_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V32" s="178" t="str">
+      <c r="V32" s="177" t="str">
         <f>IF(_CDQ_day_hour!T24="","",_CDQ_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W32" s="178" t="str">
+      <c r="W32" s="177" t="str">
         <f>IF(_CDQ_day_hour!U24="","",_CDQ_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X32" s="178" t="str">
+      <c r="X32" s="177" t="str">
         <f>IF(_CDQ_day_hour!V24="","",_CDQ_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y32" s="178" t="str">
+      <c r="Y32" s="177" t="str">
         <f>IF(_CDQ_day_hour!W24="","",_CDQ_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z32" s="178" t="str">
+      <c r="Z32" s="177" t="str">
         <f>IF(_CDQ_day_hour!X24="","",_CDQ_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA32" s="178" t="str">
+      <c r="AA32" s="177" t="str">
         <f>IF(_CDQ_day_hour!Y24="","",_CDQ_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB32" s="178" t="str">
+      <c r="AB32" s="177" t="str">
         <f>IF(_CDQ_day_hour!Z24="","",_CDQ_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC32" s="178" t="str">
+      <c r="AC32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AA24="","",_CDQ_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD32" s="178" t="str">
+      <c r="AD32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AB24="","",_CDQ_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE32" s="178" t="str">
+      <c r="AE32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AC24="","",_CDQ_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF32" s="178" t="str">
+      <c r="AF32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AD24="","",_CDQ_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG32" s="178" t="str">
+      <c r="AG32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AE24="","",_CDQ_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH32" s="178" t="str">
+      <c r="AH32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AF24="","",_CDQ_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI32" s="178" t="str">
+      <c r="AI32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AG24="","",_CDQ_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ32" s="178" t="str">
+      <c r="AJ32" s="177" t="str">
         <f>IF(_CDQ_day_hour!AH24="","",_CDQ_day_hour!AH24)</f>
         <v/>
       </c>
@@ -15883,7 +15883,7 @@
         <f>IF(_CDQ_day_hour!BF24="","",_CDQ_day_hour!BF24)</f>
         <v/>
       </c>
-      <c r="BI32" s="208" t="str">
+      <c r="BI32" s="207" t="str">
         <f>IF(_CDQ_day_hour!BG24="","",_CDQ_day_hour!BG24)</f>
         <v/>
       </c>
@@ -15965,242 +15965,242 @@
       </c>
     </row>
     <row r="33" spans="2:80">
-      <c r="B33" s="180">
+      <c r="B33" s="179">
         <v>0.958333333333333</v>
       </c>
-      <c r="C33" s="181" t="str">
+      <c r="C33" s="180" t="str">
         <f>IF(_CDQ_day_hour!A25="","",_CDQ_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D33" s="182" t="str">
+      <c r="D33" s="181" t="str">
         <f>IF(_CDQ_day_hour!B25="","",_CDQ_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E33" s="182" t="str">
+      <c r="E33" s="181" t="str">
         <f>IF(_CDQ_day_hour!C25="","",_CDQ_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F33" s="182" t="str">
+      <c r="F33" s="181" t="str">
         <f>IF(_CDQ_day_hour!D25="","",_CDQ_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G33" s="182" t="str">
+      <c r="G33" s="181" t="str">
         <f>IF(_CDQ_day_hour!E25="","",_CDQ_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H33" s="182" t="str">
+      <c r="H33" s="181" t="str">
         <f>IF(_CDQ_day_hour!F25="","",_CDQ_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I33" s="182" t="str">
+      <c r="I33" s="181" t="str">
         <f>IF(_CDQ_day_hour!G25="","",_CDQ_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J33" s="182" t="str">
+      <c r="J33" s="181" t="str">
         <f>IF(_CDQ_day_hour!H25="","",_CDQ_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K33" s="182" t="str">
+      <c r="K33" s="181" t="str">
         <f>IF(_CDQ_day_hour!I25="","",_CDQ_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L33" s="182" t="str">
+      <c r="L33" s="181" t="str">
         <f>IF(_CDQ_day_hour!J25="","",_CDQ_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M33" s="182" t="str">
+      <c r="M33" s="181" t="str">
         <f>IF(_CDQ_day_hour!K25="","",_CDQ_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N33" s="182" t="str">
+      <c r="N33" s="181" t="str">
         <f>IF(_CDQ_day_hour!L25="","",_CDQ_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O33" s="182" t="str">
+      <c r="O33" s="181" t="str">
         <f>IF(_CDQ_day_hour!M25="","",_CDQ_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P33" s="182" t="str">
+      <c r="P33" s="181" t="str">
         <f>IF(_CDQ_day_hour!N25="","",_CDQ_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q33" s="182" t="str">
+      <c r="Q33" s="181" t="str">
         <f>IF(_CDQ_day_hour!O25="","",_CDQ_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R33" s="182" t="str">
+      <c r="R33" s="181" t="str">
         <f>IF(_CDQ_day_hour!P25="","",_CDQ_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S33" s="182" t="str">
+      <c r="S33" s="181" t="str">
         <f>IF(_CDQ_day_hour!Q25="","",_CDQ_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T33" s="182" t="str">
+      <c r="T33" s="181" t="str">
         <f>IF(_CDQ_day_hour!R25="","",_CDQ_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U33" s="182" t="str">
+      <c r="U33" s="181" t="str">
         <f>IF(_CDQ_day_hour!S25="","",_CDQ_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V33" s="182" t="str">
+      <c r="V33" s="181" t="str">
         <f>IF(_CDQ_day_hour!T25="","",_CDQ_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W33" s="182" t="str">
+      <c r="W33" s="181" t="str">
         <f>IF(_CDQ_day_hour!U25="","",_CDQ_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X33" s="182" t="str">
+      <c r="X33" s="181" t="str">
         <f>IF(_CDQ_day_hour!V25="","",_CDQ_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y33" s="182" t="str">
+      <c r="Y33" s="181" t="str">
         <f>IF(_CDQ_day_hour!W25="","",_CDQ_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z33" s="182" t="str">
+      <c r="Z33" s="181" t="str">
         <f>IF(_CDQ_day_hour!X25="","",_CDQ_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA33" s="182" t="str">
+      <c r="AA33" s="181" t="str">
         <f>IF(_CDQ_day_hour!Y25="","",_CDQ_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB33" s="182" t="str">
+      <c r="AB33" s="181" t="str">
         <f>IF(_CDQ_day_hour!Z25="","",_CDQ_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC33" s="182" t="str">
+      <c r="AC33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AA25="","",_CDQ_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD33" s="182" t="str">
+      <c r="AD33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AB25="","",_CDQ_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE33" s="182" t="str">
+      <c r="AE33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AC25="","",_CDQ_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF33" s="182" t="str">
+      <c r="AF33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AD25="","",_CDQ_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG33" s="182" t="str">
+      <c r="AG33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AE25="","",_CDQ_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH33" s="182" t="str">
+      <c r="AH33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AF25="","",_CDQ_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI33" s="182" t="str">
+      <c r="AI33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AG25="","",_CDQ_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ33" s="182" t="str">
+      <c r="AJ33" s="181" t="str">
         <f>IF(_CDQ_day_hour!AH25="","",_CDQ_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK33" s="198" t="str">
+      <c r="AK33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AI25="","",_CDQ_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL33" s="198" t="str">
+      <c r="AL33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AJ25="","",_CDQ_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM33" s="198" t="str">
+      <c r="AM33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AK25="","",_CDQ_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN33" s="198" t="str">
+      <c r="AN33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AL25="","",_CDQ_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO33" s="198" t="str">
+      <c r="AO33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AM25="","",_CDQ_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP33" s="198" t="str">
+      <c r="AP33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AN25="","",_CDQ_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ33" s="198" t="str">
+      <c r="AQ33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AO25="","",_CDQ_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR33" s="198" t="str">
+      <c r="AR33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AP25="","",_CDQ_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AS33" s="198" t="str">
+      <c r="AS33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AQ25="","",_CDQ_day_hour!AQ25)</f>
         <v/>
       </c>
-      <c r="AT33" s="198" t="str">
+      <c r="AT33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AR25="","",_CDQ_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AU33" s="198" t="str">
+      <c r="AU33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AS25="","",_CDQ_day_hour!AS25)</f>
         <v/>
       </c>
-      <c r="AV33" s="198" t="str">
+      <c r="AV33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AT25="","",_CDQ_day_hour!AT25)</f>
         <v/>
       </c>
-      <c r="AW33" s="198" t="str">
+      <c r="AW33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AU25="","",_CDQ_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AX33" s="198" t="str">
+      <c r="AX33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AV25="","",_CDQ_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY33" s="198" t="str">
+      <c r="AY33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AW25="","",_CDQ_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ33" s="198" t="str">
+      <c r="AZ33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AX25="","",_CDQ_day_hour!AX25)</f>
         <v/>
       </c>
-      <c r="BA33" s="198" t="str">
+      <c r="BA33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AY25="","",_CDQ_day_hour!AY25)</f>
         <v/>
       </c>
-      <c r="BB33" s="198" t="str">
+      <c r="BB33" s="197" t="str">
         <f>IF(_CDQ_day_hour!AZ25="","",_CDQ_day_hour!AZ25)</f>
         <v/>
       </c>
-      <c r="BC33" s="198" t="str">
+      <c r="BC33" s="197" t="str">
         <f>IF(_CDQ_day_hour!BA25="","",_CDQ_day_hour!BA25)</f>
         <v/>
       </c>
-      <c r="BD33" s="198" t="str">
+      <c r="BD33" s="197" t="str">
         <f>IF(_CDQ_day_hour!BB25="","",_CDQ_day_hour!BB25)</f>
         <v/>
       </c>
-      <c r="BE33" s="198" t="str">
+      <c r="BE33" s="197" t="str">
         <f>IF(_CDQ_day_hour!BC25="","",_CDQ_day_hour!BC25)</f>
         <v/>
       </c>
-      <c r="BF33" s="198" t="str">
+      <c r="BF33" s="197" t="str">
         <f>IF(_CDQ_day_hour!BD25="","",_CDQ_day_hour!BD25)</f>
         <v/>
       </c>
-      <c r="BG33" s="198" t="str">
+      <c r="BG33" s="197" t="str">
         <f>IF(_CDQ_day_hour!BE25="","",_CDQ_day_hour!BE25)</f>
         <v/>
       </c>
-      <c r="BH33" s="198" t="str">
+      <c r="BH33" s="197" t="str">
         <f>IF(_CDQ_day_hour!BF25="","",_CDQ_day_hour!BF25)</f>
         <v/>
       </c>
-      <c r="BI33" s="209" t="str">
+      <c r="BI33" s="208" t="str">
         <f>IF(_CDQ_day_hour!BG25="","",_CDQ_day_hour!BG25)</f>
         <v/>
       </c>
@@ -16285,40 +16285,40 @@
       <c r="B34" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="184"/>
-      <c r="L34" s="184"/>
-      <c r="M34" s="184"/>
-      <c r="N34" s="184"/>
-      <c r="O34" s="184"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="184"/>
-      <c r="R34" s="184"/>
-      <c r="S34" s="184"/>
-      <c r="T34" s="184"/>
-      <c r="U34" s="184"/>
-      <c r="V34" s="184"/>
-      <c r="W34" s="184"/>
-      <c r="X34" s="184"/>
-      <c r="Y34" s="184"/>
-      <c r="Z34" s="184"/>
-      <c r="AA34" s="184"/>
-      <c r="AB34" s="184"/>
-      <c r="AC34" s="184"/>
-      <c r="AD34" s="184"/>
-      <c r="AE34" s="184"/>
-      <c r="AF34" s="184"/>
-      <c r="AG34" s="184"/>
-      <c r="AH34" s="184"/>
-      <c r="AI34" s="184"/>
-      <c r="AJ34" s="184"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="183"/>
+      <c r="Q34" s="183"/>
+      <c r="R34" s="183"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="183"/>
+      <c r="U34" s="183"/>
+      <c r="V34" s="183"/>
+      <c r="W34" s="183"/>
+      <c r="X34" s="183"/>
+      <c r="Y34" s="183"/>
+      <c r="Z34" s="183"/>
+      <c r="AA34" s="183"/>
+      <c r="AB34" s="183"/>
+      <c r="AC34" s="183"/>
+      <c r="AD34" s="183"/>
+      <c r="AE34" s="183"/>
+      <c r="AF34" s="183"/>
+      <c r="AG34" s="183"/>
+      <c r="AH34" s="183"/>
+      <c r="AI34" s="183"/>
+      <c r="AJ34" s="183"/>
       <c r="AK34" s="42"/>
       <c r="AL34" s="42"/>
       <c r="AM34" s="42"/>
@@ -16368,40 +16368,40 @@
       <c r="B35" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="184"/>
-      <c r="V35" s="184"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="184"/>
-      <c r="Y35" s="184"/>
-      <c r="Z35" s="184"/>
-      <c r="AA35" s="184"/>
-      <c r="AB35" s="184"/>
-      <c r="AC35" s="184"/>
-      <c r="AD35" s="184"/>
-      <c r="AE35" s="184"/>
-      <c r="AF35" s="184"/>
-      <c r="AG35" s="184"/>
-      <c r="AH35" s="184"/>
-      <c r="AI35" s="184"/>
-      <c r="AJ35" s="184"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="183"/>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="183"/>
+      <c r="U35" s="183"/>
+      <c r="V35" s="183"/>
+      <c r="W35" s="183"/>
+      <c r="X35" s="183"/>
+      <c r="Y35" s="183"/>
+      <c r="Z35" s="183"/>
+      <c r="AA35" s="183"/>
+      <c r="AB35" s="183"/>
+      <c r="AC35" s="183"/>
+      <c r="AD35" s="183"/>
+      <c r="AE35" s="183"/>
+      <c r="AF35" s="183"/>
+      <c r="AG35" s="183"/>
+      <c r="AH35" s="183"/>
+      <c r="AI35" s="183"/>
+      <c r="AJ35" s="183"/>
       <c r="AK35" s="42"/>
       <c r="AL35" s="42"/>
       <c r="AM35" s="42"/>
@@ -16451,40 +16451,40 @@
       <c r="B36" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="184"/>
-      <c r="V36" s="184"/>
-      <c r="W36" s="184"/>
-      <c r="X36" s="184"/>
-      <c r="Y36" s="184"/>
-      <c r="Z36" s="184"/>
-      <c r="AA36" s="184"/>
-      <c r="AB36" s="184"/>
-      <c r="AC36" s="184"/>
-      <c r="AD36" s="184"/>
-      <c r="AE36" s="184"/>
-      <c r="AF36" s="184"/>
-      <c r="AG36" s="184"/>
-      <c r="AH36" s="184"/>
-      <c r="AI36" s="184"/>
-      <c r="AJ36" s="184"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="183"/>
+      <c r="P36" s="183"/>
+      <c r="Q36" s="183"/>
+      <c r="R36" s="183"/>
+      <c r="S36" s="183"/>
+      <c r="T36" s="183"/>
+      <c r="U36" s="183"/>
+      <c r="V36" s="183"/>
+      <c r="W36" s="183"/>
+      <c r="X36" s="183"/>
+      <c r="Y36" s="183"/>
+      <c r="Z36" s="183"/>
+      <c r="AA36" s="183"/>
+      <c r="AB36" s="183"/>
+      <c r="AC36" s="183"/>
+      <c r="AD36" s="183"/>
+      <c r="AE36" s="183"/>
+      <c r="AF36" s="183"/>
+      <c r="AG36" s="183"/>
+      <c r="AH36" s="183"/>
+      <c r="AI36" s="183"/>
+      <c r="AJ36" s="183"/>
       <c r="AK36" s="42"/>
       <c r="AL36" s="42"/>
       <c r="AM36" s="42"/>
@@ -16534,40 +16534,40 @@
       <c r="B37" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="185"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="186"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="184"/>
-      <c r="U37" s="184"/>
-      <c r="V37" s="184"/>
-      <c r="W37" s="184"/>
-      <c r="X37" s="184"/>
-      <c r="Y37" s="184"/>
-      <c r="Z37" s="184"/>
-      <c r="AA37" s="184"/>
-      <c r="AB37" s="184"/>
-      <c r="AC37" s="184"/>
-      <c r="AD37" s="184"/>
-      <c r="AE37" s="184"/>
-      <c r="AF37" s="184"/>
-      <c r="AG37" s="184"/>
-      <c r="AH37" s="184"/>
-      <c r="AI37" s="184"/>
-      <c r="AJ37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="183"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="183"/>
+      <c r="R37" s="183"/>
+      <c r="S37" s="183"/>
+      <c r="T37" s="183"/>
+      <c r="U37" s="183"/>
+      <c r="V37" s="183"/>
+      <c r="W37" s="183"/>
+      <c r="X37" s="183"/>
+      <c r="Y37" s="183"/>
+      <c r="Z37" s="183"/>
+      <c r="AA37" s="183"/>
+      <c r="AB37" s="183"/>
+      <c r="AC37" s="183"/>
+      <c r="AD37" s="183"/>
+      <c r="AE37" s="183"/>
+      <c r="AF37" s="183"/>
+      <c r="AG37" s="183"/>
+      <c r="AH37" s="183"/>
+      <c r="AI37" s="183"/>
+      <c r="AJ37" s="183"/>
       <c r="AK37" s="42"/>
       <c r="AL37" s="42"/>
       <c r="AM37" s="42"/>
@@ -16617,91 +16617,91 @@
       <c r="B38" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="192"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186"/>
+      <c r="L38" s="191"/>
       <c r="M38" s="134" t="s">
         <v>280</v>
       </c>
-      <c r="N38" s="187"/>
-      <c r="O38" s="187"/>
-      <c r="P38" s="187"/>
-      <c r="Q38" s="187"/>
-      <c r="R38" s="187"/>
-      <c r="S38" s="187"/>
-      <c r="T38" s="187"/>
-      <c r="U38" s="187"/>
-      <c r="V38" s="187"/>
-      <c r="W38" s="192"/>
+      <c r="N38" s="186"/>
+      <c r="O38" s="186"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="186"/>
+      <c r="R38" s="186"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="186"/>
+      <c r="U38" s="186"/>
+      <c r="V38" s="186"/>
+      <c r="W38" s="191"/>
       <c r="X38" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="Y38" s="187"/>
-      <c r="Z38" s="187"/>
-      <c r="AA38" s="187"/>
-      <c r="AB38" s="187"/>
-      <c r="AC38" s="187"/>
-      <c r="AD38" s="187"/>
-      <c r="AE38" s="187"/>
-      <c r="AF38" s="187"/>
-      <c r="AG38" s="187"/>
-      <c r="AH38" s="192"/>
-      <c r="AI38" s="199"/>
-      <c r="AJ38" s="199"/>
-      <c r="AK38" s="199"/>
-      <c r="AL38" s="199"/>
-      <c r="AM38" s="199"/>
-      <c r="AN38" s="199"/>
-      <c r="AO38" s="199"/>
-      <c r="AP38" s="199"/>
-      <c r="AQ38" s="199"/>
-      <c r="AR38" s="199"/>
-      <c r="AS38" s="199"/>
-      <c r="AT38" s="199"/>
-      <c r="AU38" s="199"/>
-      <c r="AV38" s="199"/>
-      <c r="AW38" s="199"/>
-      <c r="AX38" s="199"/>
-      <c r="AY38" s="199"/>
-      <c r="AZ38" s="199"/>
-      <c r="BA38" s="199"/>
-      <c r="BB38" s="199"/>
-      <c r="BC38" s="199"/>
-      <c r="BD38" s="199"/>
-      <c r="BE38" s="199"/>
-      <c r="BF38" s="199"/>
-      <c r="BG38" s="199"/>
-      <c r="BH38" s="199"/>
-      <c r="BI38" s="199"/>
-      <c r="BJ38" s="199"/>
-      <c r="BK38" s="199"/>
-      <c r="BL38" s="199"/>
-      <c r="BM38" s="199"/>
-      <c r="BN38" s="199"/>
-      <c r="BO38" s="199"/>
-      <c r="BP38" s="199"/>
-      <c r="BQ38" s="199"/>
-      <c r="BR38" s="199"/>
-      <c r="BS38" s="199"/>
-      <c r="BT38" s="199"/>
-      <c r="BU38" s="199"/>
-      <c r="BV38" s="199"/>
-      <c r="BW38" s="199"/>
-      <c r="BX38" s="199"/>
-      <c r="BY38" s="199"/>
-      <c r="BZ38" s="199"/>
-      <c r="CA38" s="199"/>
+      <c r="Y38" s="186"/>
+      <c r="Z38" s="186"/>
+      <c r="AA38" s="186"/>
+      <c r="AB38" s="186"/>
+      <c r="AC38" s="186"/>
+      <c r="AD38" s="186"/>
+      <c r="AE38" s="186"/>
+      <c r="AF38" s="186"/>
+      <c r="AG38" s="186"/>
+      <c r="AH38" s="191"/>
+      <c r="AI38" s="198"/>
+      <c r="AJ38" s="198"/>
+      <c r="AK38" s="198"/>
+      <c r="AL38" s="198"/>
+      <c r="AM38" s="198"/>
+      <c r="AN38" s="198"/>
+      <c r="AO38" s="198"/>
+      <c r="AP38" s="198"/>
+      <c r="AQ38" s="198"/>
+      <c r="AR38" s="198"/>
+      <c r="AS38" s="198"/>
+      <c r="AT38" s="198"/>
+      <c r="AU38" s="198"/>
+      <c r="AV38" s="198"/>
+      <c r="AW38" s="198"/>
+      <c r="AX38" s="198"/>
+      <c r="AY38" s="198"/>
+      <c r="AZ38" s="198"/>
+      <c r="BA38" s="198"/>
+      <c r="BB38" s="198"/>
+      <c r="BC38" s="198"/>
+      <c r="BD38" s="198"/>
+      <c r="BE38" s="198"/>
+      <c r="BF38" s="198"/>
+      <c r="BG38" s="198"/>
+      <c r="BH38" s="198"/>
+      <c r="BI38" s="198"/>
+      <c r="BJ38" s="198"/>
+      <c r="BK38" s="198"/>
+      <c r="BL38" s="198"/>
+      <c r="BM38" s="198"/>
+      <c r="BN38" s="198"/>
+      <c r="BO38" s="198"/>
+      <c r="BP38" s="198"/>
+      <c r="BQ38" s="198"/>
+      <c r="BR38" s="198"/>
+      <c r="BS38" s="198"/>
+      <c r="BT38" s="198"/>
+      <c r="BU38" s="198"/>
+      <c r="BV38" s="198"/>
+      <c r="BW38" s="198"/>
+      <c r="BX38" s="198"/>
+      <c r="BY38" s="198"/>
+      <c r="BZ38" s="198"/>
+      <c r="CA38" s="198"/>
       <c r="CB38" s="217"/>
     </row>
     <row r="39" ht="16.5" spans="2:80">
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="187" t="s">
         <v>282</v>
       </c>
       <c r="C39" s="99"/>
@@ -16713,8 +16713,8 @@
       <c r="I39" s="99"/>
       <c r="J39" s="99"/>
       <c r="K39" s="99"/>
-      <c r="L39" s="193"/>
-      <c r="M39" s="188" t="s">
+      <c r="L39" s="192"/>
+      <c r="M39" s="187" t="s">
         <v>282</v>
       </c>
       <c r="N39" s="99"/>
@@ -16726,8 +16726,8 @@
       <c r="T39" s="99"/>
       <c r="U39" s="99"/>
       <c r="V39" s="99"/>
-      <c r="W39" s="193"/>
-      <c r="X39" s="188" t="s">
+      <c r="W39" s="192"/>
+      <c r="X39" s="187" t="s">
         <v>282</v>
       </c>
       <c r="Y39" s="99"/>
@@ -16739,52 +16739,52 @@
       <c r="AE39" s="99"/>
       <c r="AF39" s="99"/>
       <c r="AG39" s="99"/>
-      <c r="AH39" s="193"/>
-      <c r="AI39" s="200"/>
-      <c r="AJ39" s="200"/>
-      <c r="AK39" s="200"/>
-      <c r="AL39" s="200"/>
-      <c r="AM39" s="200"/>
-      <c r="AN39" s="200"/>
-      <c r="AO39" s="200"/>
-      <c r="AP39" s="200"/>
-      <c r="AQ39" s="200"/>
-      <c r="AR39" s="200"/>
-      <c r="AS39" s="200"/>
-      <c r="AT39" s="200"/>
-      <c r="AU39" s="200"/>
-      <c r="AV39" s="200"/>
-      <c r="AW39" s="200"/>
-      <c r="AX39" s="200"/>
-      <c r="AY39" s="200"/>
-      <c r="AZ39" s="200"/>
-      <c r="BA39" s="200"/>
-      <c r="BB39" s="200"/>
-      <c r="BC39" s="200"/>
-      <c r="BD39" s="200"/>
-      <c r="BE39" s="200"/>
-      <c r="BF39" s="200"/>
-      <c r="BG39" s="200"/>
-      <c r="BH39" s="200"/>
-      <c r="BI39" s="200"/>
-      <c r="BJ39" s="200"/>
-      <c r="BK39" s="200"/>
-      <c r="BL39" s="200"/>
-      <c r="BM39" s="200"/>
-      <c r="BN39" s="200"/>
-      <c r="BO39" s="200"/>
-      <c r="BP39" s="200"/>
-      <c r="BQ39" s="200"/>
-      <c r="BR39" s="200"/>
-      <c r="BS39" s="200"/>
-      <c r="BT39" s="200"/>
-      <c r="BU39" s="200"/>
-      <c r="BV39" s="200"/>
-      <c r="BW39" s="200"/>
-      <c r="BX39" s="200"/>
-      <c r="BY39" s="200"/>
-      <c r="BZ39" s="200"/>
-      <c r="CA39" s="200"/>
+      <c r="AH39" s="192"/>
+      <c r="AI39" s="199"/>
+      <c r="AJ39" s="199"/>
+      <c r="AK39" s="199"/>
+      <c r="AL39" s="199"/>
+      <c r="AM39" s="199"/>
+      <c r="AN39" s="199"/>
+      <c r="AO39" s="199"/>
+      <c r="AP39" s="199"/>
+      <c r="AQ39" s="199"/>
+      <c r="AR39" s="199"/>
+      <c r="AS39" s="199"/>
+      <c r="AT39" s="199"/>
+      <c r="AU39" s="199"/>
+      <c r="AV39" s="199"/>
+      <c r="AW39" s="199"/>
+      <c r="AX39" s="199"/>
+      <c r="AY39" s="199"/>
+      <c r="AZ39" s="199"/>
+      <c r="BA39" s="199"/>
+      <c r="BB39" s="199"/>
+      <c r="BC39" s="199"/>
+      <c r="BD39" s="199"/>
+      <c r="BE39" s="199"/>
+      <c r="BF39" s="199"/>
+      <c r="BG39" s="199"/>
+      <c r="BH39" s="199"/>
+      <c r="BI39" s="199"/>
+      <c r="BJ39" s="199"/>
+      <c r="BK39" s="199"/>
+      <c r="BL39" s="199"/>
+      <c r="BM39" s="199"/>
+      <c r="BN39" s="199"/>
+      <c r="BO39" s="199"/>
+      <c r="BP39" s="199"/>
+      <c r="BQ39" s="199"/>
+      <c r="BR39" s="199"/>
+      <c r="BS39" s="199"/>
+      <c r="BT39" s="199"/>
+      <c r="BU39" s="199"/>
+      <c r="BV39" s="199"/>
+      <c r="BW39" s="199"/>
+      <c r="BX39" s="199"/>
+      <c r="BY39" s="199"/>
+      <c r="BZ39" s="199"/>
+      <c r="CA39" s="199"/>
       <c r="CB39" s="218"/>
     </row>
     <row r="40" spans="46:59">
@@ -17002,12 +17002,12 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="78.75" spans="1:17">
+    <row r="1" ht="63" spans="1:17">
       <c r="A1" s="117" t="s">
         <v>360</v>
       </c>
@@ -17252,7 +17252,7 @@
   <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -17964,7 +17964,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -18703,8 +18703,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:BX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18955,7 +18955,7 @@
   <dimension ref="A1:IT35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C5" sqref="C5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29103,12 +29103,12 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="78.75" spans="1:17">
+    <row r="1" ht="63" spans="1:17">
       <c r="A1" s="117" t="s">
         <v>303</v>
       </c>
@@ -29175,7 +29175,7 @@
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31308,12 +31308,12 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="78.75" spans="1:17">
+    <row r="1" ht="63" spans="1:17">
       <c r="A1" s="117" t="s">
         <v>325</v>
       </c>
@@ -31380,7 +31380,7 @@
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33513,7 +33513,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33585,7 +33585,7 @@
   <dimension ref="B1:S35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="C5" sqref="C5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33718,7 +33718,7 @@
       <c r="R4" s="145"/>
       <c r="S4" s="146"/>
     </row>
-    <row r="5" ht="78.75" spans="2:19">
+    <row r="5" ht="63" spans="2:19">
       <c r="B5" s="39" t="s">
         <v>198</v>
       </c>
@@ -33764,9 +33764,7 @@
       <c r="P5" s="118" t="s">
         <v>373</v>
       </c>
-      <c r="Q5" s="38" t="s">
-        <v>142</v>
-      </c>
+      <c r="Q5" s="38"/>
       <c r="R5" s="118" t="s">
         <v>374</v>
       </c>
